--- a/data/start_messages.xlsx
+++ b/data/start_messages.xlsx
@@ -10,14 +10,14 @@
   <calcPr/>
   <extLst>
     <ext uri="GoogleSheetsCustomDataVersion2">
-      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="4RihXlBnGA5hFIfrGUZchClORlxSIB1NV9/yg17DdoI="/>
+      <go:sheetsCustomData xmlns:go="http://customooxmlschemas.google.com/" r:id="rId6" roundtripDataChecksum="HMffmub1YjHvOyUtDtl2j24vvmFxeiU3jQ8QUsoCghI="/>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="887" uniqueCount="333">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="877" uniqueCount="324">
   <si>
     <t>incident_text</t>
   </si>
@@ -94,7 +94,7 @@
     <t>אל-רום</t>
   </si>
   <si>
-    <t>"ריח מזוויע, נמשך מספר ימים"</t>
+    <t>שיש בימים האחרונים.</t>
   </si>
   <si>
     <t>בוקר טוב. אני תושב מודיעין, גר ברחי כליל החורש. בשבועות האחרונים בשעות הערב והבוקר אנחנו מאוד סובלים מריח מאוד חריף שכנראה המקור שלו פסולת שנשרפת בצורה פירטית בישובים ערבים. השכונה והבית מתמלאים בריח נוראי ובלתי נסבל שגורם לכאבי גרון ובטן לכל בני הבית. אשמח לדעת מה נעשה בנושא. זמין לכל שאלה</t>
@@ -106,7 +106,7 @@
     <t>מודיעין, כליל החורש</t>
   </si>
   <si>
-    <t>"מתרחש בשבועות האחרונים בערב ובבוקר. חשד לשריפת פסולת בישובים סמוכים. דווח גם על כאבי בטן."</t>
+    <t>בשבועות האחרונים בשעות הערב והבוקר... כנראה המקור שלו פסולת שנשרפת בצורה פירטית בישובים ערבים... אשמח לדעת מה נעשה בנושא. זמין לכל שאלה</t>
   </si>
   <si>
     <t>שלום, בחודשים האחרונים אנו נחנקים תחת עשן המשרפות בכפרים הסמוכים לא זכור לי , כתושב מודיעין מזה 15 שנים , מצב כאוטי ומחניק כגון זה. אני מתגורר בצפון שכונת הכרמים (קרוב לכביש 443). אבקש טיפולכם הרחב והמידי בתפועה תודה</t>
@@ -115,7 +115,7 @@
     <t>"מודיעין, שכונת הכרמים (צפון), קרוב לכביש 443"</t>
   </si>
   <si>
-    <t>"עשן ממשרפות בכפרים סמוכים. תושב 15 שנה, מצב חריג."</t>
+    <t>בחודשים האחרונים אנו נחנקים תחת עשן המשרפות בכפרים הסמוכים לא זכור לי , כתושב מודיעין מזה 15 שנים , מצב כאוטי ומחניק כגון זה... אבקש טיפולכם הרחב והמידי בתפועה תודה</t>
   </si>
   <si>
     <t>מדווחת על ריח שרוף חריף בשכונת הכרמים ממש עכשו, וגם כל השבוע האחרון</t>
@@ -127,6 +127,9 @@
     <t>שכונת הכרמים</t>
   </si>
   <si>
+    <t>וגם כל השבוע האחרון</t>
+  </si>
+  <si>
     <t>מה קורה היום בחריש? ריח חריף מאוד</t>
   </si>
   <si>
@@ -154,9 +157,6 @@
     <t>חריש, שכונת בצוותא</t>
   </si>
   <si>
-    <t>"הדיווח מתייחס לכל העיר חריש"</t>
-  </si>
-  <si>
     <t>שלום בוקר טוב רוצה לעדכן שיש ריח שרוף באזור שכונת בצוותא</t>
   </si>
   <si>
@@ -169,6 +169,9 @@
     <t>חריש, רחוב רעות 30</t>
   </si>
   <si>
+    <t>מזה תקופה יש ריח חזק של שריפה בבקרים... אשמח את טיפולכם</t>
+  </si>
+  <si>
     <t>מאיה כהן</t>
   </si>
   <si>
@@ -193,7 +196,7 @@
     <t>חריש, סביון 30</t>
   </si>
   <si>
-    <t>ריח מסריח</t>
+    <t>מצד הכביש הצד העורפי של הבניין</t>
   </si>
   <si>
     <t>שלום ריח חריף ועשן בלתי פוסק בשכונת הפרחים בחריש. מה יהיה מתי זה יפסק.</t>
@@ -205,7 +208,7 @@
     <t>חריש, שכונת הפרחים</t>
   </si>
   <si>
-    <t>עשן בלתי פוסק</t>
+    <t>מה יהיה מתי זה יפסק.</t>
   </si>
   <si>
     <t>שלום אנחנו גרים ברחוב אחדות בחריש הריח של השריפות מחניק! אי אפשר לפתוח את החלונות זה ממש נורא</t>
@@ -214,7 +217,7 @@
     <t>חריש, רחוב אחדות</t>
   </si>
   <si>
-    <t>אי אפשר לפתוח את החלונות</t>
+    <t>אי אפשר לפתוח את החלונות זה ממש נורא</t>
   </si>
   <si>
     <t>היי ריח מזעזע של פלסטיק שרוף בחריש</t>
@@ -226,13 +229,16 @@
     <t>מתרחש כמעט כל יום, מתואר כסיוט</t>
   </si>
   <si>
+    <t>זה ממש כמעט כל יום. פשוט סיוט. מה אפשר לעשות?</t>
+  </si>
+  <si>
     <t>בשעה 4 בבוקר ריח נורא של פסולת (כולל פלסטיק) נשרפת נכנס לבית שלי ברחוב מיכה הנביא 6 ראש העין אי אפשר היה לנשום הייתי חייב לסגור חלונות ותריסים ולפתוח מזגן</t>
   </si>
   <si>
     <t>ראש העין, מיכה הנביא 6</t>
   </si>
   <si>
-    <t>נאלץ לסגור חלונות ולהפעיל מזגן</t>
+    <t>הייתי חייב לסגור חלונות ותריסים ולפתוח מזגן</t>
   </si>
   <si>
     <t>1</t>
@@ -250,7 +256,7 @@
     <t>בבקרים יש ריח של עשן ברכה פלדמן</t>
   </si>
   <si>
-    <t>מתרחש בבקרים</t>
+    <t>בבקרים</t>
   </si>
   <si>
     <t>ברכה פלדמן</t>
@@ -265,7 +271,7 @@
     <t>שכונת הפרחים, רחוב כרכום</t>
   </si>
   <si>
-    <t>ריח זוועה, מדד זיהום בינוני אך מרגיש גרוע יותר</t>
+    <t>מדד זיהום האוויר מראה בינוני אבל מרגיש הרבה יותר גרוע</t>
   </si>
   <si>
     <t>ריח עשן במושב מאור</t>
@@ -280,7 +286,7 @@
     <t>הנביאים</t>
   </si>
   <si>
-    <t>נמשך מספר ימים. מדווחת בהריון וסובלת מצירונים עקב הריח.</t>
+    <t>מריחה כבר כמה ימים... אני בהריון... גורם לי לצירונים בבקשה לטפל בזה🙏</t>
   </si>
   <si>
     <t>שלום ערב טוב אני רוצה לדווח שיש ריח חריף באיזור להבות חביבה</t>
@@ -292,7 +298,7 @@
     <t>יש ריח נוראי של עשן מסביב ללהבות חביבה , נכנס הביתה . זה כבר כמה ימים</t>
   </si>
   <si>
-    <t>נכנס הביתה, נמשך כבר כמה ימים</t>
+    <t>זה כבר כמה ימים</t>
   </si>
   <si>
     <t>רחוק מהמפגע</t>
@@ -304,37 +310,34 @@
     <t>כפר סבא</t>
   </si>
   <si>
-    <t>נמשך כשעתיים. חשד למקור מיישובים סמוכים.</t>
+    <t>מזה כבר שעתיים... לא יודעת אם זה מגיע מעיר אחרת או מהבני דודים</t>
   </si>
   <si>
     <t>ערב טוב בבתקופה האחרונה בכל ערב יש ריח חזק וחריף של שריפה . בקיבוץ להבות חביבה . תודה</t>
   </si>
   <si>
-    <t>מתרחש בתקופה האחרונה בכל ערב</t>
+    <t>בתקופה האחרונה בכל ערב... תודה</t>
   </si>
   <si>
     <t>ערב טוב, אני גרה בלהבות חביבה אני רוצה לדווח על ריח חזק מאוד של עשן שמגיע אלינו ליישוב שלא מאפשר שהייה בחוץ, מצריך סגירת כל החלונות בבית וגם אז לצערי זה נכנס מדובר בכמה ימים ברצף. אבל ליתר דיוק אני גרה כאן כמעט כשנה וכמעט מדי ערב יש ריחות חזקים של עשן, ביוב וכל מיני מפגעים</t>
   </si>
   <si>
-    <t>לא מאפשר שהייה בחוץ, סגירת חלונות. תלונה על ריחות עשן וביוב כמעט מדי ערב במשך שנה.</t>
+    <t>שלא מאפשר שהייה בחוץ, מצריך סגירת כל החלונות בבית וגם אז לצערי זה נכנס מדובר בכמה ימים ברצף. אבל ליתר דיוק אני גרה כאן כמעט כשנה וכמעט מדי ערב יש ריחות חזקים של עשן, ביוב וכל מיני מפגעים</t>
   </si>
   <si>
     <t>שלום רב אני תושבת קיבוץ להבות חביבה, יש כבר יותר משעה ריח שריפה ועשן, זה בלתי נסבל. זה קרה גם אתמול בלילה. אנא עזרתכם כי אין לי למי לפנות</t>
   </si>
   <si>
-    <t>נמשך יותר משעה, קרה גם אתמול בלילה</t>
+    <t>אנא עזרתכם כי אין לי למי לפנות</t>
   </si>
   <si>
     <t>שלום אשמח לדווח על ריח ממש חזק של שריפת חומרים בקיבוץ להבות חביבה</t>
   </si>
   <si>
-    <t>שריפת חומרים</t>
-  </si>
-  <si>
     <t>ערב טוב, שמי ענבל לוי, אני מתגוררת בלהבות חביבה. בלילות האחרונים יש ריח מסריח ועשן באוויר בצורה נוראית. היום העשן ממש לא מאפשר לנשום ונאלצנו לסגור את כל החלונות.</t>
   </si>
   <si>
-    <t>מתרחש בלילות האחרונים, נאלצו לסגור חלונות</t>
+    <t>בלילות האחרונים... נאלצנו לסגור את כל החלונות.</t>
   </si>
   <si>
     <t>ענבל לוי</t>
@@ -349,16 +352,13 @@
     <t>מתן</t>
   </si>
   <si>
-    <t>ריח חריג</t>
-  </si>
-  <si>
     <t>שלום, מבקש לדווח על ריח שריפה חזק. מקור הריח - חבלה, מעבר לקו הירוק. החלונות בבית היו פתוחים, וכשחזרנו - כל הבית מסריח. בחצר אי אפשר לנשום. שיהיה המשך ערב טוב ונקי</t>
   </si>
   <si>
     <t>חבלה</t>
   </si>
   <si>
-    <t>החלונות היו פתוחים, הבית התמלא ריח</t>
+    <t>החלונות בבית היו פתוחים, וכשחזרנו - כל הבית מסריח... שיהיה המשך ערב טוב ונקי</t>
   </si>
   <si>
     <t>ערב טוב, שוב מורגש באיזורנו ריח מפחמות, ממש בילתי ניתן לנשום והבית סגור הרמטית 😞 אשמח לטיפולכם</t>
@@ -367,7 +367,7 @@
     <t>גזם</t>
   </si>
   <si>
-    <t>ריח מפחמות. אירוע חוזר ('שוב'). הבית סגור הרמטית</t>
+    <t>הבית סגור הרמטית 😞 אשמח לטיפולכם</t>
   </si>
   <si>
     <t>שלום יש ריח של זיהום אויר משריפה של חומרי פסולת בישוב מתן</t>
@@ -376,9 +376,6 @@
     <t>שלום רב, אנחנו תושבי מתן שבשרון, סובלים קשות משריפות פסולת בחבלה והסביבה. קשה לנשום ולא בריא</t>
   </si>
   <si>
-    <t>דיווח מתושבי מתן. שריפות בחבלה והסביבה.</t>
-  </si>
-  <si>
     <t>אני רוצה לדווח על ריח ועשן של גומי שרוף בכל ישוב מתן</t>
   </si>
   <si>
@@ -388,7 +385,7 @@
     <t>הצילו.... אנחנו נחנקים בישוב מתן.שמי רמי אני בעלים של חדר כושר מנסה שישמרו על הבריאות בישוב אבל .אי אפשר לצאת בערב מהבית אנשים מסתובבים עם משאפים ,רוצחים אותנו פה ואף אחד לא מזיז,כלום אך מטפלים בזה יש לי ילדה אסמטית שלא מצליחה לנשום למי פונים מה עושים אנחנו לא בעולם שלישי. זקוקים לעזרה דחוף ,</t>
   </si>
   <si>
-    <t>מתרחש בערב. דיווח מרמי (בעל חדר כושר). מדווח על שימוש במשאפים וילדה אסמטית במצוקה</t>
+    <t>הצילו.... אנחנו נחנקים... מנסה שישמרו על הבריאות בישוב אבל... אי אפשר לצאת בערב מהבית אנשים מסתובבים עם משאפים ,רוצחים אותנו פה ואף אחד לא מזיז,כלום... יש לי ילדה אסמטית שלא מצליחה לנשום למי פונים מה עושים אנחנו לא בעולם שלישי. זקוקים לעזרה דחוף ,</t>
   </si>
   <si>
     <t>שלום . אני תושבת מאור ויש כאם ריח חריף באוויר</t>
@@ -409,31 +406,25 @@
     <t>בוקעתא</t>
   </si>
   <si>
-    <t>הריח מגיע לקיבוץ אל רום</t>
-  </si>
-  <si>
     <t>ריח עשן חריף כבר כמה שעות ברחוב חבצלת בישוב מתן. זה קורה הרבה מאוד, בעיקר בשבועות האחרונים.</t>
   </si>
   <si>
     <t>מתן, רחוב חבצלת</t>
   </si>
   <si>
-    <t>נמשך מספר שעות. אירוע חוזר (קורה הרבה, בעיקר לאחרונה)</t>
+    <t>זה קורה הרבה מאוד, בעיקר בשבועות האחרונים.</t>
   </si>
   <si>
     <t>היי, ברצוני לדווח על ריח של עשן צורב באוויר כתוצאה משריפת פסולת בכפרים הסמוכים אני גרה ביישוב מתן</t>
   </si>
   <si>
-    <t>מקור: שריפת פסולת בכפרים הסמוכים. תיאור: עשן צורב.</t>
-  </si>
-  <si>
     <t>היי יש ריח חריף במושב מאור של שרוף</t>
   </si>
   <si>
     <t>גם הבוקר ריח שריפה חזק ונוראי במושב מאור . לאחרונה כמעט בכל יום מתעוררים לריח נוראי שלא מאפשר לפתוח חלון בבוקר . פשוט נורא</t>
   </si>
   <si>
-    <t>מתרחש בבוקר. אירוע חוזר (כמעט בכל יום לאחרונה). לא מאפשר לפתוח חלונות.</t>
+    <t>לאחרונה כמעט בכל יום מתעוררים לריח נוראי שלא מאפשר לפתוח חלון בבוקר . פשוט נורא</t>
   </si>
   <si>
     <t>שלום רב, אני מבקשת לדווח ובתקווה שזה יטופל, על כך שבכל ערב ובוקר ישנו ריח חזק של זבל בשכונה בה אנחנו מתגוררים, קרית שלום בתל אביב. הריח חזק וחריף מאד ואני נאלצים לסגור את כל החלונות בבית. זה פשוט מזעזע! אשמח לטיפולכם ועזרתכם. תודה רבה, ורדית ראובני.</t>
@@ -442,7 +433,7 @@
     <t>תל אביב, שכונת קרית שלום</t>
   </si>
   <si>
-    <t>ריח זבל. מתרחש כל ערב ובוקר. נאלצים לסגור חלונות.</t>
+    <t>אני מבקשת לדווח ובתקווה שזה יטופל, על כך שבכל ערב ובוקר ישנו ריח חזק... אני נאלצים לסגור את כל החלונות בבית. זה פשוט מזעזע! אשמח לטיפולכם ועזרתכם. תודה רבה</t>
   </si>
   <si>
     <t>ורדית ראובני</t>
@@ -451,25 +442,19 @@
     <t>זיהום אוויר וריח בלתי נסבל בקרית שלום תל אביב</t>
   </si>
   <si>
-    <t>זיהום אוויר</t>
-  </si>
-  <si>
     <t>מדווח על מפגע עשן כבד באורנית איזור רחוב התבור</t>
   </si>
   <si>
     <t>אורנית, רחוב התבור</t>
   </si>
   <si>
-    <t>עשן כבד</t>
-  </si>
-  <si>
     <t>שלום, ברצוני לדווח על ריח שריפה חריף מאד מזה יומיים בישוב נוקדים שבמועצה האזורית גוש עציון (מזרח הגוש). הריח חזק מאד ומורגש לכל אורך שעות היממה. מעבר לכך שמדובר במטרד, מדובר בתוצרי שריפה של פסולת הנשאפים על ידי תינוקות, ילדים, קשישים ונשים בהריון ומהווים סכנה בריאותית לציבור. אודה לטיפולכם בהקדם 🙏🏻🙏🏻</t>
   </si>
   <si>
     <t>נוקדים</t>
   </si>
   <si>
-    <t>נמשך מזה יומיים לכל אורך היממה. מקור: שריפת פסולת. חשש לאוכלוסיות בסיכון.</t>
+    <t>מזה יומיים... מורגש לכל אורך שעות היממה. מעבר לכך שמדובר במטרד, מדובר בתוצרי שריפה של פסולת הנשאפים על ידי תינוקות, ילדים, קשישים ונשים בהריון ומהווים סכנה בריאותית לציבור. אודה לטיפולכם בהקדם 🙏🏻🙏🏻</t>
   </si>
   <si>
     <t>אהלן אני נער מהיישוב איבי הנחל אנחנו במשך שנים סובלים מריח וזיהום אוויר נוראי מהמזבלה אלמניה שנמצאת באיזור שלנו מגיל קטן אני זוכר את הריח הזה אבל בזמן האחרון זה נהיה הרבה יותר נוראי דורשים צו סגירה למקום הזה אנחנו רוצים לחיות חיים בריאים יש לי אחים קטנים שאני לא רוצה שהם ינשמו רעלים בבקשה תעשו משהו עם זה</t>
@@ -478,7 +463,7 @@
     <t>מזבלה אלמניה</t>
   </si>
   <si>
-    <t>סובלים שנים, לאחרונה החמיר. דורשים צו סגירה.</t>
+    <t>אנחנו במשך שנים סובלים... מהמזבלה אלמניה... מגיל קטן אני זוכר את הריח הזה אבל בזמן האחרון זה נהיה הרבה יותר נוראי דורשים צו סגירה למקום הזה אנחנו רוצים לחיות חיים בריאים יש לי אחים קטנים שאני לא רוצה שהם ינשמו רעלים בבקשה תעשו משהו עם זה</t>
   </si>
   <si>
     <t>דיווח: בלילות האחרונים יש ריח של שריפת זבל (בלי מקור ברור) חזק בשמשית. כשנמצאים בחוץ אחרי כמה דקות יש צריבה בעיניים. מיקום: שמשית. שעות: מאיזור שעה 10 בדרך כלל נהיה ריח מאוד חזק ונמשך בלילה. כמעט כל לילה כבר כמה לילות ברציפות.</t>
@@ -490,7 +475,7 @@
     <t>שמשית</t>
   </si>
   <si>
-    <t>מתרחש בלילות האחרונים, מתחיל סביב 10 בלילה. מקור לא ברור.</t>
+    <t>בלילות האחרונים... (בלי מקור ברור)... מאיזור שעה 10 בדרך כלל נהיה ריח מאוד חזק ונמשך בלילה. כמעט כל לילה כבר כמה לילות ברציפות.</t>
   </si>
   <si>
     <t>ריח שריפה חריף מורגש ביישוב מתן</t>
@@ -502,25 +487,25 @@
     <t>כאב או גירוי בגרון, צריבה בעיניים, קשיי נשימה</t>
   </si>
   <si>
-    <t>מתרחש כל ערב. אי אפשר לצאת או לפתוח חלונות.</t>
+    <t>אין לנו אוויר לנשום... אי אפשר לצאת מהבית, אי אפשר לפתוח חלון... וזה כל ערב!!!</t>
   </si>
   <si>
     <t>שלום רב, רוצה לדווח על מפגע חמור של זיהום אוויר וריח של שרפת פסולת עכשיו בשמשית, וגם לאורך כל הלילה האחרון</t>
   </si>
   <si>
-    <t>מתרחש עכשיו וגם לאורך כל הלילה האחרון</t>
+    <t>וגם לאורך כל הלילה האחרון</t>
   </si>
   <si>
     <t>אנחנו סובלים על בסיס קבוע ממפגע תברואתי מסוכן , אנחנו והילדים שלנו ,כבר המון זמן ואין שום שינוי. מדוע אנחנו צריכים לחיות כך? סיוט מתמשך,ערב ערב וכלום לא קורה, גם כעת אי אפשר לנשום.</t>
   </si>
   <si>
-    <t>מפגע תברואתי מסוכן. מתרחש ערב ערב.</t>
+    <t>אנחנו סובלים על בסיס קבוע... כבר המון זמן ואין שום שינוי. מדוע אנחנו צריכים לחיות כך? סיוט מתמשך,ערב ערב וכלום לא קורה</t>
   </si>
   <si>
     <t>ריח חזק של שריפת מזבלה באזור שמשית וזה כבר כמה ימים כמה לילות🙏</t>
   </si>
   <si>
-    <t>נמשך כבר כמה ימים ולילות</t>
+    <t>וזה כבר כמה ימים כמה לילות🙏</t>
   </si>
   <si>
     <t>הי, יש כרגע ריח של פלסטיק צרוף שמגיע מהכפרים בקיבוץ חורשים</t>
@@ -529,9 +514,6 @@
     <t>קיבוץ חורשים</t>
   </si>
   <si>
-    <t>מקור: מהכפרים הסמוכים</t>
-  </si>
-  <si>
     <t>הייי רוצה לדווח על ריח חריג וחזק של שריפת פלסטיק באיזור שמשית</t>
   </si>
   <si>
@@ -544,7 +526,7 @@
     <t>ראשון לציון, שכונת פרס נובל</t>
   </si>
   <si>
-    <t>מקור: אגני החמצון (שפד''ן). לא ניתן לפתוח חלונות או לשהות בחוץ</t>
+    <t>אין אפשרות לפתוח חלון או לשהות בחוץ. בבקשה טיפולכם ובדיקתכם!!</t>
   </si>
   <si>
     <t>מדווח על ריח שרוף חריף באיזור תנועת המרי 4 קריית אונו</t>
@@ -562,7 +544,7 @@
     <t>שמשית, מעיינות 75</t>
   </si>
   <si>
-    <t>מתרחש עכשיו וגם בכל ערב השבוע</t>
+    <t>וגם בכל ערב השבוע. נא בדקו בבקשה ועדכנו תודה רבה</t>
   </si>
   <si>
     <t>חגית בן-דוד</t>
@@ -574,15 +556,9 @@
     <t>ליד הישוב נילי</t>
   </si>
   <si>
-    <t>עשן נוראי</t>
-  </si>
-  <si>
     <t>שלום גרה בשמשית. יש ריח חזק של שריפת חומרים מזהמים.</t>
   </si>
   <si>
-    <t>שריפת חומרים מזהמים</t>
-  </si>
-  <si>
     <t>ריח בילתי ניסבל בנוקדים.. אי אפשר לנשום</t>
   </si>
   <si>
@@ -592,13 +568,13 @@
     <t>קרית אונו / נוקדים</t>
   </si>
   <si>
-    <t>מתרחש מהבוקר. לא נעים לצאת החוצה.</t>
+    <t>ברמה שלא נעים לצאת החוצה</t>
   </si>
   <si>
     <t>שלום. שמי חיים ואני תושב נוקדים אני חייב להגיד לכם שאנחנו סובלים כבר זמן מה מריח מגעיל של שריפת זבל משכנינו הפלסטינאים. מיום ליום זה מחריף! אתם יכולים לעשות עם זה משהו?</t>
   </si>
   <si>
-    <t>סובלים כבר זמן מה, המצב מחריף מיום ליום. מקור: שכנים פלסטינאים</t>
+    <t>אנחנו סובלים כבר זמן מה... משכנינו הפלסטינאים. מיום ליום זה מחריף! אתם יכולים לעשות עם זה משהו?</t>
   </si>
   <si>
     <t>שלום אני גרה באפרת ויש לנו הרבה פעמים ריח של עשן מהכפר הערבי הצמוד אלינו.</t>
@@ -607,13 +583,13 @@
     <t>אפרת</t>
   </si>
   <si>
-    <t>מתרחש הרבה פעמים. מקור: מהכפר הצמוד</t>
+    <t>הרבה פעמים</t>
   </si>
   <si>
     <t>שלום האם אתם מסוגלים לסייע לשכנים שסובלים מריח עשן נורא בחורף גם באזור נוקדים בגוש עציון?</t>
   </si>
   <si>
-    <t>מתרחש בחורף</t>
+    <t>האם אתם מסוגלים לסייע לשכנים שסובלים... בחורף</t>
   </si>
   <si>
     <t>שלום וברכה, אבקש לדווח על ריח חריף של שרפות זבל בשכונת נוקדי שאול ביישוב נוקדים</t>
@@ -628,21 +604,18 @@
     <t>עומר, רחוב צבעוני</t>
   </si>
   <si>
+    <t>אודה לטיפולכם</t>
+  </si>
+  <si>
     <t>שלום, ריח שרוף חזק בנוקדים הבוקר</t>
   </si>
   <si>
-    <t>הבוקר</t>
-  </si>
-  <si>
     <t>כביש 55 בין עזון לנבי אליאס ריח חריף של שריפה מצד צפון מזרח</t>
   </si>
   <si>
     <t>כביש 55 בין עזון לנבי אליאס</t>
   </si>
   <si>
-    <t>הריח מגיע מצד צפון מזרח</t>
-  </si>
-  <si>
     <t>שלום, ארצה לדווח על ריח של שריפת פסולת בשכונה המערבית בכרמיאל</t>
   </si>
   <si>
@@ -652,7 +625,7 @@
     <t>בוקר טוב, אני תושבת שמשית ויש ריח עשן כבר מהלילה זה בלתי נסבל!!!! נאלצים לסגור חלונות כל הזמן!!!! תעשו משהו זה רעיל ומסרטן</t>
   </si>
   <si>
-    <t>מתרחש מהלילה. נאלצים לסגור חלונות</t>
+    <t>כבר מהלילה... נאלצים לסגור חלונות כל הזמן!!!! תעשו משהו זה רעיל ומסרטן</t>
   </si>
   <si>
     <t>בבקשה לטפל מיד בשריפה בבוקאטע. אנחנו משתעלים בתוך הביתים שלנו.</t>
@@ -661,7 +634,7 @@
     <t>בוקאטע</t>
   </si>
   <si>
-    <t>משתעלים בתוך הבתים</t>
+    <t>בבקשה לטפל מיד... אנחנו משתעלים בתוך הביתים שלנו.</t>
   </si>
   <si>
     <t>שלום וברכה! אני גר בעמנואל בשבוע האחרון בעיקר בערב יש ריח חזק שריפות ממפעל אזור תעשיה לפעמים בקושי אפשר לישון ושלא יגידו שזה מהכפרים הסמוכים, כי אני גר 15 שנה ואף פעם לא היה כך בתודה משה יחיאל</t>
@@ -670,7 +643,7 @@
     <t>עמנואל</t>
   </si>
   <si>
-    <t>מתרחש בשבוע האחרון בערב. מקור חשוד: מפעל באזור תעשייה. מפריע לשינה</t>
+    <t>בשבוע האחרון בעיקר בערב... לפעמים בקושי אפשר לישון ושלא יגידו שזה מהכפרים הסמוכים, כי אני גר 15 שנה ואף פעם לא היה כך</t>
   </si>
   <si>
     <t>משה יחיאל</t>
@@ -682,7 +655,7 @@
     <t>קיבוץ אלרום</t>
   </si>
   <si>
-    <t>שני מוקדי שריפה מזוהים: 700 מ' מדרום לקיבוץ, ומצפון בכניסה לבוקעתא. הפך לשגרה.</t>
+    <t>שהפכו לשגרת חיינו , יש שני מוקדים בהם שורפים זבל...</t>
   </si>
   <si>
     <t>שלום אני רוצה להתלונן על מפגע ריח בקיבוץ אל-רום</t>
@@ -694,7 +667,7 @@
     <t>מבקשת לדווח על ריח נוראי של שריפה , ריח מחניק, בכל יום השכנים שלנו מחבלה דואגים לנו לכך, לא יתכן הזיהום אויר המתמשך, מדוע לא מטופל?</t>
   </si>
   <si>
-    <t>מתרחש בכל יום. מקור: שכנים מחבלה</t>
+    <t>בכל יום... דואגים לנו לכך, לא יתכן הזיהום אויר המתמשך, מדוע לא מטופל?</t>
   </si>
   <si>
     <t>ריח שרפת זבל מאזור תעשיה עמנואל עכשיו</t>
@@ -703,19 +676,16 @@
     <t>עמנואל, אזור תעשיה</t>
   </si>
   <si>
-    <t>עכשיו</t>
-  </si>
-  <si>
     <t>מדווחת על ריח שריפה חזק ומפריע ,נאלצים לסגור את כל חלונות הבית ולנשום אוויר מזוהם . הנני מתגוררת בישוב מתן שבשרון,תודה על טיפולכם</t>
   </si>
   <si>
-    <t>נאלצים לסגור את כל חלונות הבית ולנשום אוויר מזוהם.</t>
+    <t>נאלצים לסגור את כל חלונות הבית ולנשום אוויר מזוהם... תודה על טיפולכם</t>
   </si>
   <si>
     <t>שלום רב, כאן אפרת משמשית. דיווחתי עכשיו למוקד מועצת עמק יזרעאל על מפגעי ריחות שריפת פסולת, תודה</t>
   </si>
   <si>
-    <t>דיווח למוקד מועצת עמק יזרעאל</t>
+    <t>דיווחתי עכשיו למוקד מועצת עמק יזרעאל... תודה</t>
   </si>
   <si>
     <t>הי נוסעת בכביש 60 עכשיו ממש ליד צומת חוסן מעבר לחומה יש שרפה שחורה שנראת לא רגילה.</t>
@@ -727,9 +697,6 @@
     <t>שחור</t>
   </si>
   <si>
-    <t>נראית לא רגילה. מעבר לחומה.</t>
-  </si>
-  <si>
     <t>שלום אני תושב עמנואל מדווח שלאחרונה בשנה האחרונה ובחודשים האחרונים ובימים האחרונים נהיה פה קטסטרופה של ריחות רעים מהמפעל מיחזור מדובר במפעל מיחזור נורא והיום שמוציא ריחות רעילים מחניקים שמגיעים הגיעו מים</t>
   </si>
   <si>
@@ -739,7 +706,7 @@
     <t>עמנואל, מפעל מיחזור</t>
   </si>
   <si>
-    <t>נמשך זמן רב (שנה אחרונה). ריחות רעילים.</t>
+    <t>לאחרונה בשנה האחרונה ובחודשים האחרונים ובימים האחרונים נהיה פה קטסטרופה... מדובר במפעל מיחזור נורא...</t>
   </si>
   <si>
     <t>הי, מדווחת על זיהום אוויר חריג,ממש בלתי נסבל.אי אפשר לחיות ככה!!!!מדובר באוכלוסיה של תינוקות, ילדים, חולי אסתמה, מבוגרים וקשישים. אסור לתת להם להמשיך להרוג אותנו. הריח חריף וצורב בעיניים. מדובר במפעל זבל צמוד לעמנואל.לא הגיוני שמוכרים אותנו בשביל כסף!!!!</t>
@@ -748,7 +715,7 @@
     <t>עמנואל, מפעל זבל צמוד</t>
   </si>
   <si>
-    <t>סכנה לאוכלוסיה רגישה (תינוקות, חולי אסתמה). מפגע תברואתי צמוד.</t>
+    <t>אי אפשר לחיות ככה!!!!מדובר באוכלוסיה של תינוקות, ילדים, חולי אסתמה, מבוגרים וקשישים. אסור לתת להם להמשיך להרוג אותנו... לא הגיוני שמוכרים אותנו בשביל כסף!!!!</t>
   </si>
   <si>
     <t>Good morning. I wanted to report a problem with our air quality. I also wanted to know if you have gotten complaints from my area before, I live in karnei shomron. They recently put up an asphalt plant that makes the air smell extremely toxic and we want it to be shut down. Additionally the neighboring Arab villages are constantly burning garbage and tires and it makes it hard to breath here. What can we do to stop this?</t>
@@ -760,6 +727,9 @@
     <t>קרני שומרון</t>
   </si>
   <si>
+    <t>I also wanted to know if you have gotten complaints from my area before... They recently put up an asphalt plant... we want it to be shut down. Additionally the neighboring Arab villages are constantly burning garbage and tires... What can we do to stop this?</t>
+  </si>
+  <si>
     <t>שלום, מבקשת לעדכן על מפגע סביבתי. זה כבר היום השלישי ברציפות שיש ריח נוראי בערבים של שריפת פסולת כימית כלשהי מאזור זרזיר כנראה ברמה שאי אפשר להיות עם חלון פתוח...</t>
   </si>
   <si>
@@ -769,7 +739,7 @@
     <t>זרזיר</t>
   </si>
   <si>
-    <t>הריח חוזר בערבים במשך 3 ימים רצופים. לא ניתן לשהות עם חלון פתוח</t>
+    <t>זה כבר היום השלישי ברציפות... ברמה שאי אפשר להיות עם חלון פתוח...</t>
   </si>
   <si>
     <t>אמש, סביבות 2 בלילה התחיל הבית להתמלא ריח שריפה חזק! יצאתי למרפסת ושמעתי קולות מדורה מכיוון תל השומר אבל לא ראיתי כלום, יכול להיות כי יש בניינים שמסתירים. חשבתי בהתחלה שריפה פה בגינה או אצל שכנים עם כמה שזה היה חזק.</t>
@@ -778,7 +748,7 @@
     <t>תל השומר</t>
   </si>
   <si>
-    <t>נשמעו קולות מדורה. הריח מילא את הבית</t>
+    <t>יכול להיות כי יש בניינים שמסתירים. חשבתי בהתחלה שריפה פה בגינה או אצל שכנים</t>
   </si>
   <si>
     <t>02:00</t>
@@ -793,13 +763,13 @@
     <t>קריית אונו, שכונת עבר הירדן</t>
   </si>
   <si>
-    <t>הורגש הלילה, מעיר משינה.</t>
+    <t>ברמה שמתעוררים ממנו ומרגישים מחנק. מה המקור של זה?</t>
   </si>
   <si>
     <t>יש ריח שריפה חריף מאוד היום, עד כדי שהלכתי לבדוק ששום דבר בבית או אצל השכנים לא נשרף</t>
   </si>
   <si>
-    <t>חשש לשריפה בבית/אצל שכנים בגלל העוצמה</t>
+    <t>עד כדי שהלכתי לבדוק ששום דבר בבית או אצל השכנים לא נשרף</t>
   </si>
   <si>
     <t>מריחים עשן סמיך אי אפשר לנשום ליד מושב משואה כבר שורפות לנו העיניים הכפרים ליד מנסים לחנוק אותנו</t>
@@ -808,7 +778,7 @@
     <t>מושב משואה</t>
   </si>
   <si>
-    <t>עשן סמיך מהכפרים ליד</t>
+    <t>הכפרים ליד מנסים לחנוק אותנו</t>
   </si>
   <si>
     <t>היי מזרחי מאיה ברקת 19 שמשית מבקשת לדווח על ריח חריף בישוב כבר שעות מקשה על הנשימה לחולי ריאות</t>
@@ -817,7 +787,7 @@
     <t>שמשית, ברקת 19</t>
   </si>
   <si>
-    <t>נמשך כבר שעות. מצוין קושי לחולי ריאות.</t>
+    <t>כבר שעות מקשה על הנשימה לחולי ריאות</t>
   </si>
   <si>
     <t>מזרחי מאיה</t>
@@ -826,9 +796,6 @@
     <t>שלום, יש ריחות של פסולת ופלסטיק בישוב שמשית</t>
   </si>
   <si>
-    <t>ריחות של פסולת</t>
-  </si>
-  <si>
     <t>בכפר האורנים, 3.11 20:45 ריח שריפה חזק, שורף בעיניים ובגרון…</t>
   </si>
   <si>
@@ -850,6 +817,9 @@
     <t>שלום שמי ימית צרפתי משמשית ואני רוצה לדווח על ריח חזק וחריף של שריפה באזור שמשית. הריח דומה לריח של שריפת צמיגים. תודה</t>
   </si>
   <si>
+    <t>תודה</t>
+  </si>
+  <si>
     <t>ימית צרפתי</t>
   </si>
   <si>
@@ -859,13 +829,13 @@
     <t>בית הערבה</t>
   </si>
   <si>
-    <t>מתרחש כמעט כל ערב. פוגע באיכות החיים ובפעילות ספורטיבית.</t>
+    <t>כמעט כל ערב... זה הורס את איכות החיים מכל כך הרבה בחינות אם זה בפעולות פשוטות כמו לצאת מהבית... אשמח שתתייחסו לזה בכובד ראש כי איכות החיים שלנו נפגעת.</t>
   </si>
   <si>
     <t>שלום, יש היום ריח שרוף ממש קשה באל-רום, יותר גרוע מאתמול, קשה לנשום בחוץ. נשמח לטיפול בהקדם🙏🏼</t>
   </si>
   <si>
-    <t>יותר גרוע מאתמול</t>
+    <t>יותר גרוע מאתמול... נשמח לטיפול בהקדם🙏🏼</t>
   </si>
   <si>
     <t>היי אני גרה במורשת ברחוב אפרים קציר, יש ריח נוראי של שריפת חומרים כימיים שבא בפתאומיות...</t>
@@ -874,7 +844,7 @@
     <t>מורשת, רחוב אפרים קציר</t>
   </si>
   <si>
-    <t>בא בפתאומיות.</t>
+    <t>שבא בפתאומיות...</t>
   </si>
   <si>
     <t>ריח חזק מאוד בעמק האלה מודיעין. צורב בגרון שורף בעיניים.</t>
@@ -895,7 +865,7 @@
     <t>מודיעין</t>
   </si>
   <si>
-    <t>מתרחש כל ערב (וגם ביום). בקשה למערכת התרעה על זיהום. חשש לתחלואה (ריאות/אונקולוגית).</t>
+    <t>ומה שקורה פה הוא מחריד ובלתי נסבל! כל ערב מסתגרים בבית... לצערי גם ביום יש ריח אבל הילדים בבתי הספר. צריך להתריע כאשר רמות הזיהום בחוץ גבוהות... כדי שנדע להיכנס לבתים ולהסתגר... אלא אם מעוניינים במחלקת ריאות ומחלקה אונקולוגית ענקית בית החולים החדש שיפתח בעיר. נודה לטיפולך המהיר</t>
   </si>
   <si>
     <t>ערב טוב אנחנו גרים בשכונת המגינים במודיעין, והאוויר מחניק. ריח של שריפה באוויר</t>
@@ -907,6 +877,9 @@
     <t>ערב טוב, שמי מיכאלה כהן, תושבת אל-רום, מצטרפת לדיווחים על השריפות הנוראיות מבוקעתא והריח והזיהום הנוראי. תודה</t>
   </si>
   <si>
+    <t>מצטרפת לדיווחים על השריפות הנוראיות... תודה</t>
+  </si>
+  <si>
     <t>מיכאלה כהן</t>
   </si>
   <si>
@@ -919,7 +892,7 @@
     <t>כרמיאל, איזור רבין</t>
   </si>
   <si>
-    <t>נמשך כחודש. דיווח על שכנה שאושפזה עקב בצקת בדרכי הנשימה. גירוי בריריות (אף/עיניים/גרון) ואלרגיות בקרב תושבים</t>
+    <t>לפחות בחודש האחרון... הידרדרה במידה כזו שזה מעורר דאגה אמיתית... אף אחד מהנהלת העירייה לא מתכוון לנקוט צעדים לתיקון המצב. לפני כשבועיים השכנה שלי אושפזה בבית החולים בעקבות בצקת בדרכי הנשימה שסיכנה את חייה... במהלך חצי השעה האחרונה כל (!) מי שפגשתי ליד הבית שלי סבל מאלרגיה חמורה.</t>
   </si>
   <si>
     <t>יש ריח חריף מאד באויר עשן מכיוון המזבלה הפיראטית של טורעאן</t>
@@ -928,40 +901,40 @@
     <t>טורעאן, המזבלה הפיראטית</t>
   </si>
   <si>
-    <t>מקור: המזבלה הפיראטית</t>
-  </si>
-  <si>
     <t>הי אנחנו גרים בנופים והריח של השירפה כבר מאתמול הורג אותנו</t>
   </si>
   <si>
     <t>נופים</t>
   </si>
   <si>
-    <t>נמשך מאתמול</t>
+    <t>כבר מאתמול הורג אותנו</t>
   </si>
   <si>
     <t>שלום, אני פונה בקשר לריח חזק של שריפה ביישוב נופים. כבר מהלילה היה ריח חזק שרק מתגבר..</t>
   </si>
   <si>
-    <t>התחיל בלילה</t>
+    <t>כבר מהלילה היה ריח חזק שרק מתגבר..</t>
   </si>
   <si>
     <t>שלום יש ריח של שרוף בישוב נופים</t>
   </si>
   <si>
+    <t>(Empty)</t>
+  </si>
+  <si>
     <t>מעוניינת לדווח על ריח חזק של ריח שריפה ביישוב נירית החל משעות הערב של ה 2.11 ועד עכשיו - בוקר 3.11 שעה 9:00</t>
   </si>
   <si>
     <t>נירית</t>
   </si>
   <si>
-    <t>נמשך מהערב של 2.11 ועד רגע הדיווח (3.11 שעה 09:00)</t>
+    <t>החל משעות הערב של ה 2.11 ועד עכשיו - בוקר 3.11 שעה 9:00</t>
   </si>
   <si>
     <t>בוקר טוב, בישוב נופים יש ריח כבר מהלילה של שריפה של זבל מהכפרים😣</t>
   </si>
   <si>
-    <t>מתרחש מהלילה. מקור: שריפת זבל מהכפרים.</t>
+    <t>יש ריח כבר מהלילה... 😣</t>
   </si>
   <si>
     <t>שלום רב. אני מתגוררת בשכונת הדגן באפרת ובימים האחרונים יש ריח חזק מאד באוויר של שריפה. הריח נמשך לאורך כל שעות היום ונכנס לכל הבית</t>
@@ -970,13 +943,13 @@
     <t>אפרת, שכונת הדגן</t>
   </si>
   <si>
-    <t>נמשך בימים האחרונים לאורך כל היום. נכנס לכל הבית.</t>
+    <t>ובימים האחרונים... הריח נמשך לאורך כל שעות היום ונכנס לכל הבית</t>
   </si>
   <si>
     <t>בוקר טוב, מאתמול בלילה ועד עכשיו יש בנירית והסביבה ריח חזק של שריפה.</t>
   </si>
   <si>
-    <t>נמשך מאתמול בלילה ועד עכשיו</t>
+    <t>מאתמול בלילה ועד עכשיו</t>
   </si>
   <si>
     <t>ממש נחנקים בתוך הבית. הערבים עבדאללה איברהים שורפים דברים כל הלילה וכל העשן נכנס הביתה. ממש גורם לשיעולים וחוסר שינה. כל הבית נשאר נריח כבר כמה שעות. תודה יעל שושני (שכונת הזית אפרת)</t>
@@ -985,7 +958,7 @@
     <t>אפרת, שכונת הזית</t>
   </si>
   <si>
-    <t>נמשך כל הלילה וכמה שעות. עשן נכנס הביתה, גורם לחוסר שינה. המדווחת מציינת שם ספציפי של המבצע (עבדאללה איברהים).</t>
+    <t>ממש נחנקים בתוך הבית. הערבים עבדאללה איברהים שורפים דברים כל הלילה וכל העשן נכנס הביתה... חוסר שינה. כל הבית נשאר נריח כבר כמה שעות. תודה</t>
   </si>
   <si>
     <t>יעל שושני</t>
@@ -1397,7 +1370,7 @@
         <v>24</v>
       </c>
       <c r="H3" s="1"/>
-      <c r="I3" s="2" t="s">
+      <c r="I3" s="1" t="s">
         <v>25</v>
       </c>
       <c r="J3" s="1"/>
@@ -1498,7 +1471,9 @@
         <v>35</v>
       </c>
       <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
+      <c r="I6" s="1" t="s">
+        <v>36</v>
+      </c>
       <c r="J6" s="1"/>
       <c r="K6" s="2">
         <v>0.0</v>
@@ -1510,7 +1485,7 @@
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="B7" s="1" t="s">
         <v>16</v>
@@ -1518,11 +1493,11 @@
       <c r="C7" s="1"/>
       <c r="D7" s="1"/>
       <c r="E7" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F7" s="1"/>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H7" s="1"/>
       <c r="I7" s="1"/>
@@ -1537,7 +1512,7 @@
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1556,7 +1531,7 @@
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="B9" s="1" t="s">
         <v>16</v>
@@ -1568,11 +1543,11 @@
         <v>18</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F9" s="1"/>
       <c r="G9" s="1" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="H9" s="1"/>
       <c r="I9" s="1"/>
@@ -1587,7 +1562,7 @@
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="B10" s="1" t="s">
         <v>16</v>
@@ -1596,19 +1571,17 @@
         <v>17</v>
       </c>
       <c r="D10" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F10" s="1"/>
       <c r="G10" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H10" s="1"/>
-      <c r="I10" s="1" t="s">
-        <v>45</v>
-      </c>
+      <c r="I10" s="1"/>
       <c r="J10" s="1"/>
       <c r="K10" s="1" t="s">
         <v>22</v>
@@ -1658,7 +1631,7 @@
         <v>17</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E12" s="2">
         <v>4.0</v>
@@ -1670,7 +1643,9 @@
         <v>49</v>
       </c>
       <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
+      <c r="I12" s="1" t="s">
+        <v>50</v>
+      </c>
       <c r="J12" s="1"/>
       <c r="K12" s="1" t="s">
         <v>22</v>
@@ -1678,15 +1653,15 @@
       <c r="L12" s="1"/>
       <c r="M12" s="1"/>
       <c r="N12" s="1" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="O12" s="1" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="B13" s="1" t="s">
         <v>16</v>
@@ -1702,7 +1677,7 @@
       </c>
       <c r="F13" s="1"/>
       <c r="G13" s="1" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="1"/>
@@ -1717,25 +1692,25 @@
     </row>
     <row r="14">
       <c r="A14" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="B14" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D14" s="1"/>
       <c r="E14" s="1"/>
       <c r="F14" s="1" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="H14" s="1"/>
-      <c r="I14" s="2" t="s">
-        <v>58</v>
+      <c r="I14" s="1" t="s">
+        <v>59</v>
       </c>
       <c r="J14" s="1"/>
       <c r="K14" s="1" t="s">
@@ -1748,10 +1723,10 @@
     </row>
     <row r="15">
       <c r="A15" s="1" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C15" s="1" t="s">
         <v>17</v>
@@ -1764,11 +1739,11 @@
       </c>
       <c r="F15" s="1"/>
       <c r="G15" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="H15" s="1"/>
-      <c r="I15" s="2" t="s">
-        <v>62</v>
+      <c r="I15" s="1" t="s">
+        <v>63</v>
       </c>
       <c r="J15" s="1"/>
       <c r="K15" s="1" t="s">
@@ -1781,7 +1756,7 @@
     </row>
     <row r="16">
       <c r="A16" s="1" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="B16" s="1" t="s">
         <v>16</v>
@@ -1799,11 +1774,11 @@
         <v>20</v>
       </c>
       <c r="G16" s="1" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="H16" s="1"/>
-      <c r="I16" s="2" t="s">
-        <v>65</v>
+      <c r="I16" s="1" t="s">
+        <v>66</v>
       </c>
       <c r="J16" s="1"/>
       <c r="K16" s="1" t="s">
@@ -1816,7 +1791,7 @@
     </row>
     <row r="17">
       <c r="A17" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="B17" s="1" t="s">
         <v>16</v>
@@ -1825,14 +1800,14 @@
         <v>17</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E17" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F17" s="1"/>
       <c r="G17" s="1" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="H17" s="1"/>
       <c r="I17" s="1"/>
@@ -1847,7 +1822,7 @@
     </row>
     <row r="18">
       <c r="A18" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="B18" s="1" t="s">
         <v>16</v>
@@ -1859,16 +1834,18 @@
         <v>18</v>
       </c>
       <c r="E18" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="G18" s="1" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="H18" s="1"/>
-      <c r="I18" s="1"/>
+      <c r="I18" s="1" t="s">
+        <v>70</v>
+      </c>
       <c r="J18" s="1"/>
       <c r="K18" s="1" t="s">
         <v>22</v>
@@ -1880,7 +1857,7 @@
     </row>
     <row r="19" ht="15.75" customHeight="1">
       <c r="A19" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B19" s="1" t="s">
         <v>16</v>
@@ -1889,7 +1866,7 @@
         <v>17</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E19" s="2">
         <v>5.0</v>
@@ -1898,28 +1875,28 @@
         <v>20</v>
       </c>
       <c r="G19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="H19" s="1"/>
-      <c r="I19" s="2" t="s">
-        <v>71</v>
+      <c r="I19" s="1" t="s">
+        <v>73</v>
       </c>
       <c r="J19" s="1"/>
       <c r="K19" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L19" s="1"/>
       <c r="M19" s="1" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="N19" s="1"/>
       <c r="O19" s="1" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" ht="15.75" customHeight="1">
       <c r="A20" s="1" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>16</v>
@@ -1933,7 +1910,7 @@
       <c r="E20" s="1"/>
       <c r="F20" s="1"/>
       <c r="G20" s="1" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="H20" s="1"/>
       <c r="I20" s="1"/>
@@ -1948,7 +1925,7 @@
     </row>
     <row r="21" ht="15.75" customHeight="1">
       <c r="A21" s="1" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B21" s="1" t="s">
         <v>16</v>
@@ -1963,8 +1940,8 @@
       <c r="F21" s="1"/>
       <c r="G21" s="1"/>
       <c r="H21" s="1"/>
-      <c r="I21" s="2" t="s">
-        <v>77</v>
+      <c r="I21" s="1" t="s">
+        <v>79</v>
       </c>
       <c r="J21" s="1"/>
       <c r="K21" s="1" t="s">
@@ -1973,13 +1950,13 @@
       <c r="L21" s="1"/>
       <c r="M21" s="1"/>
       <c r="N21" s="1" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="O21" s="1"/>
     </row>
     <row r="22" ht="15.75" customHeight="1">
       <c r="A22" s="1" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>16</v>
@@ -1991,17 +1968,17 @@
         <v>18</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="H22" s="1"/>
-      <c r="I22" s="2" t="s">
-        <v>82</v>
+      <c r="I22" s="1" t="s">
+        <v>84</v>
       </c>
       <c r="J22" s="1"/>
       <c r="K22" s="1" t="s">
@@ -2014,7 +1991,7 @@
     </row>
     <row r="23" ht="15.75" customHeight="1">
       <c r="A23" s="1" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B23" s="1" t="s">
         <v>16</v>
@@ -2043,7 +2020,7 @@
     </row>
     <row r="24" ht="15.75" customHeight="1">
       <c r="A24" s="1" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B24" s="1" t="s">
         <v>16</v>
@@ -2058,14 +2035,14 @@
         <v>5.0</v>
       </c>
       <c r="F24" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="H24" s="1"/>
-      <c r="I24" s="2" t="s">
-        <v>87</v>
+      <c r="I24" s="1" t="s">
+        <v>89</v>
       </c>
       <c r="J24" s="1"/>
       <c r="K24" s="1" t="s">
@@ -2078,7 +2055,7 @@
     </row>
     <row r="25" ht="15.75" customHeight="1">
       <c r="A25" s="1" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B25" s="1" t="s">
         <v>16</v>
@@ -2090,7 +2067,7 @@
       </c>
       <c r="F25" s="1"/>
       <c r="G25" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H25" s="1"/>
       <c r="I25" s="1"/>
@@ -2105,7 +2082,7 @@
     </row>
     <row r="26" ht="15.75" customHeight="1">
       <c r="A26" s="1" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B26" s="1" t="s">
         <v>16</v>
@@ -2117,18 +2094,18 @@
         <v>18</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F26" s="1"/>
       <c r="G26" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H26" s="1"/>
-      <c r="I26" s="2" t="s">
-        <v>91</v>
+      <c r="I26" s="1" t="s">
+        <v>93</v>
       </c>
       <c r="J26" s="1" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K26" s="1" t="s">
         <v>22</v>
@@ -2140,7 +2117,7 @@
     </row>
     <row r="27" ht="15.75" customHeight="1">
       <c r="A27" s="1" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B27" s="1" t="s">
         <v>16</v>
@@ -2154,11 +2131,11 @@
       <c r="E27" s="1"/>
       <c r="F27" s="1"/>
       <c r="G27" s="1" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="H27" s="1"/>
-      <c r="I27" s="2" t="s">
-        <v>95</v>
+      <c r="I27" s="1" t="s">
+        <v>97</v>
       </c>
       <c r="J27" s="1"/>
       <c r="K27" s="1" t="s">
@@ -2171,7 +2148,7 @@
     </row>
     <row r="28" ht="15.75" customHeight="1">
       <c r="A28" s="1" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B28" s="1" t="s">
         <v>16</v>
@@ -2187,11 +2164,11 @@
       </c>
       <c r="F28" s="1"/>
       <c r="G28" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H28" s="1"/>
-      <c r="I28" s="2" t="s">
-        <v>97</v>
+      <c r="I28" s="1" t="s">
+        <v>99</v>
       </c>
       <c r="J28" s="1"/>
       <c r="K28" s="1" t="s">
@@ -2204,7 +2181,7 @@
     </row>
     <row r="29" ht="15.75" customHeight="1">
       <c r="A29" s="1" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B29" s="1" t="s">
         <v>16</v>
@@ -2216,15 +2193,15 @@
         <v>18</v>
       </c>
       <c r="E29" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F29" s="1"/>
       <c r="G29" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H29" s="1"/>
-      <c r="I29" s="2" t="s">
-        <v>99</v>
+      <c r="I29" s="1" t="s">
+        <v>101</v>
       </c>
       <c r="J29" s="1"/>
       <c r="K29" s="1" t="s">
@@ -2237,7 +2214,7 @@
     </row>
     <row r="30" ht="15.75" customHeight="1">
       <c r="A30" s="1" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B30" s="1" t="s">
         <v>16</v>
@@ -2253,11 +2230,11 @@
       </c>
       <c r="F30" s="1"/>
       <c r="G30" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H30" s="1"/>
-      <c r="I30" s="2" t="s">
-        <v>101</v>
+      <c r="I30" s="1" t="s">
+        <v>103</v>
       </c>
       <c r="J30" s="1"/>
       <c r="K30" s="1" t="s">
@@ -2270,7 +2247,7 @@
     </row>
     <row r="31" ht="15.75" customHeight="1">
       <c r="A31" s="1" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B31" s="1" t="s">
         <v>16</v>
@@ -2282,16 +2259,14 @@
         <v>18</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F31" s="1"/>
       <c r="G31" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H31" s="1"/>
-      <c r="I31" s="2" t="s">
-        <v>103</v>
-      </c>
+      <c r="I31" s="1"/>
       <c r="J31" s="1"/>
       <c r="K31" s="1" t="s">
         <v>22</v>
@@ -2303,7 +2278,7 @@
     </row>
     <row r="32" ht="15.75" customHeight="1">
       <c r="A32" s="1" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B32" s="1" t="s">
         <v>16</v>
@@ -2321,11 +2296,11 @@
         <v>20</v>
       </c>
       <c r="G32" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H32" s="1"/>
-      <c r="I32" s="2" t="s">
-        <v>105</v>
+      <c r="I32" s="1" t="s">
+        <v>106</v>
       </c>
       <c r="J32" s="1"/>
       <c r="K32" s="1" t="s">
@@ -2334,13 +2309,13 @@
       <c r="L32" s="1"/>
       <c r="M32" s="1"/>
       <c r="N32" s="1" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="O32" s="1"/>
     </row>
     <row r="33" ht="15.75" customHeight="1">
       <c r="A33" s="1" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="B33" s="1" t="s">
         <v>16</v>
@@ -2352,11 +2327,11 @@
         <v>18</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F33" s="1"/>
       <c r="G33" s="1" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="H33" s="1"/>
       <c r="I33" s="1"/>
@@ -2371,7 +2346,7 @@
     </row>
     <row r="34" ht="15.75" customHeight="1">
       <c r="A34" s="1" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B34" s="1" t="s">
         <v>16</v>
@@ -2389,12 +2364,10 @@
         <v>20</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H34" s="1"/>
-      <c r="I34" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="I34" s="1"/>
       <c r="J34" s="1"/>
       <c r="K34" s="1" t="s">
         <v>22</v>
@@ -2427,7 +2400,7 @@
         <v>112</v>
       </c>
       <c r="H35" s="1"/>
-      <c r="I35" s="2" t="s">
+      <c r="I35" s="1" t="s">
         <v>113</v>
       </c>
       <c r="J35" s="1"/>
@@ -2458,7 +2431,7 @@
       </c>
       <c r="G36" s="1"/>
       <c r="H36" s="1"/>
-      <c r="I36" s="2" t="s">
+      <c r="I36" s="1" t="s">
         <v>116</v>
       </c>
       <c r="J36" s="1"/>
@@ -2486,7 +2459,7 @@
       <c r="E37" s="1"/>
       <c r="F37" s="1"/>
       <c r="G37" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H37" s="1"/>
       <c r="I37" s="1"/>
@@ -2520,9 +2493,7 @@
         <v>112</v>
       </c>
       <c r="H38" s="1"/>
-      <c r="I38" s="1" t="s">
-        <v>119</v>
-      </c>
+      <c r="I38" s="1"/>
       <c r="J38" s="1"/>
       <c r="K38" s="1" t="s">
         <v>22</v>
@@ -2534,7 +2505,7 @@
     </row>
     <row r="39" ht="15.75" customHeight="1">
       <c r="A39" s="1" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B39" s="1" t="s">
         <v>16</v>
@@ -2548,7 +2519,7 @@
       <c r="E39" s="1"/>
       <c r="F39" s="1"/>
       <c r="G39" s="2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H39" s="1"/>
       <c r="I39" s="1"/>
@@ -2563,7 +2534,7 @@
     </row>
     <row r="40" ht="15.75" customHeight="1">
       <c r="A40" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B40" s="1" t="s">
         <v>16</v>
@@ -2575,11 +2546,11 @@
         <v>18</v>
       </c>
       <c r="E40" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F40" s="1"/>
       <c r="G40" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="1"/>
@@ -2594,7 +2565,7 @@
     </row>
     <row r="41" ht="15.75" customHeight="1">
       <c r="A41" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B41" s="1" t="s">
         <v>16</v>
@@ -2608,11 +2579,11 @@
         <v>20</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H41" s="1"/>
       <c r="I41" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="J41" s="1"/>
       <c r="K41" s="1" t="s">
@@ -2625,7 +2596,7 @@
     </row>
     <row r="42" ht="15.75" customHeight="1">
       <c r="A42" s="1" t="s">
-        <v>124</v>
+        <v>123</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>16</v>
@@ -2637,7 +2608,7 @@
       </c>
       <c r="F42" s="1"/>
       <c r="G42" s="1" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="H42" s="1"/>
       <c r="I42" s="1"/>
@@ -2652,7 +2623,7 @@
     </row>
     <row r="43" ht="15.75" customHeight="1">
       <c r="A43" s="1" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
       <c r="B43" s="1" t="s">
         <v>16</v>
@@ -2660,12 +2631,12 @@
       <c r="C43" s="1"/>
       <c r="D43" s="1"/>
       <c r="E43" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F43" s="1"/>
       <c r="G43" s="1"/>
       <c r="H43" s="1"/>
-      <c r="I43" s="2"/>
+      <c r="I43" s="1"/>
       <c r="J43" s="1"/>
       <c r="K43" s="1" t="s">
         <v>22</v>
@@ -2677,7 +2648,7 @@
     </row>
     <row r="44" ht="15.75" customHeight="1">
       <c r="A44" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="B44" s="1" t="s">
         <v>16</v>
@@ -2695,7 +2666,7 @@
         <v>20</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H44" s="1"/>
       <c r="I44" s="1"/>
@@ -2710,7 +2681,7 @@
     </row>
     <row r="45" ht="15.75" customHeight="1">
       <c r="A45" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B45" s="1" t="s">
         <v>16</v>
@@ -2726,12 +2697,10 @@
       </c>
       <c r="F45" s="1"/>
       <c r="G45" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H45" s="1"/>
-      <c r="I45" s="1" t="s">
-        <v>130</v>
-      </c>
+      <c r="I45" s="1"/>
       <c r="J45" s="1"/>
       <c r="K45" s="1" t="s">
         <v>22</v>
@@ -2743,7 +2712,7 @@
     </row>
     <row r="46" ht="15.75" customHeight="1">
       <c r="A46" s="1" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B46" s="1" t="s">
         <v>16</v>
@@ -2759,11 +2728,11 @@
       </c>
       <c r="F46" s="1"/>
       <c r="G46" s="1" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="H46" s="1"/>
       <c r="I46" s="1" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="J46" s="1"/>
       <c r="K46" s="1" t="s">
@@ -2776,7 +2745,7 @@
     </row>
     <row r="47" ht="15.75" customHeight="1">
       <c r="A47" s="1" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="B47" s="1" t="s">
         <v>16</v>
@@ -2790,12 +2759,10 @@
       <c r="E47" s="1"/>
       <c r="F47" s="1"/>
       <c r="G47" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H47" s="1"/>
-      <c r="I47" s="1" t="s">
-        <v>135</v>
-      </c>
+      <c r="I47" s="1"/>
       <c r="J47" s="1"/>
       <c r="K47" s="1" t="s">
         <v>22</v>
@@ -2807,7 +2774,7 @@
     </row>
     <row r="48" ht="15.75" customHeight="1">
       <c r="A48" s="1" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
       <c r="B48" s="1" t="s">
         <v>16</v>
@@ -2838,7 +2805,7 @@
     </row>
     <row r="49" ht="15.75" customHeight="1">
       <c r="A49" s="1" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="B49" s="1" t="s">
         <v>16</v>
@@ -2850,7 +2817,7 @@
         <v>18</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F49" s="1"/>
       <c r="G49" s="1" t="s">
@@ -2858,7 +2825,7 @@
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="1" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="J49" s="1"/>
       <c r="K49" s="1" t="s">
@@ -2871,7 +2838,7 @@
     </row>
     <row r="50" ht="15.75" customHeight="1">
       <c r="A50" s="1" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="B50" s="1" t="s">
         <v>16</v>
@@ -2879,15 +2846,15 @@
       <c r="C50" s="1"/>
       <c r="D50" s="1"/>
       <c r="E50" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F50" s="1"/>
       <c r="G50" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H50" s="1"/>
       <c r="I50" s="1" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="J50" s="1"/>
       <c r="K50" s="1" t="s">
@@ -2896,13 +2863,13 @@
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
       <c r="N50" s="1" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
       <c r="O50" s="1"/>
     </row>
     <row r="51" ht="15.75" customHeight="1">
       <c r="A51" s="1" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="B51" s="1" t="s">
         <v>16</v>
@@ -2914,12 +2881,10 @@
       </c>
       <c r="F51" s="1"/>
       <c r="G51" s="1" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="H51" s="1"/>
-      <c r="I51" s="2" t="s">
-        <v>144</v>
-      </c>
+      <c r="I51" s="1"/>
       <c r="J51" s="1"/>
       <c r="K51" s="1" t="s">
         <v>22</v>
@@ -2931,10 +2896,10 @@
     </row>
     <row r="52" ht="15.75" customHeight="1">
       <c r="A52" s="1" t="s">
-        <v>145</v>
+        <v>141</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C52" s="1" t="s">
         <v>17</v>
@@ -2943,16 +2908,14 @@
         <v>18</v>
       </c>
       <c r="E52" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F52" s="1"/>
       <c r="G52" s="1" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
       <c r="H52" s="1"/>
-      <c r="I52" s="2" t="s">
-        <v>147</v>
-      </c>
+      <c r="I52" s="1"/>
       <c r="J52" s="1"/>
       <c r="K52" s="1" t="s">
         <v>22</v>
@@ -2964,7 +2927,7 @@
     </row>
     <row r="53" ht="15.75" customHeight="1">
       <c r="A53" s="1" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="B53" s="1" t="s">
         <v>16</v>
@@ -2976,15 +2939,15 @@
         <v>18</v>
       </c>
       <c r="E53" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F53" s="1"/>
       <c r="G53" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H53" s="1"/>
-      <c r="I53" s="2" t="s">
-        <v>150</v>
+      <c r="I53" s="1" t="s">
+        <v>145</v>
       </c>
       <c r="J53" s="1"/>
       <c r="K53" s="1" t="s">
@@ -2997,25 +2960,25 @@
     </row>
     <row r="54" ht="15.75" customHeight="1">
       <c r="A54" s="1" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="B54" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D54" s="1"/>
       <c r="E54" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F54" s="1"/>
       <c r="G54" s="1" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="H54" s="1"/>
-      <c r="I54" s="2" t="s">
-        <v>153</v>
+      <c r="I54" s="1" t="s">
+        <v>148</v>
       </c>
       <c r="J54" s="1"/>
       <c r="K54" s="1" t="s">
@@ -3028,7 +2991,7 @@
     </row>
     <row r="55" ht="15.75" customHeight="1">
       <c r="A55" s="1" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="B55" s="1" t="s">
         <v>16</v>
@@ -3043,14 +3006,14 @@
         <v>5.0</v>
       </c>
       <c r="F55" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H55" s="1"/>
-      <c r="I55" s="2" t="s">
-        <v>157</v>
+      <c r="I55" s="1" t="s">
+        <v>152</v>
       </c>
       <c r="J55" s="1"/>
       <c r="K55" s="1" t="s">
@@ -3063,7 +3026,7 @@
     </row>
     <row r="56" ht="15.75" customHeight="1">
       <c r="A56" s="1" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="B56" s="1" t="s">
         <v>16</v>
@@ -3079,7 +3042,7 @@
       </c>
       <c r="F56" s="1"/>
       <c r="G56" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H56" s="1"/>
       <c r="I56" s="1"/>
@@ -3094,7 +3057,7 @@
     </row>
     <row r="57" ht="15.75" customHeight="1">
       <c r="A57" s="1" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="B57" s="1" t="s">
         <v>16</v>
@@ -3105,14 +3068,14 @@
         <v>19</v>
       </c>
       <c r="F57" s="1" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H57" s="1"/>
-      <c r="I57" s="2" t="s">
-        <v>161</v>
+      <c r="I57" s="1" t="s">
+        <v>156</v>
       </c>
       <c r="J57" s="1"/>
       <c r="K57" s="1" t="s">
@@ -3125,7 +3088,7 @@
     </row>
     <row r="58" ht="15.75" customHeight="1">
       <c r="A58" s="1" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="B58" s="1" t="s">
         <v>16</v>
@@ -3141,11 +3104,11 @@
       </c>
       <c r="F58" s="1"/>
       <c r="G58" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H58" s="1"/>
-      <c r="I58" s="2" t="s">
-        <v>163</v>
+      <c r="I58" s="1" t="s">
+        <v>158</v>
       </c>
       <c r="J58" s="1"/>
       <c r="K58" s="1" t="s">
@@ -3158,7 +3121,7 @@
     </row>
     <row r="59" ht="15.75" customHeight="1">
       <c r="A59" s="1" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="B59" s="1" t="s">
         <v>16</v>
@@ -3173,8 +3136,8 @@
       </c>
       <c r="G59" s="1"/>
       <c r="H59" s="1"/>
-      <c r="I59" s="2" t="s">
-        <v>165</v>
+      <c r="I59" s="1" t="s">
+        <v>160</v>
       </c>
       <c r="J59" s="1"/>
       <c r="K59" s="1" t="s">
@@ -3187,7 +3150,7 @@
     </row>
     <row r="60" ht="15.75" customHeight="1">
       <c r="A60" s="1" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="B60" s="1" t="s">
         <v>16</v>
@@ -3203,11 +3166,11 @@
       </c>
       <c r="F60" s="1"/>
       <c r="G60" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H60" s="1"/>
-      <c r="I60" s="2" t="s">
-        <v>167</v>
+      <c r="I60" s="1" t="s">
+        <v>162</v>
       </c>
       <c r="J60" s="1"/>
       <c r="K60" s="1" t="s">
@@ -3220,7 +3183,7 @@
     </row>
     <row r="61" ht="15.75" customHeight="1">
       <c r="A61" s="1" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="B61" s="1" t="s">
         <v>16</v>
@@ -3229,17 +3192,15 @@
         <v>17</v>
       </c>
       <c r="D61" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E61" s="1"/>
       <c r="F61" s="1"/>
       <c r="G61" s="1" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="H61" s="1"/>
-      <c r="I61" s="2" t="s">
-        <v>170</v>
-      </c>
+      <c r="I61" s="1"/>
       <c r="J61" s="1"/>
       <c r="K61" s="1" t="s">
         <v>22</v>
@@ -3251,7 +3212,7 @@
     </row>
     <row r="62" ht="15.75" customHeight="1">
       <c r="A62" s="1" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="B62" s="1" t="s">
         <v>16</v>
@@ -3260,19 +3221,17 @@
         <v>17</v>
       </c>
       <c r="D62" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F62" s="1"/>
       <c r="G62" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H62" s="1"/>
-      <c r="I62" s="2" t="s">
-        <v>110</v>
-      </c>
+      <c r="I62" s="1"/>
       <c r="J62" s="1"/>
       <c r="K62" s="1" t="s">
         <v>22</v>
@@ -3284,25 +3243,25 @@
     </row>
     <row r="63" ht="15.75" customHeight="1">
       <c r="A63" s="1" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="B63" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C63" s="1" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="D63" s="1"/>
       <c r="E63" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F63" s="1"/>
       <c r="G63" s="1" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="H63" s="1"/>
-      <c r="I63" s="2" t="s">
-        <v>175</v>
+      <c r="I63" s="1" t="s">
+        <v>169</v>
       </c>
       <c r="J63" s="1"/>
       <c r="K63" s="1" t="s">
@@ -3315,7 +3274,7 @@
     </row>
     <row r="64" ht="15.75" customHeight="1">
       <c r="A64" s="1" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="B64" s="1" t="s">
         <v>16</v>
@@ -3331,7 +3290,7 @@
       </c>
       <c r="F64" s="1"/>
       <c r="G64" s="1" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="H64" s="1"/>
       <c r="I64" s="1"/>
@@ -3346,7 +3305,7 @@
     </row>
     <row r="65" ht="15.75" customHeight="1">
       <c r="A65" s="1" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="B65" s="1" t="s">
         <v>16</v>
@@ -3354,11 +3313,11 @@
       <c r="C65" s="1"/>
       <c r="D65" s="1"/>
       <c r="E65" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F65" s="1"/>
       <c r="G65" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H65" s="1"/>
       <c r="I65" s="1"/>
@@ -3373,7 +3332,7 @@
     </row>
     <row r="66" ht="15.75" customHeight="1">
       <c r="A66" s="1" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="B66" s="1" t="s">
         <v>16</v>
@@ -3382,18 +3341,18 @@
         <v>17</v>
       </c>
       <c r="D66" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>34</v>
       </c>
       <c r="F66" s="1"/>
       <c r="G66" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="H66" s="1"/>
-      <c r="I66" s="2" t="s">
-        <v>181</v>
+      <c r="I66" s="1" t="s">
+        <v>175</v>
       </c>
       <c r="J66" s="1"/>
       <c r="K66" s="1" t="s">
@@ -3402,18 +3361,18 @@
       <c r="L66" s="1"/>
       <c r="M66" s="1"/>
       <c r="N66" s="1" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="O66" s="1" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
     </row>
     <row r="67" ht="15.75" customHeight="1">
       <c r="A67" s="1" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C67" s="1" t="s">
         <v>17</v>
@@ -3422,16 +3381,14 @@
         <v>18</v>
       </c>
       <c r="E67" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F67" s="1"/>
       <c r="G67" s="1" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="H67" s="1"/>
-      <c r="I67" s="2" t="s">
-        <v>185</v>
-      </c>
+      <c r="I67" s="1"/>
       <c r="J67" s="1"/>
       <c r="K67" s="1" t="s">
         <v>22</v>
@@ -3443,7 +3400,7 @@
     </row>
     <row r="68" ht="15.75" customHeight="1">
       <c r="A68" s="1" t="s">
-        <v>186</v>
+        <v>179</v>
       </c>
       <c r="B68" s="1" t="s">
         <v>16</v>
@@ -3459,12 +3416,10 @@
       </c>
       <c r="F68" s="1"/>
       <c r="G68" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H68" s="1"/>
-      <c r="I68" s="2" t="s">
-        <v>187</v>
-      </c>
+      <c r="I68" s="1"/>
       <c r="J68" s="1"/>
       <c r="K68" s="1" t="s">
         <v>22</v>
@@ -3476,7 +3431,7 @@
     </row>
     <row r="69" ht="15.75" customHeight="1">
       <c r="A69" s="1" t="s">
-        <v>188</v>
+        <v>180</v>
       </c>
       <c r="B69" s="1" t="s">
         <v>16</v>
@@ -3490,10 +3445,10 @@
         <v>20</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H69" s="1"/>
-      <c r="I69" s="2"/>
+      <c r="I69" s="1"/>
       <c r="J69" s="1"/>
       <c r="K69" s="1" t="s">
         <v>22</v>
@@ -3505,7 +3460,7 @@
     </row>
     <row r="70" ht="15.75" customHeight="1">
       <c r="A70" s="1" t="s">
-        <v>189</v>
+        <v>181</v>
       </c>
       <c r="B70" s="1" t="s">
         <v>16</v>
@@ -3521,11 +3476,11 @@
       </c>
       <c r="F70" s="1"/>
       <c r="G70" s="1" t="s">
-        <v>190</v>
+        <v>182</v>
       </c>
       <c r="H70" s="1"/>
-      <c r="I70" s="2" t="s">
-        <v>191</v>
+      <c r="I70" s="1" t="s">
+        <v>183</v>
       </c>
       <c r="J70" s="1"/>
       <c r="K70" s="1" t="s">
@@ -3538,7 +3493,7 @@
     </row>
     <row r="71" ht="15.75" customHeight="1">
       <c r="A71" s="1" t="s">
-        <v>192</v>
+        <v>184</v>
       </c>
       <c r="B71" s="1" t="s">
         <v>16</v>
@@ -3552,11 +3507,11 @@
       <c r="E71" s="1"/>
       <c r="F71" s="1"/>
       <c r="G71" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H71" s="1"/>
-      <c r="I71" s="2" t="s">
-        <v>193</v>
+      <c r="I71" s="1" t="s">
+        <v>185</v>
       </c>
       <c r="J71" s="1"/>
       <c r="K71" s="1" t="s">
@@ -3569,7 +3524,7 @@
     </row>
     <row r="72" ht="15.75" customHeight="1">
       <c r="A72" s="1" t="s">
-        <v>194</v>
+        <v>186</v>
       </c>
       <c r="B72" s="1" t="s">
         <v>16</v>
@@ -3583,11 +3538,11 @@
       <c r="E72" s="1"/>
       <c r="F72" s="1"/>
       <c r="G72" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="H72" s="1"/>
-      <c r="I72" s="2" t="s">
-        <v>196</v>
+      <c r="I72" s="1" t="s">
+        <v>188</v>
       </c>
       <c r="J72" s="1"/>
       <c r="K72" s="1" t="s">
@@ -3600,7 +3555,7 @@
     </row>
     <row r="73" ht="15.75" customHeight="1">
       <c r="A73" s="1" t="s">
-        <v>197</v>
+        <v>189</v>
       </c>
       <c r="B73" s="1" t="s">
         <v>16</v>
@@ -3612,15 +3567,15 @@
         <v>18</v>
       </c>
       <c r="E73" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F73" s="1"/>
       <c r="G73" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H73" s="1"/>
-      <c r="I73" s="2" t="s">
-        <v>198</v>
+      <c r="I73" s="1" t="s">
+        <v>190</v>
       </c>
       <c r="J73" s="1"/>
       <c r="K73" s="1" t="s">
@@ -3633,7 +3588,7 @@
     </row>
     <row r="74" ht="15.75" customHeight="1">
       <c r="A74" s="1" t="s">
-        <v>199</v>
+        <v>191</v>
       </c>
       <c r="B74" s="1" t="s">
         <v>16</v>
@@ -3649,7 +3604,7 @@
       </c>
       <c r="F74" s="1"/>
       <c r="G74" s="1" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="H74" s="1"/>
       <c r="I74" s="1"/>
@@ -3664,7 +3619,7 @@
     </row>
     <row r="75" ht="15.75" customHeight="1">
       <c r="A75" s="1" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="B75" s="1" t="s">
         <v>16</v>
@@ -3680,10 +3635,12 @@
       </c>
       <c r="F75" s="1"/>
       <c r="G75" s="1" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="H75" s="1"/>
-      <c r="I75" s="1"/>
+      <c r="I75" s="1" t="s">
+        <v>195</v>
+      </c>
       <c r="J75" s="1"/>
       <c r="K75" s="1" t="s">
         <v>22</v>
@@ -3695,7 +3652,7 @@
     </row>
     <row r="76" ht="15.75" customHeight="1">
       <c r="A76" s="1" t="s">
-        <v>203</v>
+        <v>196</v>
       </c>
       <c r="B76" s="1" t="s">
         <v>16</v>
@@ -3711,12 +3668,10 @@
       </c>
       <c r="F76" s="1"/>
       <c r="G76" s="1" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="H76" s="1"/>
-      <c r="I76" s="2" t="s">
-        <v>204</v>
-      </c>
+      <c r="I76" s="1"/>
       <c r="J76" s="1"/>
       <c r="K76" s="1" t="s">
         <v>22</v>
@@ -3728,7 +3683,7 @@
     </row>
     <row r="77" ht="15.75" customHeight="1">
       <c r="A77" s="1" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="B77" s="1" t="s">
         <v>16</v>
@@ -3744,12 +3699,10 @@
       </c>
       <c r="F77" s="1"/>
       <c r="G77" s="1" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="H77" s="1"/>
-      <c r="I77" s="2" t="s">
-        <v>207</v>
-      </c>
+      <c r="I77" s="1"/>
       <c r="J77" s="1"/>
       <c r="K77" s="1" t="s">
         <v>22</v>
@@ -3761,7 +3714,7 @@
     </row>
     <row r="78" ht="15.75" customHeight="1">
       <c r="A78" s="1" t="s">
-        <v>208</v>
+        <v>199</v>
       </c>
       <c r="B78" s="1" t="s">
         <v>16</v>
@@ -3775,7 +3728,7 @@
       <c r="E78" s="1"/>
       <c r="F78" s="1"/>
       <c r="G78" s="1" t="s">
-        <v>209</v>
+        <v>200</v>
       </c>
       <c r="H78" s="1"/>
       <c r="I78" s="1"/>
@@ -3790,7 +3743,7 @@
     </row>
     <row r="79" ht="15.75" customHeight="1">
       <c r="A79" s="1" t="s">
-        <v>210</v>
+        <v>201</v>
       </c>
       <c r="B79" s="1" t="s">
         <v>16</v>
@@ -3806,11 +3759,11 @@
       </c>
       <c r="F79" s="1"/>
       <c r="G79" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H79" s="1"/>
-      <c r="I79" s="2" t="s">
-        <v>211</v>
+      <c r="I79" s="1" t="s">
+        <v>202</v>
       </c>
       <c r="J79" s="1"/>
       <c r="K79" s="1" t="s">
@@ -3823,10 +3776,10 @@
     </row>
     <row r="80" ht="15.75" customHeight="1">
       <c r="A80" s="1" t="s">
-        <v>212</v>
+        <v>203</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C80" s="1" t="s">
         <v>17</v>
@@ -3839,11 +3792,11 @@
         <v>20</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>213</v>
+        <v>204</v>
       </c>
       <c r="H80" s="1"/>
-      <c r="I80" s="2" t="s">
-        <v>214</v>
+      <c r="I80" s="1" t="s">
+        <v>205</v>
       </c>
       <c r="J80" s="1"/>
       <c r="K80" s="1" t="s">
@@ -3856,7 +3809,7 @@
     </row>
     <row r="81" ht="15.75" customHeight="1">
       <c r="A81" s="1" t="s">
-        <v>215</v>
+        <v>206</v>
       </c>
       <c r="B81" s="1" t="s">
         <v>16</v>
@@ -3872,11 +3825,11 @@
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>216</v>
+        <v>207</v>
       </c>
       <c r="H81" s="1"/>
-      <c r="I81" s="2" t="s">
-        <v>217</v>
+      <c r="I81" s="1" t="s">
+        <v>208</v>
       </c>
       <c r="J81" s="1"/>
       <c r="K81" s="1" t="s">
@@ -3885,16 +3838,16 @@
       <c r="L81" s="1"/>
       <c r="M81" s="1"/>
       <c r="N81" s="1" t="s">
-        <v>218</v>
+        <v>209</v>
       </c>
       <c r="O81" s="1"/>
     </row>
     <row r="82" ht="15.75" customHeight="1">
       <c r="A82" s="1" t="s">
-        <v>219</v>
+        <v>210</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C82" s="1" t="s">
         <v>17</v>
@@ -3907,11 +3860,11 @@
       </c>
       <c r="F82" s="1"/>
       <c r="G82" s="2" t="s">
-        <v>220</v>
+        <v>211</v>
       </c>
       <c r="H82" s="1"/>
-      <c r="I82" s="2" t="s">
-        <v>221</v>
+      <c r="I82" s="1" t="s">
+        <v>212</v>
       </c>
       <c r="J82" s="1"/>
       <c r="K82" s="1" t="s">
@@ -3924,7 +3877,7 @@
     </row>
     <row r="83" ht="15.75" customHeight="1">
       <c r="A83" s="1" t="s">
-        <v>222</v>
+        <v>213</v>
       </c>
       <c r="B83" s="1" t="s">
         <v>16</v>
@@ -3934,7 +3887,7 @@
       <c r="E83" s="1"/>
       <c r="F83" s="1"/>
       <c r="G83" s="2" t="s">
-        <v>223</v>
+        <v>214</v>
       </c>
       <c r="H83" s="1"/>
       <c r="I83" s="1"/>
@@ -3949,7 +3902,7 @@
     </row>
     <row r="84" ht="15.75" customHeight="1">
       <c r="A84" s="1" t="s">
-        <v>224</v>
+        <v>215</v>
       </c>
       <c r="B84" s="1" t="s">
         <v>16</v>
@@ -3961,7 +3914,7 @@
         <v>18</v>
       </c>
       <c r="E84" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>20</v>
@@ -3970,8 +3923,8 @@
         <v>112</v>
       </c>
       <c r="H84" s="1"/>
-      <c r="I84" s="2" t="s">
-        <v>225</v>
+      <c r="I84" s="1" t="s">
+        <v>216</v>
       </c>
       <c r="J84" s="1"/>
       <c r="K84" s="1" t="s">
@@ -3984,7 +3937,7 @@
     </row>
     <row r="85" ht="15.75" customHeight="1">
       <c r="A85" s="1" t="s">
-        <v>226</v>
+        <v>217</v>
       </c>
       <c r="B85" s="1" t="s">
         <v>16</v>
@@ -3998,12 +3951,10 @@
       <c r="E85" s="1"/>
       <c r="F85" s="1"/>
       <c r="G85" s="1" t="s">
-        <v>227</v>
+        <v>218</v>
       </c>
       <c r="H85" s="1"/>
-      <c r="I85" s="2" t="s">
-        <v>228</v>
-      </c>
+      <c r="I85" s="1"/>
       <c r="J85" s="1"/>
       <c r="K85" s="1" t="s">
         <v>22</v>
@@ -4015,7 +3966,7 @@
     </row>
     <row r="86" ht="15.75" customHeight="1">
       <c r="A86" s="1" t="s">
-        <v>229</v>
+        <v>219</v>
       </c>
       <c r="B86" s="1" t="s">
         <v>16</v>
@@ -4031,11 +3982,11 @@
       </c>
       <c r="F86" s="1"/>
       <c r="G86" s="1" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="H86" s="1"/>
-      <c r="I86" s="2" t="s">
-        <v>230</v>
+      <c r="I86" s="1" t="s">
+        <v>220</v>
       </c>
       <c r="J86" s="1"/>
       <c r="K86" s="1" t="s">
@@ -4048,7 +3999,7 @@
     </row>
     <row r="87" ht="15.75" customHeight="1">
       <c r="A87" s="1" t="s">
-        <v>231</v>
+        <v>221</v>
       </c>
       <c r="B87" s="1" t="s">
         <v>16</v>
@@ -4062,11 +4013,11 @@
       <c r="E87" s="1"/>
       <c r="F87" s="1"/>
       <c r="G87" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H87" s="1"/>
-      <c r="I87" s="2" t="s">
-        <v>232</v>
+      <c r="I87" s="1" t="s">
+        <v>222</v>
       </c>
       <c r="J87" s="1"/>
       <c r="K87" s="1" t="s">
@@ -4075,32 +4026,30 @@
       <c r="L87" s="1"/>
       <c r="M87" s="1"/>
       <c r="N87" s="1" t="s">
-        <v>195</v>
+        <v>187</v>
       </c>
       <c r="O87" s="1"/>
     </row>
     <row r="88" ht="15.75" customHeight="1">
       <c r="A88" s="1" t="s">
-        <v>233</v>
+        <v>223</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C88" s="1"/>
       <c r="D88" s="1"/>
       <c r="E88" s="1"/>
       <c r="F88" s="1"/>
       <c r="G88" s="1" t="s">
-        <v>234</v>
+        <v>224</v>
       </c>
       <c r="H88" s="1" t="s">
-        <v>235</v>
-      </c>
-      <c r="I88" s="2" t="s">
-        <v>236</v>
-      </c>
+        <v>225</v>
+      </c>
+      <c r="I88" s="1"/>
       <c r="J88" s="2" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="K88" s="1" t="s">
         <v>22</v>
@@ -4112,13 +4061,13 @@
     </row>
     <row r="89" ht="15.75" customHeight="1">
       <c r="A89" s="1" t="s">
-        <v>237</v>
+        <v>226</v>
       </c>
       <c r="B89" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C89" s="2" t="s">
-        <v>238</v>
+        <v>227</v>
       </c>
       <c r="D89" s="1"/>
       <c r="E89" s="1" t="s">
@@ -4128,11 +4077,11 @@
         <v>20</v>
       </c>
       <c r="G89" s="2" t="s">
-        <v>239</v>
+        <v>228</v>
       </c>
       <c r="H89" s="1"/>
-      <c r="I89" s="2" t="s">
-        <v>240</v>
+      <c r="I89" s="1" t="s">
+        <v>229</v>
       </c>
       <c r="J89" s="1"/>
       <c r="K89" s="1" t="s">
@@ -4145,27 +4094,27 @@
     </row>
     <row r="90" ht="15.75" customHeight="1">
       <c r="A90" s="1" t="s">
-        <v>241</v>
+        <v>230</v>
       </c>
       <c r="B90" s="1" t="s">
         <v>16</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D90" s="1"/>
       <c r="E90" s="1" t="s">
         <v>19</v>
       </c>
       <c r="F90" s="1" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="G90" s="2" t="s">
-        <v>242</v>
+        <v>231</v>
       </c>
       <c r="H90" s="1"/>
-      <c r="I90" s="2" t="s">
-        <v>243</v>
+      <c r="I90" s="1" t="s">
+        <v>232</v>
       </c>
       <c r="J90" s="1"/>
       <c r="K90" s="1" t="s">
@@ -4178,7 +4127,7 @@
     </row>
     <row r="91" ht="15.75" customHeight="1">
       <c r="A91" s="1" t="s">
-        <v>244</v>
+        <v>233</v>
       </c>
       <c r="B91" s="1" t="s">
         <v>16</v>
@@ -4187,7 +4136,7 @@
         <v>17</v>
       </c>
       <c r="D91" s="2" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E91" s="2">
         <v>6.0</v>
@@ -4196,10 +4145,12 @@
         <v>20</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>246</v>
+        <v>235</v>
       </c>
       <c r="H91" s="1"/>
-      <c r="I91" s="1"/>
+      <c r="I91" s="1" t="s">
+        <v>236</v>
+      </c>
       <c r="J91" s="1"/>
       <c r="K91" s="1" t="s">
         <v>22</v>
@@ -4211,7 +4162,7 @@
     </row>
     <row r="92" ht="15.75" customHeight="1">
       <c r="A92" s="1" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="B92" s="1" t="s">
         <v>16</v>
@@ -4220,18 +4171,18 @@
         <v>17</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E92" s="2">
         <v>5.0</v>
       </c>
       <c r="F92" s="1"/>
       <c r="G92" s="1" t="s">
-        <v>249</v>
+        <v>239</v>
       </c>
       <c r="H92" s="1"/>
-      <c r="I92" s="2" t="s">
-        <v>250</v>
+      <c r="I92" s="1" t="s">
+        <v>240</v>
       </c>
       <c r="J92" s="1"/>
       <c r="K92" s="1" t="s">
@@ -4244,7 +4195,7 @@
     </row>
     <row r="93" ht="15.75" customHeight="1">
       <c r="A93" s="1" t="s">
-        <v>251</v>
+        <v>241</v>
       </c>
       <c r="B93" s="1" t="s">
         <v>16</v>
@@ -4260,26 +4211,26 @@
       </c>
       <c r="F93" s="1"/>
       <c r="G93" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H93" s="1"/>
-      <c r="I93" s="2" t="s">
-        <v>253</v>
+      <c r="I93" s="1" t="s">
+        <v>243</v>
       </c>
       <c r="J93" s="1"/>
       <c r="K93" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L93" s="1"/>
       <c r="M93" s="1" t="s">
-        <v>254</v>
+        <v>244</v>
       </c>
       <c r="N93" s="1"/>
       <c r="O93" s="1"/>
     </row>
     <row r="94" ht="15.75" customHeight="1">
       <c r="A94" s="1" t="s">
-        <v>255</v>
+        <v>245</v>
       </c>
       <c r="B94" s="1" t="s">
         <v>16</v>
@@ -4291,7 +4242,7 @@
       </c>
       <c r="F94" s="1"/>
       <c r="G94" s="1" t="s">
-        <v>252</v>
+        <v>242</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="1"/>
@@ -4306,7 +4257,7 @@
     </row>
     <row r="95" ht="15.75" customHeight="1">
       <c r="A95" s="1" t="s">
-        <v>256</v>
+        <v>246</v>
       </c>
       <c r="B95" s="1" t="s">
         <v>16</v>
@@ -4315,24 +4266,24 @@
         <v>17</v>
       </c>
       <c r="D95" s="2" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E95" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>257</v>
+        <v>247</v>
       </c>
       <c r="H95" s="1"/>
-      <c r="I95" s="2" t="s">
-        <v>258</v>
+      <c r="I95" s="1" t="s">
+        <v>248</v>
       </c>
       <c r="J95" s="1"/>
       <c r="K95" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L95" s="1"/>
       <c r="M95" s="1"/>
@@ -4341,7 +4292,7 @@
     </row>
     <row r="96" ht="15.75" customHeight="1">
       <c r="A96" s="1" t="s">
-        <v>259</v>
+        <v>249</v>
       </c>
       <c r="B96" s="1" t="s">
         <v>16</v>
@@ -4353,13 +4304,13 @@
         <v>18</v>
       </c>
       <c r="E96" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F96" s="1"/>
       <c r="G96" s="1"/>
       <c r="H96" s="1"/>
-      <c r="I96" s="2" t="s">
-        <v>260</v>
+      <c r="I96" s="1" t="s">
+        <v>250</v>
       </c>
       <c r="J96" s="1"/>
       <c r="K96" s="1" t="s">
@@ -4372,10 +4323,10 @@
     </row>
     <row r="97" ht="15.75" customHeight="1">
       <c r="A97" s="1" t="s">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C97" s="1" t="s">
         <v>17</v>
@@ -4385,14 +4336,14 @@
       </c>
       <c r="E97" s="1"/>
       <c r="F97" s="1" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="G97" s="1" t="s">
-        <v>262</v>
+        <v>252</v>
       </c>
       <c r="H97" s="1"/>
-      <c r="I97" s="2" t="s">
-        <v>263</v>
+      <c r="I97" s="1" t="s">
+        <v>253</v>
       </c>
       <c r="J97" s="1"/>
       <c r="K97" s="1" t="s">
@@ -4405,7 +4356,7 @@
     </row>
     <row r="98" ht="15.75" customHeight="1">
       <c r="A98" s="1" t="s">
-        <v>264</v>
+        <v>254</v>
       </c>
       <c r="B98" s="1" t="s">
         <v>16</v>
@@ -4413,17 +4364,17 @@
       <c r="C98" s="1"/>
       <c r="D98" s="1"/>
       <c r="E98" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F98" s="1" t="s">
         <v>20</v>
       </c>
       <c r="G98" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
       <c r="H98" s="1"/>
-      <c r="I98" s="2" t="s">
-        <v>266</v>
+      <c r="I98" s="1" t="s">
+        <v>256</v>
       </c>
       <c r="J98" s="1"/>
       <c r="K98" s="1" t="s">
@@ -4432,15 +4383,15 @@
       <c r="L98" s="1"/>
       <c r="M98" s="1"/>
       <c r="N98" s="1" t="s">
-        <v>267</v>
+        <v>257</v>
       </c>
       <c r="O98" s="1" t="s">
-        <v>265</v>
+        <v>255</v>
       </c>
     </row>
     <row r="99" ht="15.75" customHeight="1">
       <c r="A99" s="1" t="s">
-        <v>268</v>
+        <v>258</v>
       </c>
       <c r="B99" s="1" t="s">
         <v>16</v>
@@ -4449,17 +4400,15 @@
         <v>17</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="E99" s="1"/>
       <c r="F99" s="1"/>
       <c r="G99" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H99" s="1"/>
-      <c r="I99" s="2" t="s">
-        <v>269</v>
-      </c>
+      <c r="I99" s="1"/>
       <c r="J99" s="1"/>
       <c r="K99" s="1" t="s">
         <v>22</v>
@@ -4471,7 +4420,7 @@
     </row>
     <row r="100" ht="15.75" customHeight="1">
       <c r="A100" s="1" t="s">
-        <v>270</v>
+        <v>259</v>
       </c>
       <c r="B100" s="1" t="s">
         <v>16</v>
@@ -4486,29 +4435,29 @@
         <v>34</v>
       </c>
       <c r="F100" s="1" t="s">
-        <v>271</v>
+        <v>260</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>272</v>
+        <v>261</v>
       </c>
       <c r="H100" s="1"/>
       <c r="I100" s="1"/>
       <c r="J100" s="1"/>
       <c r="K100" s="1" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="L100" s="1" t="s">
-        <v>273</v>
+        <v>262</v>
       </c>
       <c r="M100" s="1" t="s">
-        <v>274</v>
+        <v>263</v>
       </c>
       <c r="N100" s="1"/>
       <c r="O100" s="1"/>
     </row>
     <row r="101" ht="15.75" customHeight="1">
       <c r="A101" s="1" t="s">
-        <v>275</v>
+        <v>264</v>
       </c>
       <c r="B101" s="1" t="s">
         <v>16</v>
@@ -4531,7 +4480,7 @@
     </row>
     <row r="102" ht="15.75" customHeight="1">
       <c r="A102" s="1" t="s">
-        <v>276</v>
+        <v>265</v>
       </c>
       <c r="B102" s="1" t="s">
         <v>16</v>
@@ -4540,17 +4489,19 @@
         <v>17</v>
       </c>
       <c r="D102" s="1" t="s">
-        <v>245</v>
+        <v>234</v>
       </c>
       <c r="E102" s="2">
         <v>4.0</v>
       </c>
       <c r="F102" s="1"/>
       <c r="G102" s="1" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="H102" s="1"/>
-      <c r="I102" s="1"/>
+      <c r="I102" s="1" t="s">
+        <v>266</v>
+      </c>
       <c r="J102" s="1"/>
       <c r="K102" s="1" t="s">
         <v>22</v>
@@ -4558,13 +4509,13 @@
       <c r="L102" s="1"/>
       <c r="M102" s="1"/>
       <c r="N102" s="1" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="O102" s="1"/>
     </row>
     <row r="103" ht="15.75" customHeight="1">
       <c r="A103" s="1" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="B103" s="1" t="s">
         <v>16</v>
@@ -4582,11 +4533,11 @@
         <v>20</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>279</v>
+        <v>269</v>
       </c>
       <c r="H103" s="1"/>
-      <c r="I103" s="2" t="s">
-        <v>280</v>
+      <c r="I103" s="1" t="s">
+        <v>270</v>
       </c>
       <c r="J103" s="1"/>
       <c r="K103" s="1" t="s">
@@ -4599,7 +4550,7 @@
     </row>
     <row r="104" ht="15.75" customHeight="1">
       <c r="A104" s="1" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B104" s="1" t="s">
         <v>16</v>
@@ -4611,7 +4562,7 @@
         <v>18</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>20</v>
@@ -4620,8 +4571,8 @@
         <v>24</v>
       </c>
       <c r="H104" s="1"/>
-      <c r="I104" s="2" t="s">
-        <v>282</v>
+      <c r="I104" s="1" t="s">
+        <v>272</v>
       </c>
       <c r="J104" s="1"/>
       <c r="K104" s="1" t="s">
@@ -4634,7 +4585,7 @@
     </row>
     <row r="105" ht="15.75" customHeight="1">
       <c r="A105" s="1" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="B105" s="1" t="s">
         <v>16</v>
@@ -4643,18 +4594,18 @@
         <v>17</v>
       </c>
       <c r="D105" s="1" t="s">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="E105" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F105" s="1"/>
       <c r="G105" s="1" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="H105" s="1"/>
-      <c r="I105" s="2" t="s">
-        <v>285</v>
+      <c r="I105" s="1" t="s">
+        <v>275</v>
       </c>
       <c r="J105" s="1"/>
       <c r="K105" s="1" t="s">
@@ -4667,7 +4618,7 @@
     </row>
     <row r="106" ht="15.75" customHeight="1">
       <c r="A106" s="1" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="B106" s="1" t="s">
         <v>16</v>
@@ -4675,13 +4626,13 @@
       <c r="C106" s="1"/>
       <c r="D106" s="1"/>
       <c r="E106" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F106" s="1" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="G106" s="1" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="H106" s="1"/>
       <c r="I106" s="1"/>
@@ -4696,7 +4647,7 @@
     </row>
     <row r="107" ht="15.75" customHeight="1">
       <c r="A107" s="1" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="B107" s="1" t="s">
         <v>16</v>
@@ -4707,14 +4658,14 @@
         <v>19</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="G107" s="1" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="H107" s="1"/>
-      <c r="I107" s="2" t="s">
-        <v>292</v>
+      <c r="I107" s="1" t="s">
+        <v>282</v>
       </c>
       <c r="J107" s="1"/>
       <c r="K107" s="1" t="s">
@@ -4727,7 +4678,7 @@
     </row>
     <row r="108" ht="15.75" customHeight="1">
       <c r="A108" s="1" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="B108" s="1" t="s">
         <v>16</v>
@@ -4743,7 +4694,7 @@
         <v>20</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="1"/>
@@ -4758,7 +4709,7 @@
     </row>
     <row r="109" ht="15.75" customHeight="1">
       <c r="A109" s="1" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="B109" s="2" t="s">
         <v>16</v>
@@ -4774,10 +4725,12 @@
       </c>
       <c r="F109" s="1"/>
       <c r="G109" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H109" s="1"/>
-      <c r="I109" s="1"/>
+      <c r="I109" s="1" t="s">
+        <v>286</v>
+      </c>
       <c r="J109" s="1"/>
       <c r="K109" s="1" t="s">
         <v>22</v>
@@ -4785,13 +4738,13 @@
       <c r="L109" s="1"/>
       <c r="M109" s="1"/>
       <c r="N109" s="1" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="O109" s="1"/>
     </row>
     <row r="110" ht="15.75" customHeight="1">
       <c r="A110" s="1" t="s">
-        <v>297</v>
+        <v>288</v>
       </c>
       <c r="B110" s="2" t="s">
         <v>16</v>
@@ -4800,14 +4753,14 @@
       <c r="D110" s="1"/>
       <c r="E110" s="1"/>
       <c r="F110" s="1" t="s">
-        <v>298</v>
+        <v>289</v>
       </c>
       <c r="G110" s="2" t="s">
-        <v>299</v>
+        <v>290</v>
       </c>
       <c r="H110" s="1"/>
-      <c r="I110" s="2" t="s">
-        <v>300</v>
+      <c r="I110" s="1" t="s">
+        <v>291</v>
       </c>
       <c r="J110" s="1"/>
       <c r="K110" s="1" t="s">
@@ -4820,7 +4773,7 @@
     </row>
     <row r="111" ht="15.75" customHeight="1">
       <c r="A111" s="1" t="s">
-        <v>301</v>
+        <v>292</v>
       </c>
       <c r="B111" s="2" t="s">
         <v>16</v>
@@ -4836,12 +4789,10 @@
       </c>
       <c r="F111" s="1"/>
       <c r="G111" s="2" t="s">
-        <v>302</v>
+        <v>293</v>
       </c>
       <c r="H111" s="1"/>
-      <c r="I111" s="2" t="s">
-        <v>303</v>
-      </c>
+      <c r="I111" s="1"/>
       <c r="J111" s="1"/>
       <c r="K111" s="1" t="s">
         <v>22</v>
@@ -4853,7 +4804,7 @@
     </row>
     <row r="112" ht="15.75" customHeight="1">
       <c r="A112" s="1" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="B112" s="1" t="s">
         <v>16</v>
@@ -4869,11 +4820,11 @@
       </c>
       <c r="F112" s="1"/>
       <c r="G112" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H112" s="1"/>
-      <c r="I112" s="2" t="s">
-        <v>306</v>
+      <c r="I112" s="1" t="s">
+        <v>296</v>
       </c>
       <c r="J112" s="1"/>
       <c r="K112" s="1" t="s">
@@ -4886,7 +4837,7 @@
     </row>
     <row r="113" ht="15.75" customHeight="1">
       <c r="A113" s="1" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="B113" s="1" t="s">
         <v>16</v>
@@ -4902,11 +4853,11 @@
       </c>
       <c r="F113" s="1"/>
       <c r="G113" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H113" s="1"/>
-      <c r="I113" s="2" t="s">
-        <v>308</v>
+      <c r="I113" s="1" t="s">
+        <v>298</v>
       </c>
       <c r="J113" s="1"/>
       <c r="K113" s="1" t="s">
@@ -4919,7 +4870,7 @@
     </row>
     <row r="114" ht="15.75" customHeight="1">
       <c r="A114" s="1" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="B114" s="1" t="s">
         <v>16</v>
@@ -4933,10 +4884,12 @@
       <c r="E114" s="1"/>
       <c r="F114" s="1"/>
       <c r="G114" s="1" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="H114" s="1"/>
-      <c r="I114" s="1"/>
+      <c r="I114" s="1" t="s">
+        <v>300</v>
+      </c>
       <c r="J114" s="1"/>
       <c r="K114" s="1" t="s">
         <v>22</v>
@@ -4948,7 +4901,7 @@
     </row>
     <row r="115" ht="15.75" customHeight="1">
       <c r="A115" s="1" t="s">
-        <v>310</v>
+        <v>301</v>
       </c>
       <c r="B115" s="1" t="s">
         <v>16</v>
@@ -4964,11 +4917,11 @@
       </c>
       <c r="F115" s="1"/>
       <c r="G115" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H115" s="1"/>
-      <c r="I115" s="2" t="s">
-        <v>312</v>
+      <c r="I115" s="1" t="s">
+        <v>303</v>
       </c>
       <c r="J115" s="1"/>
       <c r="K115" s="1" t="s">
@@ -4981,7 +4934,7 @@
     </row>
     <row r="116" ht="15.75" customHeight="1">
       <c r="A116" s="1" t="s">
-        <v>313</v>
+        <v>304</v>
       </c>
       <c r="B116" s="1" t="s">
         <v>16</v>
@@ -4995,11 +4948,11 @@
       <c r="E116" s="1"/>
       <c r="F116" s="1"/>
       <c r="G116" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="H116" s="1"/>
+      <c r="I116" s="1" t="s">
         <v>305</v>
-      </c>
-      <c r="H116" s="1"/>
-      <c r="I116" s="2" t="s">
-        <v>314</v>
       </c>
       <c r="J116" s="1"/>
       <c r="K116" s="1" t="s">
@@ -5012,7 +4965,7 @@
     </row>
     <row r="117" ht="15.75" customHeight="1">
       <c r="A117" s="1" t="s">
-        <v>315</v>
+        <v>306</v>
       </c>
       <c r="B117" s="1" t="s">
         <v>16</v>
@@ -5024,15 +4977,15 @@
         <v>18</v>
       </c>
       <c r="E117" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F117" s="1"/>
       <c r="G117" s="1" t="s">
-        <v>316</v>
+        <v>307</v>
       </c>
       <c r="H117" s="1"/>
-      <c r="I117" s="2" t="s">
-        <v>317</v>
+      <c r="I117" s="1" t="s">
+        <v>308</v>
       </c>
       <c r="J117" s="1"/>
       <c r="K117" s="1" t="s">
@@ -5045,7 +4998,7 @@
     </row>
     <row r="118" ht="15.75" customHeight="1">
       <c r="A118" s="1" t="s">
-        <v>318</v>
+        <v>309</v>
       </c>
       <c r="B118" s="1" t="s">
         <v>16</v>
@@ -5061,11 +5014,11 @@
       </c>
       <c r="F118" s="1"/>
       <c r="G118" s="1" t="s">
-        <v>311</v>
+        <v>302</v>
       </c>
       <c r="H118" s="1"/>
-      <c r="I118" s="2" t="s">
-        <v>319</v>
+      <c r="I118" s="1" t="s">
+        <v>310</v>
       </c>
       <c r="J118" s="1"/>
       <c r="K118" s="1" t="s">
@@ -5078,7 +5031,7 @@
     </row>
     <row r="119" ht="15.75" customHeight="1">
       <c r="A119" s="1" t="s">
-        <v>320</v>
+        <v>311</v>
       </c>
       <c r="B119" s="1" t="s">
         <v>16</v>
@@ -5093,14 +5046,14 @@
         <v>19</v>
       </c>
       <c r="F119" s="1" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="G119" s="1" t="s">
-        <v>321</v>
+        <v>312</v>
       </c>
       <c r="H119" s="1"/>
-      <c r="I119" s="2" t="s">
-        <v>322</v>
+      <c r="I119" s="1" t="s">
+        <v>313</v>
       </c>
       <c r="J119" s="1"/>
       <c r="K119" s="1" t="s">
@@ -5109,882 +5062,2626 @@
       <c r="L119" s="1"/>
       <c r="M119" s="1"/>
       <c r="N119" s="1" t="s">
-        <v>323</v>
+        <v>314</v>
       </c>
       <c r="O119" s="1"/>
     </row>
-    <row r="120" ht="15.75" customHeight="1"/>
-    <row r="121" ht="15.75" customHeight="1"/>
-    <row r="122" ht="15.75" customHeight="1"/>
-    <row r="123" ht="15.75" customHeight="1"/>
-    <row r="124" ht="15.75" customHeight="1"/>
-    <row r="125" ht="15.75" customHeight="1"/>
-    <row r="126" ht="15.75" customHeight="1"/>
-    <row r="127" ht="15.75" customHeight="1"/>
-    <row r="128" ht="15.75" customHeight="1"/>
-    <row r="129" ht="15.75" customHeight="1"/>
-    <row r="130" ht="15.75" customHeight="1"/>
-    <row r="131" ht="15.75" customHeight="1"/>
-    <row r="132" ht="15.75" customHeight="1"/>
-    <row r="133" ht="15.75" customHeight="1"/>
-    <row r="134" ht="15.75" customHeight="1"/>
-    <row r="135" ht="15.75" customHeight="1"/>
-    <row r="136" ht="15.75" customHeight="1"/>
-    <row r="137" ht="15.75" customHeight="1"/>
-    <row r="138" ht="15.75" customHeight="1"/>
-    <row r="139" ht="15.75" customHeight="1"/>
-    <row r="140" ht="15.75" customHeight="1"/>
-    <row r="141" ht="15.75" customHeight="1"/>
-    <row r="142" ht="15.75" customHeight="1"/>
-    <row r="143" ht="15.75" customHeight="1"/>
-    <row r="144" ht="15.75" customHeight="1"/>
-    <row r="145" ht="15.75" customHeight="1"/>
-    <row r="146" ht="15.75" customHeight="1"/>
-    <row r="147" ht="15.75" customHeight="1"/>
-    <row r="148" ht="15.75" customHeight="1"/>
-    <row r="149" ht="15.75" customHeight="1"/>
-    <row r="150" ht="15.75" customHeight="1"/>
-    <row r="151" ht="15.75" customHeight="1"/>
-    <row r="152" ht="15.75" customHeight="1"/>
-    <row r="153" ht="15.75" customHeight="1"/>
-    <row r="154" ht="15.75" customHeight="1"/>
-    <row r="155" ht="15.75" customHeight="1"/>
-    <row r="156" ht="15.75" customHeight="1"/>
-    <row r="157" ht="15.75" customHeight="1"/>
-    <row r="158" ht="15.75" customHeight="1"/>
-    <row r="159" ht="15.75" customHeight="1"/>
-    <row r="160" ht="15.75" customHeight="1"/>
-    <row r="161" ht="15.75" customHeight="1"/>
-    <row r="162" ht="15.75" customHeight="1"/>
-    <row r="163" ht="15.75" customHeight="1"/>
-    <row r="164" ht="15.75" customHeight="1"/>
-    <row r="165" ht="15.75" customHeight="1"/>
-    <row r="166" ht="15.75" customHeight="1"/>
-    <row r="167" ht="15.75" customHeight="1"/>
-    <row r="168" ht="15.75" customHeight="1"/>
-    <row r="169" ht="15.75" customHeight="1"/>
-    <row r="170" ht="15.75" customHeight="1"/>
-    <row r="171" ht="15.75" customHeight="1"/>
-    <row r="172" ht="15.75" customHeight="1"/>
-    <row r="173" ht="15.75" customHeight="1"/>
-    <row r="174" ht="15.75" customHeight="1"/>
-    <row r="175" ht="15.75" customHeight="1"/>
-    <row r="176" ht="15.75" customHeight="1"/>
-    <row r="177" ht="15.75" customHeight="1"/>
-    <row r="178" ht="15.75" customHeight="1"/>
-    <row r="179" ht="15.75" customHeight="1"/>
-    <row r="180" ht="15.75" customHeight="1"/>
-    <row r="181" ht="15.75" customHeight="1"/>
-    <row r="182" ht="15.75" customHeight="1"/>
-    <row r="183" ht="15.75" customHeight="1"/>
-    <row r="184" ht="15.75" customHeight="1"/>
-    <row r="185" ht="15.75" customHeight="1"/>
-    <row r="186" ht="15.75" customHeight="1"/>
-    <row r="187" ht="15.75" customHeight="1"/>
-    <row r="188" ht="15.75" customHeight="1"/>
-    <row r="189" ht="15.75" customHeight="1"/>
-    <row r="190" ht="15.75" customHeight="1"/>
-    <row r="191" ht="15.75" customHeight="1"/>
-    <row r="192" ht="15.75" customHeight="1"/>
-    <row r="193" ht="15.75" customHeight="1"/>
-    <row r="194" ht="15.75" customHeight="1"/>
-    <row r="195" ht="15.75" customHeight="1"/>
-    <row r="196" ht="15.75" customHeight="1"/>
-    <row r="197" ht="15.75" customHeight="1"/>
-    <row r="198" ht="15.75" customHeight="1"/>
-    <row r="199" ht="15.75" customHeight="1"/>
-    <row r="200" ht="15.75" customHeight="1"/>
-    <row r="201" ht="15.75" customHeight="1"/>
-    <row r="202" ht="15.75" customHeight="1"/>
-    <row r="203" ht="15.75" customHeight="1"/>
-    <row r="204" ht="15.75" customHeight="1"/>
-    <row r="205" ht="15.75" customHeight="1"/>
-    <row r="206" ht="15.75" customHeight="1"/>
-    <row r="207" ht="15.75" customHeight="1"/>
-    <row r="208" ht="15.75" customHeight="1"/>
-    <row r="209" ht="15.75" customHeight="1"/>
-    <row r="210" ht="15.75" customHeight="1"/>
-    <row r="211" ht="15.75" customHeight="1"/>
-    <row r="212" ht="15.75" customHeight="1"/>
-    <row r="213" ht="15.75" customHeight="1"/>
-    <row r="214" ht="15.75" customHeight="1"/>
-    <row r="215" ht="15.75" customHeight="1"/>
-    <row r="216" ht="15.75" customHeight="1"/>
-    <row r="217" ht="15.75" customHeight="1"/>
-    <row r="218" ht="15.75" customHeight="1"/>
-    <row r="219" ht="15.75" customHeight="1"/>
-    <row r="220" ht="15.75" customHeight="1"/>
-    <row r="221" ht="15.75" customHeight="1"/>
-    <row r="222" ht="15.75" customHeight="1"/>
-    <row r="223" ht="15.75" customHeight="1"/>
-    <row r="224" ht="15.75" customHeight="1"/>
-    <row r="225" ht="15.75" customHeight="1"/>
-    <row r="226" ht="15.75" customHeight="1"/>
-    <row r="227" ht="15.75" customHeight="1"/>
-    <row r="228" ht="15.75" customHeight="1"/>
-    <row r="229" ht="15.75" customHeight="1"/>
-    <row r="230" ht="15.75" customHeight="1"/>
-    <row r="231" ht="15.75" customHeight="1"/>
-    <row r="232" ht="15.75" customHeight="1"/>
-    <row r="233" ht="15.75" customHeight="1"/>
-    <row r="234" ht="15.75" customHeight="1"/>
-    <row r="235" ht="15.75" customHeight="1"/>
-    <row r="236" ht="15.75" customHeight="1"/>
-    <row r="237" ht="15.75" customHeight="1"/>
-    <row r="238" ht="15.75" customHeight="1"/>
-    <row r="239" ht="15.75" customHeight="1"/>
-    <row r="240" ht="15.75" customHeight="1"/>
-    <row r="241" ht="15.75" customHeight="1"/>
-    <row r="242" ht="15.75" customHeight="1"/>
-    <row r="243" ht="15.75" customHeight="1"/>
-    <row r="244" ht="15.75" customHeight="1"/>
-    <row r="245" ht="15.75" customHeight="1"/>
-    <row r="246" ht="15.75" customHeight="1"/>
-    <row r="247" ht="15.75" customHeight="1"/>
-    <row r="248" ht="15.75" customHeight="1"/>
-    <row r="249" ht="15.75" customHeight="1"/>
-    <row r="250" ht="15.75" customHeight="1"/>
-    <row r="251" ht="15.75" customHeight="1"/>
-    <row r="252" ht="15.75" customHeight="1"/>
-    <row r="253" ht="15.75" customHeight="1"/>
-    <row r="254" ht="15.75" customHeight="1"/>
-    <row r="255" ht="15.75" customHeight="1"/>
-    <row r="256" ht="15.75" customHeight="1"/>
-    <row r="257" ht="15.75" customHeight="1"/>
-    <row r="258" ht="15.75" customHeight="1"/>
-    <row r="259" ht="15.75" customHeight="1"/>
-    <row r="260" ht="15.75" customHeight="1"/>
-    <row r="261" ht="15.75" customHeight="1"/>
-    <row r="262" ht="15.75" customHeight="1"/>
-    <row r="263" ht="15.75" customHeight="1"/>
-    <row r="264" ht="15.75" customHeight="1"/>
-    <row r="265" ht="15.75" customHeight="1"/>
-    <row r="266" ht="15.75" customHeight="1"/>
-    <row r="267" ht="15.75" customHeight="1"/>
-    <row r="268" ht="15.75" customHeight="1"/>
-    <row r="269" ht="15.75" customHeight="1"/>
-    <row r="270" ht="15.75" customHeight="1"/>
-    <row r="271" ht="15.75" customHeight="1"/>
-    <row r="272" ht="15.75" customHeight="1"/>
-    <row r="273" ht="15.75" customHeight="1"/>
-    <row r="274" ht="15.75" customHeight="1"/>
-    <row r="275" ht="15.75" customHeight="1"/>
-    <row r="276" ht="15.75" customHeight="1"/>
-    <row r="277" ht="15.75" customHeight="1"/>
-    <row r="278" ht="15.75" customHeight="1"/>
-    <row r="279" ht="15.75" customHeight="1"/>
-    <row r="280" ht="15.75" customHeight="1"/>
-    <row r="281" ht="15.75" customHeight="1"/>
-    <row r="282" ht="15.75" customHeight="1"/>
-    <row r="283" ht="15.75" customHeight="1"/>
-    <row r="284" ht="15.75" customHeight="1"/>
-    <row r="285" ht="15.75" customHeight="1"/>
-    <row r="286" ht="15.75" customHeight="1"/>
-    <row r="287" ht="15.75" customHeight="1"/>
-    <row r="288" ht="15.75" customHeight="1"/>
-    <row r="289" ht="15.75" customHeight="1"/>
-    <row r="290" ht="15.75" customHeight="1"/>
-    <row r="291" ht="15.75" customHeight="1"/>
-    <row r="292" ht="15.75" customHeight="1"/>
-    <row r="293" ht="15.75" customHeight="1"/>
-    <row r="294" ht="15.75" customHeight="1"/>
-    <row r="295" ht="15.75" customHeight="1"/>
-    <row r="296" ht="15.75" customHeight="1"/>
-    <row r="297" ht="15.75" customHeight="1"/>
-    <row r="298" ht="15.75" customHeight="1"/>
-    <row r="299" ht="15.75" customHeight="1"/>
-    <row r="300" ht="15.75" customHeight="1"/>
-    <row r="301" ht="15.75" customHeight="1"/>
-    <row r="302" ht="15.75" customHeight="1"/>
-    <row r="303" ht="15.75" customHeight="1"/>
-    <row r="304" ht="15.75" customHeight="1"/>
-    <row r="305" ht="15.75" customHeight="1"/>
-    <row r="306" ht="15.75" customHeight="1"/>
-    <row r="307" ht="15.75" customHeight="1"/>
-    <row r="308" ht="15.75" customHeight="1"/>
-    <row r="309" ht="15.75" customHeight="1"/>
-    <row r="310" ht="15.75" customHeight="1"/>
-    <row r="311" ht="15.75" customHeight="1"/>
-    <row r="312" ht="15.75" customHeight="1"/>
-    <row r="313" ht="15.75" customHeight="1"/>
-    <row r="314" ht="15.75" customHeight="1"/>
-    <row r="315" ht="15.75" customHeight="1"/>
-    <row r="316" ht="15.75" customHeight="1"/>
-    <row r="317" ht="15.75" customHeight="1"/>
-    <row r="318" ht="15.75" customHeight="1"/>
-    <row r="319" ht="15.75" customHeight="1"/>
-    <row r="320" ht="15.75" customHeight="1"/>
-    <row r="321" ht="15.75" customHeight="1"/>
-    <row r="322" ht="15.75" customHeight="1"/>
-    <row r="323" ht="15.75" customHeight="1"/>
-    <row r="324" ht="15.75" customHeight="1"/>
-    <row r="325" ht="15.75" customHeight="1"/>
-    <row r="326" ht="15.75" customHeight="1"/>
-    <row r="327" ht="15.75" customHeight="1"/>
-    <row r="328" ht="15.75" customHeight="1"/>
-    <row r="329" ht="15.75" customHeight="1"/>
-    <row r="330" ht="15.75" customHeight="1"/>
-    <row r="331" ht="15.75" customHeight="1"/>
-    <row r="332" ht="15.75" customHeight="1"/>
-    <row r="333" ht="15.75" customHeight="1"/>
-    <row r="334" ht="15.75" customHeight="1"/>
-    <row r="335" ht="15.75" customHeight="1"/>
-    <row r="336" ht="15.75" customHeight="1"/>
-    <row r="337" ht="15.75" customHeight="1"/>
-    <row r="338" ht="15.75" customHeight="1"/>
-    <row r="339" ht="15.75" customHeight="1"/>
-    <row r="340" ht="15.75" customHeight="1"/>
-    <row r="341" ht="15.75" customHeight="1"/>
-    <row r="342" ht="15.75" customHeight="1"/>
-    <row r="343" ht="15.75" customHeight="1"/>
-    <row r="344" ht="15.75" customHeight="1"/>
-    <row r="345" ht="15.75" customHeight="1"/>
-    <row r="346" ht="15.75" customHeight="1"/>
-    <row r="347" ht="15.75" customHeight="1"/>
-    <row r="348" ht="15.75" customHeight="1"/>
-    <row r="349" ht="15.75" customHeight="1"/>
-    <row r="350" ht="15.75" customHeight="1"/>
-    <row r="351" ht="15.75" customHeight="1"/>
-    <row r="352" ht="15.75" customHeight="1"/>
-    <row r="353" ht="15.75" customHeight="1"/>
-    <row r="354" ht="15.75" customHeight="1"/>
-    <row r="355" ht="15.75" customHeight="1"/>
-    <row r="356" ht="15.75" customHeight="1"/>
-    <row r="357" ht="15.75" customHeight="1"/>
-    <row r="358" ht="15.75" customHeight="1"/>
-    <row r="359" ht="15.75" customHeight="1"/>
-    <row r="360" ht="15.75" customHeight="1"/>
-    <row r="361" ht="15.75" customHeight="1"/>
-    <row r="362" ht="15.75" customHeight="1"/>
-    <row r="363" ht="15.75" customHeight="1"/>
-    <row r="364" ht="15.75" customHeight="1"/>
-    <row r="365" ht="15.75" customHeight="1"/>
-    <row r="366" ht="15.75" customHeight="1"/>
-    <row r="367" ht="15.75" customHeight="1"/>
-    <row r="368" ht="15.75" customHeight="1"/>
-    <row r="369" ht="15.75" customHeight="1"/>
-    <row r="370" ht="15.75" customHeight="1"/>
-    <row r="371" ht="15.75" customHeight="1"/>
-    <row r="372" ht="15.75" customHeight="1"/>
-    <row r="373" ht="15.75" customHeight="1"/>
-    <row r="374" ht="15.75" customHeight="1"/>
-    <row r="375" ht="15.75" customHeight="1"/>
-    <row r="376" ht="15.75" customHeight="1"/>
-    <row r="377" ht="15.75" customHeight="1"/>
-    <row r="378" ht="15.75" customHeight="1"/>
-    <row r="379" ht="15.75" customHeight="1"/>
-    <row r="380" ht="15.75" customHeight="1"/>
-    <row r="381" ht="15.75" customHeight="1"/>
-    <row r="382" ht="15.75" customHeight="1"/>
-    <row r="383" ht="15.75" customHeight="1"/>
-    <row r="384" ht="15.75" customHeight="1"/>
-    <row r="385" ht="15.75" customHeight="1"/>
-    <row r="386" ht="15.75" customHeight="1"/>
-    <row r="387" ht="15.75" customHeight="1"/>
-    <row r="388" ht="15.75" customHeight="1"/>
-    <row r="389" ht="15.75" customHeight="1"/>
-    <row r="390" ht="15.75" customHeight="1"/>
-    <row r="391" ht="15.75" customHeight="1"/>
-    <row r="392" ht="15.75" customHeight="1"/>
-    <row r="393" ht="15.75" customHeight="1"/>
-    <row r="394" ht="15.75" customHeight="1"/>
-    <row r="395" ht="15.75" customHeight="1"/>
-    <row r="396" ht="15.75" customHeight="1"/>
-    <row r="397" ht="15.75" customHeight="1"/>
-    <row r="398" ht="15.75" customHeight="1"/>
-    <row r="399" ht="15.75" customHeight="1"/>
-    <row r="400" ht="15.75" customHeight="1"/>
-    <row r="401" ht="15.75" customHeight="1"/>
-    <row r="402" ht="15.75" customHeight="1"/>
-    <row r="403" ht="15.75" customHeight="1"/>
-    <row r="404" ht="15.75" customHeight="1"/>
-    <row r="405" ht="15.75" customHeight="1"/>
-    <row r="406" ht="15.75" customHeight="1"/>
-    <row r="407" ht="15.75" customHeight="1"/>
-    <row r="408" ht="15.75" customHeight="1"/>
-    <row r="409" ht="15.75" customHeight="1"/>
-    <row r="410" ht="15.75" customHeight="1"/>
-    <row r="411" ht="15.75" customHeight="1"/>
-    <row r="412" ht="15.75" customHeight="1"/>
-    <row r="413" ht="15.75" customHeight="1"/>
-    <row r="414" ht="15.75" customHeight="1"/>
-    <row r="415" ht="15.75" customHeight="1"/>
-    <row r="416" ht="15.75" customHeight="1"/>
-    <row r="417" ht="15.75" customHeight="1"/>
-    <row r="418" ht="15.75" customHeight="1"/>
-    <row r="419" ht="15.75" customHeight="1"/>
-    <row r="420" ht="15.75" customHeight="1"/>
-    <row r="421" ht="15.75" customHeight="1"/>
-    <row r="422" ht="15.75" customHeight="1"/>
-    <row r="423" ht="15.75" customHeight="1"/>
-    <row r="424" ht="15.75" customHeight="1"/>
-    <row r="425" ht="15.75" customHeight="1"/>
-    <row r="426" ht="15.75" customHeight="1"/>
-    <row r="427" ht="15.75" customHeight="1"/>
-    <row r="428" ht="15.75" customHeight="1"/>
-    <row r="429" ht="15.75" customHeight="1"/>
-    <row r="430" ht="15.75" customHeight="1"/>
-    <row r="431" ht="15.75" customHeight="1"/>
-    <row r="432" ht="15.75" customHeight="1"/>
-    <row r="433" ht="15.75" customHeight="1"/>
-    <row r="434" ht="15.75" customHeight="1"/>
-    <row r="435" ht="15.75" customHeight="1"/>
-    <row r="436" ht="15.75" customHeight="1"/>
-    <row r="437" ht="15.75" customHeight="1"/>
-    <row r="438" ht="15.75" customHeight="1"/>
-    <row r="439" ht="15.75" customHeight="1"/>
-    <row r="440" ht="15.75" customHeight="1"/>
-    <row r="441" ht="15.75" customHeight="1"/>
-    <row r="442" ht="15.75" customHeight="1"/>
-    <row r="443" ht="15.75" customHeight="1"/>
-    <row r="444" ht="15.75" customHeight="1"/>
-    <row r="445" ht="15.75" customHeight="1"/>
-    <row r="446" ht="15.75" customHeight="1"/>
-    <row r="447" ht="15.75" customHeight="1"/>
-    <row r="448" ht="15.75" customHeight="1"/>
-    <row r="449" ht="15.75" customHeight="1"/>
-    <row r="450" ht="15.75" customHeight="1"/>
-    <row r="451" ht="15.75" customHeight="1"/>
-    <row r="452" ht="15.75" customHeight="1"/>
-    <row r="453" ht="15.75" customHeight="1"/>
-    <row r="454" ht="15.75" customHeight="1"/>
-    <row r="455" ht="15.75" customHeight="1"/>
-    <row r="456" ht="15.75" customHeight="1"/>
-    <row r="457" ht="15.75" customHeight="1"/>
-    <row r="458" ht="15.75" customHeight="1"/>
-    <row r="459" ht="15.75" customHeight="1"/>
-    <row r="460" ht="15.75" customHeight="1"/>
-    <row r="461" ht="15.75" customHeight="1"/>
-    <row r="462" ht="15.75" customHeight="1"/>
-    <row r="463" ht="15.75" customHeight="1"/>
-    <row r="464" ht="15.75" customHeight="1"/>
-    <row r="465" ht="15.75" customHeight="1"/>
-    <row r="466" ht="15.75" customHeight="1"/>
-    <row r="467" ht="15.75" customHeight="1"/>
-    <row r="468" ht="15.75" customHeight="1"/>
-    <row r="469" ht="15.75" customHeight="1"/>
-    <row r="470" ht="15.75" customHeight="1"/>
-    <row r="471" ht="15.75" customHeight="1"/>
-    <row r="472" ht="15.75" customHeight="1"/>
-    <row r="473" ht="15.75" customHeight="1"/>
-    <row r="474" ht="15.75" customHeight="1"/>
-    <row r="475" ht="15.75" customHeight="1"/>
-    <row r="476" ht="15.75" customHeight="1"/>
-    <row r="477" ht="15.75" customHeight="1"/>
-    <row r="478" ht="15.75" customHeight="1"/>
-    <row r="479" ht="15.75" customHeight="1"/>
-    <row r="480" ht="15.75" customHeight="1"/>
-    <row r="481" ht="15.75" customHeight="1"/>
-    <row r="482" ht="15.75" customHeight="1"/>
-    <row r="483" ht="15.75" customHeight="1"/>
-    <row r="484" ht="15.75" customHeight="1"/>
-    <row r="485" ht="15.75" customHeight="1"/>
-    <row r="486" ht="15.75" customHeight="1"/>
-    <row r="487" ht="15.75" customHeight="1"/>
-    <row r="488" ht="15.75" customHeight="1"/>
-    <row r="489" ht="15.75" customHeight="1"/>
-    <row r="490" ht="15.75" customHeight="1"/>
-    <row r="491" ht="15.75" customHeight="1"/>
-    <row r="492" ht="15.75" customHeight="1"/>
-    <row r="493" ht="15.75" customHeight="1"/>
-    <row r="494" ht="15.75" customHeight="1"/>
-    <row r="495" ht="15.75" customHeight="1"/>
-    <row r="496" ht="15.75" customHeight="1"/>
-    <row r="497" ht="15.75" customHeight="1"/>
-    <row r="498" ht="15.75" customHeight="1"/>
-    <row r="499" ht="15.75" customHeight="1"/>
-    <row r="500" ht="15.75" customHeight="1"/>
-    <row r="501" ht="15.75" customHeight="1"/>
-    <row r="502" ht="15.75" customHeight="1"/>
-    <row r="503" ht="15.75" customHeight="1"/>
-    <row r="504" ht="15.75" customHeight="1"/>
-    <row r="505" ht="15.75" customHeight="1"/>
-    <row r="506" ht="15.75" customHeight="1"/>
-    <row r="507" ht="15.75" customHeight="1"/>
-    <row r="508" ht="15.75" customHeight="1"/>
-    <row r="509" ht="15.75" customHeight="1"/>
-    <row r="510" ht="15.75" customHeight="1"/>
-    <row r="511" ht="15.75" customHeight="1"/>
-    <row r="512" ht="15.75" customHeight="1"/>
-    <row r="513" ht="15.75" customHeight="1"/>
-    <row r="514" ht="15.75" customHeight="1"/>
-    <row r="515" ht="15.75" customHeight="1"/>
-    <row r="516" ht="15.75" customHeight="1"/>
-    <row r="517" ht="15.75" customHeight="1"/>
-    <row r="518" ht="15.75" customHeight="1"/>
-    <row r="519" ht="15.75" customHeight="1"/>
-    <row r="520" ht="15.75" customHeight="1"/>
-    <row r="521" ht="15.75" customHeight="1"/>
-    <row r="522" ht="15.75" customHeight="1"/>
-    <row r="523" ht="15.75" customHeight="1"/>
-    <row r="524" ht="15.75" customHeight="1"/>
-    <row r="525" ht="15.75" customHeight="1"/>
-    <row r="526" ht="15.75" customHeight="1"/>
-    <row r="527" ht="15.75" customHeight="1"/>
-    <row r="528" ht="15.75" customHeight="1"/>
-    <row r="529" ht="15.75" customHeight="1"/>
-    <row r="530" ht="15.75" customHeight="1"/>
-    <row r="531" ht="15.75" customHeight="1"/>
-    <row r="532" ht="15.75" customHeight="1"/>
-    <row r="533" ht="15.75" customHeight="1"/>
-    <row r="534" ht="15.75" customHeight="1"/>
-    <row r="535" ht="15.75" customHeight="1"/>
-    <row r="536" ht="15.75" customHeight="1"/>
-    <row r="537" ht="15.75" customHeight="1"/>
-    <row r="538" ht="15.75" customHeight="1"/>
-    <row r="539" ht="15.75" customHeight="1"/>
-    <row r="540" ht="15.75" customHeight="1"/>
-    <row r="541" ht="15.75" customHeight="1"/>
-    <row r="542" ht="15.75" customHeight="1"/>
-    <row r="543" ht="15.75" customHeight="1"/>
-    <row r="544" ht="15.75" customHeight="1"/>
-    <row r="545" ht="15.75" customHeight="1"/>
-    <row r="546" ht="15.75" customHeight="1"/>
-    <row r="547" ht="15.75" customHeight="1"/>
-    <row r="548" ht="15.75" customHeight="1"/>
-    <row r="549" ht="15.75" customHeight="1"/>
-    <row r="550" ht="15.75" customHeight="1"/>
-    <row r="551" ht="15.75" customHeight="1"/>
-    <row r="552" ht="15.75" customHeight="1"/>
-    <row r="553" ht="15.75" customHeight="1"/>
-    <row r="554" ht="15.75" customHeight="1"/>
-    <row r="555" ht="15.75" customHeight="1"/>
-    <row r="556" ht="15.75" customHeight="1"/>
-    <row r="557" ht="15.75" customHeight="1"/>
-    <row r="558" ht="15.75" customHeight="1"/>
-    <row r="559" ht="15.75" customHeight="1"/>
-    <row r="560" ht="15.75" customHeight="1"/>
-    <row r="561" ht="15.75" customHeight="1"/>
-    <row r="562" ht="15.75" customHeight="1"/>
-    <row r="563" ht="15.75" customHeight="1"/>
-    <row r="564" ht="15.75" customHeight="1"/>
-    <row r="565" ht="15.75" customHeight="1"/>
-    <row r="566" ht="15.75" customHeight="1"/>
-    <row r="567" ht="15.75" customHeight="1"/>
-    <row r="568" ht="15.75" customHeight="1"/>
-    <row r="569" ht="15.75" customHeight="1"/>
-    <row r="570" ht="15.75" customHeight="1"/>
-    <row r="571" ht="15.75" customHeight="1"/>
-    <row r="572" ht="15.75" customHeight="1"/>
-    <row r="573" ht="15.75" customHeight="1"/>
-    <row r="574" ht="15.75" customHeight="1"/>
-    <row r="575" ht="15.75" customHeight="1"/>
-    <row r="576" ht="15.75" customHeight="1"/>
-    <row r="577" ht="15.75" customHeight="1"/>
-    <row r="578" ht="15.75" customHeight="1"/>
-    <row r="579" ht="15.75" customHeight="1"/>
-    <row r="580" ht="15.75" customHeight="1"/>
-    <row r="581" ht="15.75" customHeight="1"/>
-    <row r="582" ht="15.75" customHeight="1"/>
-    <row r="583" ht="15.75" customHeight="1"/>
-    <row r="584" ht="15.75" customHeight="1"/>
-    <row r="585" ht="15.75" customHeight="1"/>
-    <row r="586" ht="15.75" customHeight="1"/>
-    <row r="587" ht="15.75" customHeight="1"/>
-    <row r="588" ht="15.75" customHeight="1"/>
-    <row r="589" ht="15.75" customHeight="1"/>
-    <row r="590" ht="15.75" customHeight="1"/>
-    <row r="591" ht="15.75" customHeight="1"/>
-    <row r="592" ht="15.75" customHeight="1"/>
-    <row r="593" ht="15.75" customHeight="1"/>
-    <row r="594" ht="15.75" customHeight="1"/>
-    <row r="595" ht="15.75" customHeight="1"/>
-    <row r="596" ht="15.75" customHeight="1"/>
-    <row r="597" ht="15.75" customHeight="1"/>
-    <row r="598" ht="15.75" customHeight="1"/>
-    <row r="599" ht="15.75" customHeight="1"/>
-    <row r="600" ht="15.75" customHeight="1"/>
-    <row r="601" ht="15.75" customHeight="1"/>
-    <row r="602" ht="15.75" customHeight="1"/>
-    <row r="603" ht="15.75" customHeight="1"/>
-    <row r="604" ht="15.75" customHeight="1"/>
-    <row r="605" ht="15.75" customHeight="1"/>
-    <row r="606" ht="15.75" customHeight="1"/>
-    <row r="607" ht="15.75" customHeight="1"/>
-    <row r="608" ht="15.75" customHeight="1"/>
-    <row r="609" ht="15.75" customHeight="1"/>
-    <row r="610" ht="15.75" customHeight="1"/>
-    <row r="611" ht="15.75" customHeight="1"/>
-    <row r="612" ht="15.75" customHeight="1"/>
-    <row r="613" ht="15.75" customHeight="1"/>
-    <row r="614" ht="15.75" customHeight="1"/>
-    <row r="615" ht="15.75" customHeight="1"/>
-    <row r="616" ht="15.75" customHeight="1"/>
-    <row r="617" ht="15.75" customHeight="1"/>
-    <row r="618" ht="15.75" customHeight="1"/>
-    <row r="619" ht="15.75" customHeight="1"/>
-    <row r="620" ht="15.75" customHeight="1"/>
-    <row r="621" ht="15.75" customHeight="1"/>
-    <row r="622" ht="15.75" customHeight="1"/>
-    <row r="623" ht="15.75" customHeight="1"/>
-    <row r="624" ht="15.75" customHeight="1"/>
-    <row r="625" ht="15.75" customHeight="1"/>
-    <row r="626" ht="15.75" customHeight="1"/>
-    <row r="627" ht="15.75" customHeight="1"/>
-    <row r="628" ht="15.75" customHeight="1"/>
-    <row r="629" ht="15.75" customHeight="1"/>
-    <row r="630" ht="15.75" customHeight="1"/>
-    <row r="631" ht="15.75" customHeight="1"/>
-    <row r="632" ht="15.75" customHeight="1"/>
-    <row r="633" ht="15.75" customHeight="1"/>
-    <row r="634" ht="15.75" customHeight="1"/>
-    <row r="635" ht="15.75" customHeight="1"/>
-    <row r="636" ht="15.75" customHeight="1"/>
-    <row r="637" ht="15.75" customHeight="1"/>
-    <row r="638" ht="15.75" customHeight="1"/>
-    <row r="639" ht="15.75" customHeight="1"/>
-    <row r="640" ht="15.75" customHeight="1"/>
-    <row r="641" ht="15.75" customHeight="1"/>
-    <row r="642" ht="15.75" customHeight="1"/>
-    <row r="643" ht="15.75" customHeight="1"/>
-    <row r="644" ht="15.75" customHeight="1"/>
-    <row r="645" ht="15.75" customHeight="1"/>
-    <row r="646" ht="15.75" customHeight="1"/>
-    <row r="647" ht="15.75" customHeight="1"/>
-    <row r="648" ht="15.75" customHeight="1"/>
-    <row r="649" ht="15.75" customHeight="1"/>
-    <row r="650" ht="15.75" customHeight="1"/>
-    <row r="651" ht="15.75" customHeight="1"/>
-    <row r="652" ht="15.75" customHeight="1"/>
-    <row r="653" ht="15.75" customHeight="1"/>
-    <row r="654" ht="15.75" customHeight="1"/>
-    <row r="655" ht="15.75" customHeight="1"/>
-    <row r="656" ht="15.75" customHeight="1"/>
-    <row r="657" ht="15.75" customHeight="1"/>
-    <row r="658" ht="15.75" customHeight="1"/>
-    <row r="659" ht="15.75" customHeight="1"/>
-    <row r="660" ht="15.75" customHeight="1"/>
-    <row r="661" ht="15.75" customHeight="1"/>
-    <row r="662" ht="15.75" customHeight="1"/>
-    <row r="663" ht="15.75" customHeight="1"/>
-    <row r="664" ht="15.75" customHeight="1"/>
-    <row r="665" ht="15.75" customHeight="1"/>
-    <row r="666" ht="15.75" customHeight="1"/>
-    <row r="667" ht="15.75" customHeight="1"/>
-    <row r="668" ht="15.75" customHeight="1"/>
-    <row r="669" ht="15.75" customHeight="1"/>
-    <row r="670" ht="15.75" customHeight="1"/>
-    <row r="671" ht="15.75" customHeight="1"/>
-    <row r="672" ht="15.75" customHeight="1"/>
-    <row r="673" ht="15.75" customHeight="1"/>
-    <row r="674" ht="15.75" customHeight="1"/>
-    <row r="675" ht="15.75" customHeight="1"/>
-    <row r="676" ht="15.75" customHeight="1"/>
-    <row r="677" ht="15.75" customHeight="1"/>
-    <row r="678" ht="15.75" customHeight="1"/>
-    <row r="679" ht="15.75" customHeight="1"/>
-    <row r="680" ht="15.75" customHeight="1"/>
-    <row r="681" ht="15.75" customHeight="1"/>
-    <row r="682" ht="15.75" customHeight="1"/>
-    <row r="683" ht="15.75" customHeight="1"/>
-    <row r="684" ht="15.75" customHeight="1"/>
-    <row r="685" ht="15.75" customHeight="1"/>
-    <row r="686" ht="15.75" customHeight="1"/>
-    <row r="687" ht="15.75" customHeight="1"/>
-    <row r="688" ht="15.75" customHeight="1"/>
-    <row r="689" ht="15.75" customHeight="1"/>
-    <row r="690" ht="15.75" customHeight="1"/>
-    <row r="691" ht="15.75" customHeight="1"/>
-    <row r="692" ht="15.75" customHeight="1"/>
-    <row r="693" ht="15.75" customHeight="1"/>
-    <row r="694" ht="15.75" customHeight="1"/>
-    <row r="695" ht="15.75" customHeight="1"/>
-    <row r="696" ht="15.75" customHeight="1"/>
-    <row r="697" ht="15.75" customHeight="1"/>
-    <row r="698" ht="15.75" customHeight="1"/>
-    <row r="699" ht="15.75" customHeight="1"/>
-    <row r="700" ht="15.75" customHeight="1"/>
-    <row r="701" ht="15.75" customHeight="1"/>
-    <row r="702" ht="15.75" customHeight="1"/>
-    <row r="703" ht="15.75" customHeight="1"/>
-    <row r="704" ht="15.75" customHeight="1"/>
-    <row r="705" ht="15.75" customHeight="1"/>
-    <row r="706" ht="15.75" customHeight="1"/>
-    <row r="707" ht="15.75" customHeight="1"/>
-    <row r="708" ht="15.75" customHeight="1"/>
-    <row r="709" ht="15.75" customHeight="1"/>
-    <row r="710" ht="15.75" customHeight="1"/>
-    <row r="711" ht="15.75" customHeight="1"/>
-    <row r="712" ht="15.75" customHeight="1"/>
-    <row r="713" ht="15.75" customHeight="1"/>
-    <row r="714" ht="15.75" customHeight="1"/>
-    <row r="715" ht="15.75" customHeight="1"/>
-    <row r="716" ht="15.75" customHeight="1"/>
-    <row r="717" ht="15.75" customHeight="1"/>
-    <row r="718" ht="15.75" customHeight="1"/>
-    <row r="719" ht="15.75" customHeight="1"/>
-    <row r="720" ht="15.75" customHeight="1"/>
-    <row r="721" ht="15.75" customHeight="1"/>
-    <row r="722" ht="15.75" customHeight="1"/>
-    <row r="723" ht="15.75" customHeight="1"/>
-    <row r="724" ht="15.75" customHeight="1"/>
-    <row r="725" ht="15.75" customHeight="1"/>
-    <row r="726" ht="15.75" customHeight="1"/>
-    <row r="727" ht="15.75" customHeight="1"/>
-    <row r="728" ht="15.75" customHeight="1"/>
-    <row r="729" ht="15.75" customHeight="1"/>
-    <row r="730" ht="15.75" customHeight="1"/>
-    <row r="731" ht="15.75" customHeight="1"/>
-    <row r="732" ht="15.75" customHeight="1"/>
-    <row r="733" ht="15.75" customHeight="1"/>
-    <row r="734" ht="15.75" customHeight="1"/>
-    <row r="735" ht="15.75" customHeight="1"/>
-    <row r="736" ht="15.75" customHeight="1"/>
-    <row r="737" ht="15.75" customHeight="1"/>
-    <row r="738" ht="15.75" customHeight="1"/>
-    <row r="739" ht="15.75" customHeight="1"/>
-    <row r="740" ht="15.75" customHeight="1"/>
-    <row r="741" ht="15.75" customHeight="1"/>
-    <row r="742" ht="15.75" customHeight="1"/>
-    <row r="743" ht="15.75" customHeight="1"/>
-    <row r="744" ht="15.75" customHeight="1"/>
-    <row r="745" ht="15.75" customHeight="1"/>
-    <row r="746" ht="15.75" customHeight="1"/>
-    <row r="747" ht="15.75" customHeight="1"/>
-    <row r="748" ht="15.75" customHeight="1"/>
-    <row r="749" ht="15.75" customHeight="1"/>
-    <row r="750" ht="15.75" customHeight="1"/>
-    <row r="751" ht="15.75" customHeight="1"/>
-    <row r="752" ht="15.75" customHeight="1"/>
-    <row r="753" ht="15.75" customHeight="1"/>
-    <row r="754" ht="15.75" customHeight="1"/>
-    <row r="755" ht="15.75" customHeight="1"/>
-    <row r="756" ht="15.75" customHeight="1"/>
-    <row r="757" ht="15.75" customHeight="1"/>
-    <row r="758" ht="15.75" customHeight="1"/>
-    <row r="759" ht="15.75" customHeight="1"/>
-    <row r="760" ht="15.75" customHeight="1"/>
-    <row r="761" ht="15.75" customHeight="1"/>
-    <row r="762" ht="15.75" customHeight="1"/>
-    <row r="763" ht="15.75" customHeight="1"/>
-    <row r="764" ht="15.75" customHeight="1"/>
-    <row r="765" ht="15.75" customHeight="1"/>
-    <row r="766" ht="15.75" customHeight="1"/>
-    <row r="767" ht="15.75" customHeight="1"/>
-    <row r="768" ht="15.75" customHeight="1"/>
-    <row r="769" ht="15.75" customHeight="1"/>
-    <row r="770" ht="15.75" customHeight="1"/>
-    <row r="771" ht="15.75" customHeight="1"/>
-    <row r="772" ht="15.75" customHeight="1"/>
-    <row r="773" ht="15.75" customHeight="1"/>
-    <row r="774" ht="15.75" customHeight="1"/>
-    <row r="775" ht="15.75" customHeight="1"/>
-    <row r="776" ht="15.75" customHeight="1"/>
-    <row r="777" ht="15.75" customHeight="1"/>
-    <row r="778" ht="15.75" customHeight="1"/>
-    <row r="779" ht="15.75" customHeight="1"/>
-    <row r="780" ht="15.75" customHeight="1"/>
-    <row r="781" ht="15.75" customHeight="1"/>
-    <row r="782" ht="15.75" customHeight="1"/>
-    <row r="783" ht="15.75" customHeight="1"/>
-    <row r="784" ht="15.75" customHeight="1"/>
-    <row r="785" ht="15.75" customHeight="1"/>
-    <row r="786" ht="15.75" customHeight="1"/>
-    <row r="787" ht="15.75" customHeight="1"/>
-    <row r="788" ht="15.75" customHeight="1"/>
-    <row r="789" ht="15.75" customHeight="1"/>
-    <row r="790" ht="15.75" customHeight="1"/>
-    <row r="791" ht="15.75" customHeight="1"/>
-    <row r="792" ht="15.75" customHeight="1"/>
-    <row r="793" ht="15.75" customHeight="1"/>
-    <row r="794" ht="15.75" customHeight="1"/>
-    <row r="795" ht="15.75" customHeight="1"/>
-    <row r="796" ht="15.75" customHeight="1"/>
-    <row r="797" ht="15.75" customHeight="1"/>
-    <row r="798" ht="15.75" customHeight="1"/>
-    <row r="799" ht="15.75" customHeight="1"/>
-    <row r="800" ht="15.75" customHeight="1"/>
-    <row r="801" ht="15.75" customHeight="1"/>
-    <row r="802" ht="15.75" customHeight="1"/>
-    <row r="803" ht="15.75" customHeight="1"/>
-    <row r="804" ht="15.75" customHeight="1"/>
-    <row r="805" ht="15.75" customHeight="1"/>
-    <row r="806" ht="15.75" customHeight="1"/>
-    <row r="807" ht="15.75" customHeight="1"/>
-    <row r="808" ht="15.75" customHeight="1"/>
-    <row r="809" ht="15.75" customHeight="1"/>
-    <row r="810" ht="15.75" customHeight="1"/>
-    <row r="811" ht="15.75" customHeight="1"/>
-    <row r="812" ht="15.75" customHeight="1"/>
-    <row r="813" ht="15.75" customHeight="1"/>
-    <row r="814" ht="15.75" customHeight="1"/>
-    <row r="815" ht="15.75" customHeight="1"/>
-    <row r="816" ht="15.75" customHeight="1"/>
-    <row r="817" ht="15.75" customHeight="1"/>
-    <row r="818" ht="15.75" customHeight="1"/>
-    <row r="819" ht="15.75" customHeight="1"/>
-    <row r="820" ht="15.75" customHeight="1"/>
-    <row r="821" ht="15.75" customHeight="1"/>
-    <row r="822" ht="15.75" customHeight="1"/>
-    <row r="823" ht="15.75" customHeight="1"/>
-    <row r="824" ht="15.75" customHeight="1"/>
-    <row r="825" ht="15.75" customHeight="1"/>
-    <row r="826" ht="15.75" customHeight="1"/>
-    <row r="827" ht="15.75" customHeight="1"/>
-    <row r="828" ht="15.75" customHeight="1"/>
-    <row r="829" ht="15.75" customHeight="1"/>
-    <row r="830" ht="15.75" customHeight="1"/>
-    <row r="831" ht="15.75" customHeight="1"/>
-    <row r="832" ht="15.75" customHeight="1"/>
-    <row r="833" ht="15.75" customHeight="1"/>
-    <row r="834" ht="15.75" customHeight="1"/>
-    <row r="835" ht="15.75" customHeight="1"/>
-    <row r="836" ht="15.75" customHeight="1"/>
-    <row r="837" ht="15.75" customHeight="1"/>
-    <row r="838" ht="15.75" customHeight="1"/>
-    <row r="839" ht="15.75" customHeight="1"/>
-    <row r="840" ht="15.75" customHeight="1"/>
-    <row r="841" ht="15.75" customHeight="1"/>
-    <row r="842" ht="15.75" customHeight="1"/>
-    <row r="843" ht="15.75" customHeight="1"/>
-    <row r="844" ht="15.75" customHeight="1"/>
-    <row r="845" ht="15.75" customHeight="1"/>
-    <row r="846" ht="15.75" customHeight="1"/>
-    <row r="847" ht="15.75" customHeight="1"/>
-    <row r="848" ht="15.75" customHeight="1"/>
-    <row r="849" ht="15.75" customHeight="1"/>
-    <row r="850" ht="15.75" customHeight="1"/>
-    <row r="851" ht="15.75" customHeight="1"/>
-    <row r="852" ht="15.75" customHeight="1"/>
-    <row r="853" ht="15.75" customHeight="1"/>
-    <row r="854" ht="15.75" customHeight="1"/>
-    <row r="855" ht="15.75" customHeight="1"/>
-    <row r="856" ht="15.75" customHeight="1"/>
-    <row r="857" ht="15.75" customHeight="1"/>
-    <row r="858" ht="15.75" customHeight="1"/>
-    <row r="859" ht="15.75" customHeight="1"/>
-    <row r="860" ht="15.75" customHeight="1"/>
-    <row r="861" ht="15.75" customHeight="1"/>
-    <row r="862" ht="15.75" customHeight="1"/>
-    <row r="863" ht="15.75" customHeight="1"/>
-    <row r="864" ht="15.75" customHeight="1"/>
-    <row r="865" ht="15.75" customHeight="1"/>
-    <row r="866" ht="15.75" customHeight="1"/>
-    <row r="867" ht="15.75" customHeight="1"/>
-    <row r="868" ht="15.75" customHeight="1"/>
-    <row r="869" ht="15.75" customHeight="1"/>
-    <row r="870" ht="15.75" customHeight="1"/>
-    <row r="871" ht="15.75" customHeight="1"/>
-    <row r="872" ht="15.75" customHeight="1"/>
-    <row r="873" ht="15.75" customHeight="1"/>
-    <row r="874" ht="15.75" customHeight="1"/>
-    <row r="875" ht="15.75" customHeight="1"/>
-    <row r="876" ht="15.75" customHeight="1"/>
-    <row r="877" ht="15.75" customHeight="1"/>
-    <row r="878" ht="15.75" customHeight="1"/>
-    <row r="879" ht="15.75" customHeight="1"/>
-    <row r="880" ht="15.75" customHeight="1"/>
-    <row r="881" ht="15.75" customHeight="1"/>
-    <row r="882" ht="15.75" customHeight="1"/>
-    <row r="883" ht="15.75" customHeight="1"/>
-    <row r="884" ht="15.75" customHeight="1"/>
-    <row r="885" ht="15.75" customHeight="1"/>
-    <row r="886" ht="15.75" customHeight="1"/>
-    <row r="887" ht="15.75" customHeight="1"/>
-    <row r="888" ht="15.75" customHeight="1"/>
-    <row r="889" ht="15.75" customHeight="1"/>
-    <row r="890" ht="15.75" customHeight="1"/>
-    <row r="891" ht="15.75" customHeight="1"/>
-    <row r="892" ht="15.75" customHeight="1"/>
-    <row r="893" ht="15.75" customHeight="1"/>
-    <row r="894" ht="15.75" customHeight="1"/>
-    <row r="895" ht="15.75" customHeight="1"/>
-    <row r="896" ht="15.75" customHeight="1"/>
-    <row r="897" ht="15.75" customHeight="1"/>
-    <row r="898" ht="15.75" customHeight="1"/>
-    <row r="899" ht="15.75" customHeight="1"/>
-    <row r="900" ht="15.75" customHeight="1"/>
-    <row r="901" ht="15.75" customHeight="1"/>
-    <row r="902" ht="15.75" customHeight="1"/>
-    <row r="903" ht="15.75" customHeight="1"/>
-    <row r="904" ht="15.75" customHeight="1"/>
-    <row r="905" ht="15.75" customHeight="1"/>
-    <row r="906" ht="15.75" customHeight="1"/>
-    <row r="907" ht="15.75" customHeight="1"/>
-    <row r="908" ht="15.75" customHeight="1"/>
-    <row r="909" ht="15.75" customHeight="1"/>
-    <row r="910" ht="15.75" customHeight="1"/>
-    <row r="911" ht="15.75" customHeight="1"/>
-    <row r="912" ht="15.75" customHeight="1"/>
-    <row r="913" ht="15.75" customHeight="1"/>
-    <row r="914" ht="15.75" customHeight="1"/>
-    <row r="915" ht="15.75" customHeight="1"/>
-    <row r="916" ht="15.75" customHeight="1"/>
-    <row r="917" ht="15.75" customHeight="1"/>
-    <row r="918" ht="15.75" customHeight="1"/>
-    <row r="919" ht="15.75" customHeight="1"/>
-    <row r="920" ht="15.75" customHeight="1"/>
-    <row r="921" ht="15.75" customHeight="1"/>
-    <row r="922" ht="15.75" customHeight="1"/>
-    <row r="923" ht="15.75" customHeight="1"/>
-    <row r="924" ht="15.75" customHeight="1"/>
-    <row r="925" ht="15.75" customHeight="1"/>
-    <row r="926" ht="15.75" customHeight="1"/>
-    <row r="927" ht="15.75" customHeight="1"/>
-    <row r="928" ht="15.75" customHeight="1"/>
-    <row r="929" ht="15.75" customHeight="1"/>
-    <row r="930" ht="15.75" customHeight="1"/>
-    <row r="931" ht="15.75" customHeight="1"/>
-    <row r="932" ht="15.75" customHeight="1"/>
-    <row r="933" ht="15.75" customHeight="1"/>
-    <row r="934" ht="15.75" customHeight="1"/>
-    <row r="935" ht="15.75" customHeight="1"/>
-    <row r="936" ht="15.75" customHeight="1"/>
-    <row r="937" ht="15.75" customHeight="1"/>
-    <row r="938" ht="15.75" customHeight="1"/>
-    <row r="939" ht="15.75" customHeight="1"/>
-    <row r="940" ht="15.75" customHeight="1"/>
-    <row r="941" ht="15.75" customHeight="1"/>
-    <row r="942" ht="15.75" customHeight="1"/>
-    <row r="943" ht="15.75" customHeight="1"/>
-    <row r="944" ht="15.75" customHeight="1"/>
-    <row r="945" ht="15.75" customHeight="1"/>
-    <row r="946" ht="15.75" customHeight="1"/>
-    <row r="947" ht="15.75" customHeight="1"/>
-    <row r="948" ht="15.75" customHeight="1"/>
-    <row r="949" ht="15.75" customHeight="1"/>
-    <row r="950" ht="15.75" customHeight="1"/>
-    <row r="951" ht="15.75" customHeight="1"/>
-    <row r="952" ht="15.75" customHeight="1"/>
-    <row r="953" ht="15.75" customHeight="1"/>
-    <row r="954" ht="15.75" customHeight="1"/>
-    <row r="955" ht="15.75" customHeight="1"/>
-    <row r="956" ht="15.75" customHeight="1"/>
-    <row r="957" ht="15.75" customHeight="1"/>
-    <row r="958" ht="15.75" customHeight="1"/>
-    <row r="959" ht="15.75" customHeight="1"/>
-    <row r="960" ht="15.75" customHeight="1"/>
-    <row r="961" ht="15.75" customHeight="1"/>
-    <row r="962" ht="15.75" customHeight="1"/>
-    <row r="963" ht="15.75" customHeight="1"/>
-    <row r="964" ht="15.75" customHeight="1"/>
-    <row r="965" ht="15.75" customHeight="1"/>
-    <row r="966" ht="15.75" customHeight="1"/>
-    <row r="967" ht="15.75" customHeight="1"/>
-    <row r="968" ht="15.75" customHeight="1"/>
-    <row r="969" ht="15.75" customHeight="1"/>
-    <row r="970" ht="15.75" customHeight="1"/>
-    <row r="971" ht="15.75" customHeight="1"/>
-    <row r="972" ht="15.75" customHeight="1"/>
-    <row r="973" ht="15.75" customHeight="1"/>
-    <row r="974" ht="15.75" customHeight="1"/>
-    <row r="975" ht="15.75" customHeight="1"/>
-    <row r="976" ht="15.75" customHeight="1"/>
-    <row r="977" ht="15.75" customHeight="1"/>
-    <row r="978" ht="15.75" customHeight="1"/>
-    <row r="979" ht="15.75" customHeight="1"/>
-    <row r="980" ht="15.75" customHeight="1"/>
-    <row r="981" ht="15.75" customHeight="1"/>
-    <row r="982" ht="15.75" customHeight="1"/>
-    <row r="983" ht="15.75" customHeight="1"/>
-    <row r="984" ht="15.75" customHeight="1"/>
-    <row r="985" ht="15.75" customHeight="1"/>
-    <row r="986" ht="15.75" customHeight="1"/>
-    <row r="987" ht="15.75" customHeight="1"/>
-    <row r="988" ht="15.75" customHeight="1"/>
-    <row r="989" ht="15.75" customHeight="1"/>
-    <row r="990" ht="15.75" customHeight="1"/>
-    <row r="991" ht="15.75" customHeight="1"/>
+    <row r="120" ht="15.75" customHeight="1">
+      <c r="I120" s="1"/>
+    </row>
+    <row r="121" ht="15.75" customHeight="1">
+      <c r="I121" s="1"/>
+    </row>
+    <row r="122" ht="15.75" customHeight="1">
+      <c r="I122" s="1"/>
+    </row>
+    <row r="123" ht="15.75" customHeight="1">
+      <c r="I123" s="1"/>
+    </row>
+    <row r="124" ht="15.75" customHeight="1">
+      <c r="I124" s="1"/>
+    </row>
+    <row r="125" ht="15.75" customHeight="1">
+      <c r="I125" s="1"/>
+    </row>
+    <row r="126" ht="15.75" customHeight="1">
+      <c r="I126" s="1"/>
+    </row>
+    <row r="127" ht="15.75" customHeight="1">
+      <c r="I127" s="1"/>
+    </row>
+    <row r="128" ht="15.75" customHeight="1">
+      <c r="I128" s="1"/>
+    </row>
+    <row r="129" ht="15.75" customHeight="1">
+      <c r="I129" s="1"/>
+    </row>
+    <row r="130" ht="15.75" customHeight="1">
+      <c r="I130" s="1"/>
+    </row>
+    <row r="131" ht="15.75" customHeight="1">
+      <c r="I131" s="1"/>
+    </row>
+    <row r="132" ht="15.75" customHeight="1">
+      <c r="I132" s="1"/>
+    </row>
+    <row r="133" ht="15.75" customHeight="1">
+      <c r="I133" s="1"/>
+    </row>
+    <row r="134" ht="15.75" customHeight="1">
+      <c r="I134" s="1"/>
+    </row>
+    <row r="135" ht="15.75" customHeight="1">
+      <c r="I135" s="1"/>
+    </row>
+    <row r="136" ht="15.75" customHeight="1">
+      <c r="I136" s="1"/>
+    </row>
+    <row r="137" ht="15.75" customHeight="1">
+      <c r="I137" s="1"/>
+    </row>
+    <row r="138" ht="15.75" customHeight="1">
+      <c r="I138" s="1"/>
+    </row>
+    <row r="139" ht="15.75" customHeight="1">
+      <c r="I139" s="1"/>
+    </row>
+    <row r="140" ht="15.75" customHeight="1">
+      <c r="I140" s="1"/>
+    </row>
+    <row r="141" ht="15.75" customHeight="1">
+      <c r="I141" s="1"/>
+    </row>
+    <row r="142" ht="15.75" customHeight="1">
+      <c r="I142" s="1"/>
+    </row>
+    <row r="143" ht="15.75" customHeight="1">
+      <c r="I143" s="1"/>
+    </row>
+    <row r="144" ht="15.75" customHeight="1">
+      <c r="I144" s="1"/>
+    </row>
+    <row r="145" ht="15.75" customHeight="1">
+      <c r="I145" s="1"/>
+    </row>
+    <row r="146" ht="15.75" customHeight="1">
+      <c r="I146" s="1"/>
+    </row>
+    <row r="147" ht="15.75" customHeight="1">
+      <c r="I147" s="1"/>
+    </row>
+    <row r="148" ht="15.75" customHeight="1">
+      <c r="I148" s="1"/>
+    </row>
+    <row r="149" ht="15.75" customHeight="1">
+      <c r="I149" s="1"/>
+    </row>
+    <row r="150" ht="15.75" customHeight="1">
+      <c r="I150" s="1"/>
+    </row>
+    <row r="151" ht="15.75" customHeight="1">
+      <c r="I151" s="1"/>
+    </row>
+    <row r="152" ht="15.75" customHeight="1">
+      <c r="I152" s="1"/>
+    </row>
+    <row r="153" ht="15.75" customHeight="1">
+      <c r="I153" s="1"/>
+    </row>
+    <row r="154" ht="15.75" customHeight="1">
+      <c r="I154" s="1"/>
+    </row>
+    <row r="155" ht="15.75" customHeight="1">
+      <c r="I155" s="1"/>
+    </row>
+    <row r="156" ht="15.75" customHeight="1">
+      <c r="I156" s="1"/>
+    </row>
+    <row r="157" ht="15.75" customHeight="1">
+      <c r="I157" s="1"/>
+    </row>
+    <row r="158" ht="15.75" customHeight="1">
+      <c r="I158" s="1"/>
+    </row>
+    <row r="159" ht="15.75" customHeight="1">
+      <c r="I159" s="1"/>
+    </row>
+    <row r="160" ht="15.75" customHeight="1">
+      <c r="I160" s="1"/>
+    </row>
+    <row r="161" ht="15.75" customHeight="1">
+      <c r="I161" s="1"/>
+    </row>
+    <row r="162" ht="15.75" customHeight="1">
+      <c r="I162" s="1"/>
+    </row>
+    <row r="163" ht="15.75" customHeight="1">
+      <c r="I163" s="1"/>
+    </row>
+    <row r="164" ht="15.75" customHeight="1">
+      <c r="I164" s="1"/>
+    </row>
+    <row r="165" ht="15.75" customHeight="1">
+      <c r="I165" s="1"/>
+    </row>
+    <row r="166" ht="15.75" customHeight="1">
+      <c r="I166" s="1"/>
+    </row>
+    <row r="167" ht="15.75" customHeight="1">
+      <c r="I167" s="1"/>
+    </row>
+    <row r="168" ht="15.75" customHeight="1">
+      <c r="I168" s="1"/>
+    </row>
+    <row r="169" ht="15.75" customHeight="1">
+      <c r="I169" s="1"/>
+    </row>
+    <row r="170" ht="15.75" customHeight="1">
+      <c r="I170" s="1"/>
+    </row>
+    <row r="171" ht="15.75" customHeight="1">
+      <c r="I171" s="1"/>
+    </row>
+    <row r="172" ht="15.75" customHeight="1">
+      <c r="I172" s="1"/>
+    </row>
+    <row r="173" ht="15.75" customHeight="1">
+      <c r="I173" s="1"/>
+    </row>
+    <row r="174" ht="15.75" customHeight="1">
+      <c r="I174" s="1"/>
+    </row>
+    <row r="175" ht="15.75" customHeight="1">
+      <c r="I175" s="1"/>
+    </row>
+    <row r="176" ht="15.75" customHeight="1">
+      <c r="I176" s="1"/>
+    </row>
+    <row r="177" ht="15.75" customHeight="1">
+      <c r="I177" s="1"/>
+    </row>
+    <row r="178" ht="15.75" customHeight="1">
+      <c r="I178" s="1"/>
+    </row>
+    <row r="179" ht="15.75" customHeight="1">
+      <c r="I179" s="1"/>
+    </row>
+    <row r="180" ht="15.75" customHeight="1">
+      <c r="I180" s="1"/>
+    </row>
+    <row r="181" ht="15.75" customHeight="1">
+      <c r="I181" s="1"/>
+    </row>
+    <row r="182" ht="15.75" customHeight="1">
+      <c r="I182" s="1"/>
+    </row>
+    <row r="183" ht="15.75" customHeight="1">
+      <c r="I183" s="1"/>
+    </row>
+    <row r="184" ht="15.75" customHeight="1">
+      <c r="I184" s="1"/>
+    </row>
+    <row r="185" ht="15.75" customHeight="1">
+      <c r="I185" s="1"/>
+    </row>
+    <row r="186" ht="15.75" customHeight="1">
+      <c r="I186" s="1"/>
+    </row>
+    <row r="187" ht="15.75" customHeight="1">
+      <c r="I187" s="1"/>
+    </row>
+    <row r="188" ht="15.75" customHeight="1">
+      <c r="I188" s="1"/>
+    </row>
+    <row r="189" ht="15.75" customHeight="1">
+      <c r="I189" s="1"/>
+    </row>
+    <row r="190" ht="15.75" customHeight="1">
+      <c r="I190" s="1"/>
+    </row>
+    <row r="191" ht="15.75" customHeight="1">
+      <c r="I191" s="1"/>
+    </row>
+    <row r="192" ht="15.75" customHeight="1">
+      <c r="I192" s="1"/>
+    </row>
+    <row r="193" ht="15.75" customHeight="1">
+      <c r="I193" s="1"/>
+    </row>
+    <row r="194" ht="15.75" customHeight="1">
+      <c r="I194" s="1"/>
+    </row>
+    <row r="195" ht="15.75" customHeight="1">
+      <c r="I195" s="1"/>
+    </row>
+    <row r="196" ht="15.75" customHeight="1">
+      <c r="I196" s="1"/>
+    </row>
+    <row r="197" ht="15.75" customHeight="1">
+      <c r="I197" s="1"/>
+    </row>
+    <row r="198" ht="15.75" customHeight="1">
+      <c r="I198" s="1"/>
+    </row>
+    <row r="199" ht="15.75" customHeight="1">
+      <c r="I199" s="1"/>
+    </row>
+    <row r="200" ht="15.75" customHeight="1">
+      <c r="I200" s="1"/>
+    </row>
+    <row r="201" ht="15.75" customHeight="1">
+      <c r="I201" s="1"/>
+    </row>
+    <row r="202" ht="15.75" customHeight="1">
+      <c r="I202" s="1"/>
+    </row>
+    <row r="203" ht="15.75" customHeight="1">
+      <c r="I203" s="1"/>
+    </row>
+    <row r="204" ht="15.75" customHeight="1">
+      <c r="I204" s="1"/>
+    </row>
+    <row r="205" ht="15.75" customHeight="1">
+      <c r="I205" s="1"/>
+    </row>
+    <row r="206" ht="15.75" customHeight="1">
+      <c r="I206" s="1"/>
+    </row>
+    <row r="207" ht="15.75" customHeight="1">
+      <c r="I207" s="1"/>
+    </row>
+    <row r="208" ht="15.75" customHeight="1">
+      <c r="I208" s="1"/>
+    </row>
+    <row r="209" ht="15.75" customHeight="1">
+      <c r="I209" s="1"/>
+    </row>
+    <row r="210" ht="15.75" customHeight="1">
+      <c r="I210" s="1"/>
+    </row>
+    <row r="211" ht="15.75" customHeight="1">
+      <c r="I211" s="1"/>
+    </row>
+    <row r="212" ht="15.75" customHeight="1">
+      <c r="I212" s="1"/>
+    </row>
+    <row r="213" ht="15.75" customHeight="1">
+      <c r="I213" s="1"/>
+    </row>
+    <row r="214" ht="15.75" customHeight="1">
+      <c r="I214" s="1"/>
+    </row>
+    <row r="215" ht="15.75" customHeight="1">
+      <c r="I215" s="1"/>
+    </row>
+    <row r="216" ht="15.75" customHeight="1">
+      <c r="I216" s="1"/>
+    </row>
+    <row r="217" ht="15.75" customHeight="1">
+      <c r="I217" s="1"/>
+    </row>
+    <row r="218" ht="15.75" customHeight="1">
+      <c r="I218" s="1"/>
+    </row>
+    <row r="219" ht="15.75" customHeight="1">
+      <c r="I219" s="1"/>
+    </row>
+    <row r="220" ht="15.75" customHeight="1">
+      <c r="I220" s="1"/>
+    </row>
+    <row r="221" ht="15.75" customHeight="1">
+      <c r="I221" s="1"/>
+    </row>
+    <row r="222" ht="15.75" customHeight="1">
+      <c r="I222" s="1"/>
+    </row>
+    <row r="223" ht="15.75" customHeight="1">
+      <c r="I223" s="1"/>
+    </row>
+    <row r="224" ht="15.75" customHeight="1">
+      <c r="I224" s="1"/>
+    </row>
+    <row r="225" ht="15.75" customHeight="1">
+      <c r="I225" s="1"/>
+    </row>
+    <row r="226" ht="15.75" customHeight="1">
+      <c r="I226" s="1"/>
+    </row>
+    <row r="227" ht="15.75" customHeight="1">
+      <c r="I227" s="1"/>
+    </row>
+    <row r="228" ht="15.75" customHeight="1">
+      <c r="I228" s="1"/>
+    </row>
+    <row r="229" ht="15.75" customHeight="1">
+      <c r="I229" s="1"/>
+    </row>
+    <row r="230" ht="15.75" customHeight="1">
+      <c r="I230" s="1"/>
+    </row>
+    <row r="231" ht="15.75" customHeight="1">
+      <c r="I231" s="1"/>
+    </row>
+    <row r="232" ht="15.75" customHeight="1">
+      <c r="I232" s="1"/>
+    </row>
+    <row r="233" ht="15.75" customHeight="1">
+      <c r="I233" s="1"/>
+    </row>
+    <row r="234" ht="15.75" customHeight="1">
+      <c r="I234" s="1"/>
+    </row>
+    <row r="235" ht="15.75" customHeight="1">
+      <c r="I235" s="1"/>
+    </row>
+    <row r="236" ht="15.75" customHeight="1">
+      <c r="I236" s="1"/>
+    </row>
+    <row r="237" ht="15.75" customHeight="1">
+      <c r="I237" s="1"/>
+    </row>
+    <row r="238" ht="15.75" customHeight="1">
+      <c r="I238" s="1"/>
+    </row>
+    <row r="239" ht="15.75" customHeight="1">
+      <c r="I239" s="1"/>
+    </row>
+    <row r="240" ht="15.75" customHeight="1">
+      <c r="I240" s="1"/>
+    </row>
+    <row r="241" ht="15.75" customHeight="1">
+      <c r="I241" s="1"/>
+    </row>
+    <row r="242" ht="15.75" customHeight="1">
+      <c r="I242" s="1"/>
+    </row>
+    <row r="243" ht="15.75" customHeight="1">
+      <c r="I243" s="1"/>
+    </row>
+    <row r="244" ht="15.75" customHeight="1">
+      <c r="I244" s="1"/>
+    </row>
+    <row r="245" ht="15.75" customHeight="1">
+      <c r="I245" s="1"/>
+    </row>
+    <row r="246" ht="15.75" customHeight="1">
+      <c r="I246" s="1"/>
+    </row>
+    <row r="247" ht="15.75" customHeight="1">
+      <c r="I247" s="1"/>
+    </row>
+    <row r="248" ht="15.75" customHeight="1">
+      <c r="I248" s="1"/>
+    </row>
+    <row r="249" ht="15.75" customHeight="1">
+      <c r="I249" s="1"/>
+    </row>
+    <row r="250" ht="15.75" customHeight="1">
+      <c r="I250" s="1"/>
+    </row>
+    <row r="251" ht="15.75" customHeight="1">
+      <c r="I251" s="1"/>
+    </row>
+    <row r="252" ht="15.75" customHeight="1">
+      <c r="I252" s="1"/>
+    </row>
+    <row r="253" ht="15.75" customHeight="1">
+      <c r="I253" s="1"/>
+    </row>
+    <row r="254" ht="15.75" customHeight="1">
+      <c r="I254" s="1"/>
+    </row>
+    <row r="255" ht="15.75" customHeight="1">
+      <c r="I255" s="1"/>
+    </row>
+    <row r="256" ht="15.75" customHeight="1">
+      <c r="I256" s="1"/>
+    </row>
+    <row r="257" ht="15.75" customHeight="1">
+      <c r="I257" s="1"/>
+    </row>
+    <row r="258" ht="15.75" customHeight="1">
+      <c r="I258" s="1"/>
+    </row>
+    <row r="259" ht="15.75" customHeight="1">
+      <c r="I259" s="1"/>
+    </row>
+    <row r="260" ht="15.75" customHeight="1">
+      <c r="I260" s="1"/>
+    </row>
+    <row r="261" ht="15.75" customHeight="1">
+      <c r="I261" s="1"/>
+    </row>
+    <row r="262" ht="15.75" customHeight="1">
+      <c r="I262" s="1"/>
+    </row>
+    <row r="263" ht="15.75" customHeight="1">
+      <c r="I263" s="1"/>
+    </row>
+    <row r="264" ht="15.75" customHeight="1">
+      <c r="I264" s="1"/>
+    </row>
+    <row r="265" ht="15.75" customHeight="1">
+      <c r="I265" s="1"/>
+    </row>
+    <row r="266" ht="15.75" customHeight="1">
+      <c r="I266" s="1"/>
+    </row>
+    <row r="267" ht="15.75" customHeight="1">
+      <c r="I267" s="1"/>
+    </row>
+    <row r="268" ht="15.75" customHeight="1">
+      <c r="I268" s="1"/>
+    </row>
+    <row r="269" ht="15.75" customHeight="1">
+      <c r="I269" s="1"/>
+    </row>
+    <row r="270" ht="15.75" customHeight="1">
+      <c r="I270" s="1"/>
+    </row>
+    <row r="271" ht="15.75" customHeight="1">
+      <c r="I271" s="1"/>
+    </row>
+    <row r="272" ht="15.75" customHeight="1">
+      <c r="I272" s="1"/>
+    </row>
+    <row r="273" ht="15.75" customHeight="1">
+      <c r="I273" s="1"/>
+    </row>
+    <row r="274" ht="15.75" customHeight="1">
+      <c r="I274" s="1"/>
+    </row>
+    <row r="275" ht="15.75" customHeight="1">
+      <c r="I275" s="1"/>
+    </row>
+    <row r="276" ht="15.75" customHeight="1">
+      <c r="I276" s="1"/>
+    </row>
+    <row r="277" ht="15.75" customHeight="1">
+      <c r="I277" s="1"/>
+    </row>
+    <row r="278" ht="15.75" customHeight="1">
+      <c r="I278" s="1"/>
+    </row>
+    <row r="279" ht="15.75" customHeight="1">
+      <c r="I279" s="1"/>
+    </row>
+    <row r="280" ht="15.75" customHeight="1">
+      <c r="I280" s="1"/>
+    </row>
+    <row r="281" ht="15.75" customHeight="1">
+      <c r="I281" s="1"/>
+    </row>
+    <row r="282" ht="15.75" customHeight="1">
+      <c r="I282" s="1"/>
+    </row>
+    <row r="283" ht="15.75" customHeight="1">
+      <c r="I283" s="1"/>
+    </row>
+    <row r="284" ht="15.75" customHeight="1">
+      <c r="I284" s="1"/>
+    </row>
+    <row r="285" ht="15.75" customHeight="1">
+      <c r="I285" s="1"/>
+    </row>
+    <row r="286" ht="15.75" customHeight="1">
+      <c r="I286" s="1"/>
+    </row>
+    <row r="287" ht="15.75" customHeight="1">
+      <c r="I287" s="1"/>
+    </row>
+    <row r="288" ht="15.75" customHeight="1">
+      <c r="I288" s="1"/>
+    </row>
+    <row r="289" ht="15.75" customHeight="1">
+      <c r="I289" s="1"/>
+    </row>
+    <row r="290" ht="15.75" customHeight="1">
+      <c r="I290" s="1"/>
+    </row>
+    <row r="291" ht="15.75" customHeight="1">
+      <c r="I291" s="1"/>
+    </row>
+    <row r="292" ht="15.75" customHeight="1">
+      <c r="I292" s="1"/>
+    </row>
+    <row r="293" ht="15.75" customHeight="1">
+      <c r="I293" s="1"/>
+    </row>
+    <row r="294" ht="15.75" customHeight="1">
+      <c r="I294" s="1"/>
+    </row>
+    <row r="295" ht="15.75" customHeight="1">
+      <c r="I295" s="1"/>
+    </row>
+    <row r="296" ht="15.75" customHeight="1">
+      <c r="I296" s="1"/>
+    </row>
+    <row r="297" ht="15.75" customHeight="1">
+      <c r="I297" s="1"/>
+    </row>
+    <row r="298" ht="15.75" customHeight="1">
+      <c r="I298" s="1"/>
+    </row>
+    <row r="299" ht="15.75" customHeight="1">
+      <c r="I299" s="1"/>
+    </row>
+    <row r="300" ht="15.75" customHeight="1">
+      <c r="I300" s="1"/>
+    </row>
+    <row r="301" ht="15.75" customHeight="1">
+      <c r="I301" s="1"/>
+    </row>
+    <row r="302" ht="15.75" customHeight="1">
+      <c r="I302" s="1"/>
+    </row>
+    <row r="303" ht="15.75" customHeight="1">
+      <c r="I303" s="1"/>
+    </row>
+    <row r="304" ht="15.75" customHeight="1">
+      <c r="I304" s="1"/>
+    </row>
+    <row r="305" ht="15.75" customHeight="1">
+      <c r="I305" s="1"/>
+    </row>
+    <row r="306" ht="15.75" customHeight="1">
+      <c r="I306" s="1"/>
+    </row>
+    <row r="307" ht="15.75" customHeight="1">
+      <c r="I307" s="1"/>
+    </row>
+    <row r="308" ht="15.75" customHeight="1">
+      <c r="I308" s="1"/>
+    </row>
+    <row r="309" ht="15.75" customHeight="1">
+      <c r="I309" s="1"/>
+    </row>
+    <row r="310" ht="15.75" customHeight="1">
+      <c r="I310" s="1"/>
+    </row>
+    <row r="311" ht="15.75" customHeight="1">
+      <c r="I311" s="1"/>
+    </row>
+    <row r="312" ht="15.75" customHeight="1">
+      <c r="I312" s="1"/>
+    </row>
+    <row r="313" ht="15.75" customHeight="1">
+      <c r="I313" s="1"/>
+    </row>
+    <row r="314" ht="15.75" customHeight="1">
+      <c r="I314" s="1"/>
+    </row>
+    <row r="315" ht="15.75" customHeight="1">
+      <c r="I315" s="1"/>
+    </row>
+    <row r="316" ht="15.75" customHeight="1">
+      <c r="I316" s="1"/>
+    </row>
+    <row r="317" ht="15.75" customHeight="1">
+      <c r="I317" s="1"/>
+    </row>
+    <row r="318" ht="15.75" customHeight="1">
+      <c r="I318" s="1"/>
+    </row>
+    <row r="319" ht="15.75" customHeight="1">
+      <c r="I319" s="1"/>
+    </row>
+    <row r="320" ht="15.75" customHeight="1">
+      <c r="I320" s="1"/>
+    </row>
+    <row r="321" ht="15.75" customHeight="1">
+      <c r="I321" s="1"/>
+    </row>
+    <row r="322" ht="15.75" customHeight="1">
+      <c r="I322" s="1"/>
+    </row>
+    <row r="323" ht="15.75" customHeight="1">
+      <c r="I323" s="1"/>
+    </row>
+    <row r="324" ht="15.75" customHeight="1">
+      <c r="I324" s="1"/>
+    </row>
+    <row r="325" ht="15.75" customHeight="1">
+      <c r="I325" s="1"/>
+    </row>
+    <row r="326" ht="15.75" customHeight="1">
+      <c r="I326" s="1"/>
+    </row>
+    <row r="327" ht="15.75" customHeight="1">
+      <c r="I327" s="1"/>
+    </row>
+    <row r="328" ht="15.75" customHeight="1">
+      <c r="I328" s="1"/>
+    </row>
+    <row r="329" ht="15.75" customHeight="1">
+      <c r="I329" s="1"/>
+    </row>
+    <row r="330" ht="15.75" customHeight="1">
+      <c r="I330" s="1"/>
+    </row>
+    <row r="331" ht="15.75" customHeight="1">
+      <c r="I331" s="1"/>
+    </row>
+    <row r="332" ht="15.75" customHeight="1">
+      <c r="I332" s="1"/>
+    </row>
+    <row r="333" ht="15.75" customHeight="1">
+      <c r="I333" s="1"/>
+    </row>
+    <row r="334" ht="15.75" customHeight="1">
+      <c r="I334" s="1"/>
+    </row>
+    <row r="335" ht="15.75" customHeight="1">
+      <c r="I335" s="1"/>
+    </row>
+    <row r="336" ht="15.75" customHeight="1">
+      <c r="I336" s="1"/>
+    </row>
+    <row r="337" ht="15.75" customHeight="1">
+      <c r="I337" s="1"/>
+    </row>
+    <row r="338" ht="15.75" customHeight="1">
+      <c r="I338" s="1"/>
+    </row>
+    <row r="339" ht="15.75" customHeight="1">
+      <c r="I339" s="1"/>
+    </row>
+    <row r="340" ht="15.75" customHeight="1">
+      <c r="I340" s="1"/>
+    </row>
+    <row r="341" ht="15.75" customHeight="1">
+      <c r="I341" s="1"/>
+    </row>
+    <row r="342" ht="15.75" customHeight="1">
+      <c r="I342" s="1"/>
+    </row>
+    <row r="343" ht="15.75" customHeight="1">
+      <c r="I343" s="1"/>
+    </row>
+    <row r="344" ht="15.75" customHeight="1">
+      <c r="I344" s="1"/>
+    </row>
+    <row r="345" ht="15.75" customHeight="1">
+      <c r="I345" s="1"/>
+    </row>
+    <row r="346" ht="15.75" customHeight="1">
+      <c r="I346" s="1"/>
+    </row>
+    <row r="347" ht="15.75" customHeight="1">
+      <c r="I347" s="1"/>
+    </row>
+    <row r="348" ht="15.75" customHeight="1">
+      <c r="I348" s="1"/>
+    </row>
+    <row r="349" ht="15.75" customHeight="1">
+      <c r="I349" s="1"/>
+    </row>
+    <row r="350" ht="15.75" customHeight="1">
+      <c r="I350" s="1"/>
+    </row>
+    <row r="351" ht="15.75" customHeight="1">
+      <c r="I351" s="1"/>
+    </row>
+    <row r="352" ht="15.75" customHeight="1">
+      <c r="I352" s="1"/>
+    </row>
+    <row r="353" ht="15.75" customHeight="1">
+      <c r="I353" s="1"/>
+    </row>
+    <row r="354" ht="15.75" customHeight="1">
+      <c r="I354" s="1"/>
+    </row>
+    <row r="355" ht="15.75" customHeight="1">
+      <c r="I355" s="1"/>
+    </row>
+    <row r="356" ht="15.75" customHeight="1">
+      <c r="I356" s="1"/>
+    </row>
+    <row r="357" ht="15.75" customHeight="1">
+      <c r="I357" s="1"/>
+    </row>
+    <row r="358" ht="15.75" customHeight="1">
+      <c r="I358" s="1"/>
+    </row>
+    <row r="359" ht="15.75" customHeight="1">
+      <c r="I359" s="1"/>
+    </row>
+    <row r="360" ht="15.75" customHeight="1">
+      <c r="I360" s="1"/>
+    </row>
+    <row r="361" ht="15.75" customHeight="1">
+      <c r="I361" s="1"/>
+    </row>
+    <row r="362" ht="15.75" customHeight="1">
+      <c r="I362" s="1"/>
+    </row>
+    <row r="363" ht="15.75" customHeight="1">
+      <c r="I363" s="1"/>
+    </row>
+    <row r="364" ht="15.75" customHeight="1">
+      <c r="I364" s="1"/>
+    </row>
+    <row r="365" ht="15.75" customHeight="1">
+      <c r="I365" s="1"/>
+    </row>
+    <row r="366" ht="15.75" customHeight="1">
+      <c r="I366" s="1"/>
+    </row>
+    <row r="367" ht="15.75" customHeight="1">
+      <c r="I367" s="1"/>
+    </row>
+    <row r="368" ht="15.75" customHeight="1">
+      <c r="I368" s="1"/>
+    </row>
+    <row r="369" ht="15.75" customHeight="1">
+      <c r="I369" s="1"/>
+    </row>
+    <row r="370" ht="15.75" customHeight="1">
+      <c r="I370" s="1"/>
+    </row>
+    <row r="371" ht="15.75" customHeight="1">
+      <c r="I371" s="1"/>
+    </row>
+    <row r="372" ht="15.75" customHeight="1">
+      <c r="I372" s="1"/>
+    </row>
+    <row r="373" ht="15.75" customHeight="1">
+      <c r="I373" s="1"/>
+    </row>
+    <row r="374" ht="15.75" customHeight="1">
+      <c r="I374" s="1"/>
+    </row>
+    <row r="375" ht="15.75" customHeight="1">
+      <c r="I375" s="1"/>
+    </row>
+    <row r="376" ht="15.75" customHeight="1">
+      <c r="I376" s="1"/>
+    </row>
+    <row r="377" ht="15.75" customHeight="1">
+      <c r="I377" s="1"/>
+    </row>
+    <row r="378" ht="15.75" customHeight="1">
+      <c r="I378" s="1"/>
+    </row>
+    <row r="379" ht="15.75" customHeight="1">
+      <c r="I379" s="1"/>
+    </row>
+    <row r="380" ht="15.75" customHeight="1">
+      <c r="I380" s="1"/>
+    </row>
+    <row r="381" ht="15.75" customHeight="1">
+      <c r="I381" s="1"/>
+    </row>
+    <row r="382" ht="15.75" customHeight="1">
+      <c r="I382" s="1"/>
+    </row>
+    <row r="383" ht="15.75" customHeight="1">
+      <c r="I383" s="1"/>
+    </row>
+    <row r="384" ht="15.75" customHeight="1">
+      <c r="I384" s="1"/>
+    </row>
+    <row r="385" ht="15.75" customHeight="1">
+      <c r="I385" s="1"/>
+    </row>
+    <row r="386" ht="15.75" customHeight="1">
+      <c r="I386" s="1"/>
+    </row>
+    <row r="387" ht="15.75" customHeight="1">
+      <c r="I387" s="1"/>
+    </row>
+    <row r="388" ht="15.75" customHeight="1">
+      <c r="I388" s="1"/>
+    </row>
+    <row r="389" ht="15.75" customHeight="1">
+      <c r="I389" s="1"/>
+    </row>
+    <row r="390" ht="15.75" customHeight="1">
+      <c r="I390" s="1"/>
+    </row>
+    <row r="391" ht="15.75" customHeight="1">
+      <c r="I391" s="1"/>
+    </row>
+    <row r="392" ht="15.75" customHeight="1">
+      <c r="I392" s="1"/>
+    </row>
+    <row r="393" ht="15.75" customHeight="1">
+      <c r="I393" s="1"/>
+    </row>
+    <row r="394" ht="15.75" customHeight="1">
+      <c r="I394" s="1"/>
+    </row>
+    <row r="395" ht="15.75" customHeight="1">
+      <c r="I395" s="1"/>
+    </row>
+    <row r="396" ht="15.75" customHeight="1">
+      <c r="I396" s="1"/>
+    </row>
+    <row r="397" ht="15.75" customHeight="1">
+      <c r="I397" s="1"/>
+    </row>
+    <row r="398" ht="15.75" customHeight="1">
+      <c r="I398" s="1"/>
+    </row>
+    <row r="399" ht="15.75" customHeight="1">
+      <c r="I399" s="1"/>
+    </row>
+    <row r="400" ht="15.75" customHeight="1">
+      <c r="I400" s="1"/>
+    </row>
+    <row r="401" ht="15.75" customHeight="1">
+      <c r="I401" s="1"/>
+    </row>
+    <row r="402" ht="15.75" customHeight="1">
+      <c r="I402" s="1"/>
+    </row>
+    <row r="403" ht="15.75" customHeight="1">
+      <c r="I403" s="1"/>
+    </row>
+    <row r="404" ht="15.75" customHeight="1">
+      <c r="I404" s="1"/>
+    </row>
+    <row r="405" ht="15.75" customHeight="1">
+      <c r="I405" s="1"/>
+    </row>
+    <row r="406" ht="15.75" customHeight="1">
+      <c r="I406" s="1"/>
+    </row>
+    <row r="407" ht="15.75" customHeight="1">
+      <c r="I407" s="1"/>
+    </row>
+    <row r="408" ht="15.75" customHeight="1">
+      <c r="I408" s="1"/>
+    </row>
+    <row r="409" ht="15.75" customHeight="1">
+      <c r="I409" s="1"/>
+    </row>
+    <row r="410" ht="15.75" customHeight="1">
+      <c r="I410" s="1"/>
+    </row>
+    <row r="411" ht="15.75" customHeight="1">
+      <c r="I411" s="1"/>
+    </row>
+    <row r="412" ht="15.75" customHeight="1">
+      <c r="I412" s="1"/>
+    </row>
+    <row r="413" ht="15.75" customHeight="1">
+      <c r="I413" s="1"/>
+    </row>
+    <row r="414" ht="15.75" customHeight="1">
+      <c r="I414" s="1"/>
+    </row>
+    <row r="415" ht="15.75" customHeight="1">
+      <c r="I415" s="1"/>
+    </row>
+    <row r="416" ht="15.75" customHeight="1">
+      <c r="I416" s="1"/>
+    </row>
+    <row r="417" ht="15.75" customHeight="1">
+      <c r="I417" s="1"/>
+    </row>
+    <row r="418" ht="15.75" customHeight="1">
+      <c r="I418" s="1"/>
+    </row>
+    <row r="419" ht="15.75" customHeight="1">
+      <c r="I419" s="1"/>
+    </row>
+    <row r="420" ht="15.75" customHeight="1">
+      <c r="I420" s="1"/>
+    </row>
+    <row r="421" ht="15.75" customHeight="1">
+      <c r="I421" s="1"/>
+    </row>
+    <row r="422" ht="15.75" customHeight="1">
+      <c r="I422" s="1"/>
+    </row>
+    <row r="423" ht="15.75" customHeight="1">
+      <c r="I423" s="1"/>
+    </row>
+    <row r="424" ht="15.75" customHeight="1">
+      <c r="I424" s="1"/>
+    </row>
+    <row r="425" ht="15.75" customHeight="1">
+      <c r="I425" s="1"/>
+    </row>
+    <row r="426" ht="15.75" customHeight="1">
+      <c r="I426" s="1"/>
+    </row>
+    <row r="427" ht="15.75" customHeight="1">
+      <c r="I427" s="1"/>
+    </row>
+    <row r="428" ht="15.75" customHeight="1">
+      <c r="I428" s="1"/>
+    </row>
+    <row r="429" ht="15.75" customHeight="1">
+      <c r="I429" s="1"/>
+    </row>
+    <row r="430" ht="15.75" customHeight="1">
+      <c r="I430" s="1"/>
+    </row>
+    <row r="431" ht="15.75" customHeight="1">
+      <c r="I431" s="1"/>
+    </row>
+    <row r="432" ht="15.75" customHeight="1">
+      <c r="I432" s="1"/>
+    </row>
+    <row r="433" ht="15.75" customHeight="1">
+      <c r="I433" s="1"/>
+    </row>
+    <row r="434" ht="15.75" customHeight="1">
+      <c r="I434" s="1"/>
+    </row>
+    <row r="435" ht="15.75" customHeight="1">
+      <c r="I435" s="1"/>
+    </row>
+    <row r="436" ht="15.75" customHeight="1">
+      <c r="I436" s="1"/>
+    </row>
+    <row r="437" ht="15.75" customHeight="1">
+      <c r="I437" s="1"/>
+    </row>
+    <row r="438" ht="15.75" customHeight="1">
+      <c r="I438" s="1"/>
+    </row>
+    <row r="439" ht="15.75" customHeight="1">
+      <c r="I439" s="1"/>
+    </row>
+    <row r="440" ht="15.75" customHeight="1">
+      <c r="I440" s="1"/>
+    </row>
+    <row r="441" ht="15.75" customHeight="1">
+      <c r="I441" s="1"/>
+    </row>
+    <row r="442" ht="15.75" customHeight="1">
+      <c r="I442" s="1"/>
+    </row>
+    <row r="443" ht="15.75" customHeight="1">
+      <c r="I443" s="1"/>
+    </row>
+    <row r="444" ht="15.75" customHeight="1">
+      <c r="I444" s="1"/>
+    </row>
+    <row r="445" ht="15.75" customHeight="1">
+      <c r="I445" s="1"/>
+    </row>
+    <row r="446" ht="15.75" customHeight="1">
+      <c r="I446" s="1"/>
+    </row>
+    <row r="447" ht="15.75" customHeight="1">
+      <c r="I447" s="1"/>
+    </row>
+    <row r="448" ht="15.75" customHeight="1">
+      <c r="I448" s="1"/>
+    </row>
+    <row r="449" ht="15.75" customHeight="1">
+      <c r="I449" s="1"/>
+    </row>
+    <row r="450" ht="15.75" customHeight="1">
+      <c r="I450" s="1"/>
+    </row>
+    <row r="451" ht="15.75" customHeight="1">
+      <c r="I451" s="1"/>
+    </row>
+    <row r="452" ht="15.75" customHeight="1">
+      <c r="I452" s="1"/>
+    </row>
+    <row r="453" ht="15.75" customHeight="1">
+      <c r="I453" s="1"/>
+    </row>
+    <row r="454" ht="15.75" customHeight="1">
+      <c r="I454" s="1"/>
+    </row>
+    <row r="455" ht="15.75" customHeight="1">
+      <c r="I455" s="1"/>
+    </row>
+    <row r="456" ht="15.75" customHeight="1">
+      <c r="I456" s="1"/>
+    </row>
+    <row r="457" ht="15.75" customHeight="1">
+      <c r="I457" s="1"/>
+    </row>
+    <row r="458" ht="15.75" customHeight="1">
+      <c r="I458" s="1"/>
+    </row>
+    <row r="459" ht="15.75" customHeight="1">
+      <c r="I459" s="1"/>
+    </row>
+    <row r="460" ht="15.75" customHeight="1">
+      <c r="I460" s="1"/>
+    </row>
+    <row r="461" ht="15.75" customHeight="1">
+      <c r="I461" s="1"/>
+    </row>
+    <row r="462" ht="15.75" customHeight="1">
+      <c r="I462" s="1"/>
+    </row>
+    <row r="463" ht="15.75" customHeight="1">
+      <c r="I463" s="1"/>
+    </row>
+    <row r="464" ht="15.75" customHeight="1">
+      <c r="I464" s="1"/>
+    </row>
+    <row r="465" ht="15.75" customHeight="1">
+      <c r="I465" s="1"/>
+    </row>
+    <row r="466" ht="15.75" customHeight="1">
+      <c r="I466" s="1"/>
+    </row>
+    <row r="467" ht="15.75" customHeight="1">
+      <c r="I467" s="1"/>
+    </row>
+    <row r="468" ht="15.75" customHeight="1">
+      <c r="I468" s="1"/>
+    </row>
+    <row r="469" ht="15.75" customHeight="1">
+      <c r="I469" s="1"/>
+    </row>
+    <row r="470" ht="15.75" customHeight="1">
+      <c r="I470" s="1"/>
+    </row>
+    <row r="471" ht="15.75" customHeight="1">
+      <c r="I471" s="1"/>
+    </row>
+    <row r="472" ht="15.75" customHeight="1">
+      <c r="I472" s="1"/>
+    </row>
+    <row r="473" ht="15.75" customHeight="1">
+      <c r="I473" s="1"/>
+    </row>
+    <row r="474" ht="15.75" customHeight="1">
+      <c r="I474" s="1"/>
+    </row>
+    <row r="475" ht="15.75" customHeight="1">
+      <c r="I475" s="1"/>
+    </row>
+    <row r="476" ht="15.75" customHeight="1">
+      <c r="I476" s="1"/>
+    </row>
+    <row r="477" ht="15.75" customHeight="1">
+      <c r="I477" s="1"/>
+    </row>
+    <row r="478" ht="15.75" customHeight="1">
+      <c r="I478" s="1"/>
+    </row>
+    <row r="479" ht="15.75" customHeight="1">
+      <c r="I479" s="1"/>
+    </row>
+    <row r="480" ht="15.75" customHeight="1">
+      <c r="I480" s="1"/>
+    </row>
+    <row r="481" ht="15.75" customHeight="1">
+      <c r="I481" s="1"/>
+    </row>
+    <row r="482" ht="15.75" customHeight="1">
+      <c r="I482" s="1"/>
+    </row>
+    <row r="483" ht="15.75" customHeight="1">
+      <c r="I483" s="1"/>
+    </row>
+    <row r="484" ht="15.75" customHeight="1">
+      <c r="I484" s="1"/>
+    </row>
+    <row r="485" ht="15.75" customHeight="1">
+      <c r="I485" s="1"/>
+    </row>
+    <row r="486" ht="15.75" customHeight="1">
+      <c r="I486" s="1"/>
+    </row>
+    <row r="487" ht="15.75" customHeight="1">
+      <c r="I487" s="1"/>
+    </row>
+    <row r="488" ht="15.75" customHeight="1">
+      <c r="I488" s="1"/>
+    </row>
+    <row r="489" ht="15.75" customHeight="1">
+      <c r="I489" s="1"/>
+    </row>
+    <row r="490" ht="15.75" customHeight="1">
+      <c r="I490" s="1"/>
+    </row>
+    <row r="491" ht="15.75" customHeight="1">
+      <c r="I491" s="1"/>
+    </row>
+    <row r="492" ht="15.75" customHeight="1">
+      <c r="I492" s="1"/>
+    </row>
+    <row r="493" ht="15.75" customHeight="1">
+      <c r="I493" s="1"/>
+    </row>
+    <row r="494" ht="15.75" customHeight="1">
+      <c r="I494" s="1"/>
+    </row>
+    <row r="495" ht="15.75" customHeight="1">
+      <c r="I495" s="1"/>
+    </row>
+    <row r="496" ht="15.75" customHeight="1">
+      <c r="I496" s="1"/>
+    </row>
+    <row r="497" ht="15.75" customHeight="1">
+      <c r="I497" s="1"/>
+    </row>
+    <row r="498" ht="15.75" customHeight="1">
+      <c r="I498" s="1"/>
+    </row>
+    <row r="499" ht="15.75" customHeight="1">
+      <c r="I499" s="1"/>
+    </row>
+    <row r="500" ht="15.75" customHeight="1">
+      <c r="I500" s="1"/>
+    </row>
+    <row r="501" ht="15.75" customHeight="1">
+      <c r="I501" s="1"/>
+    </row>
+    <row r="502" ht="15.75" customHeight="1">
+      <c r="I502" s="1"/>
+    </row>
+    <row r="503" ht="15.75" customHeight="1">
+      <c r="I503" s="1"/>
+    </row>
+    <row r="504" ht="15.75" customHeight="1">
+      <c r="I504" s="1"/>
+    </row>
+    <row r="505" ht="15.75" customHeight="1">
+      <c r="I505" s="1"/>
+    </row>
+    <row r="506" ht="15.75" customHeight="1">
+      <c r="I506" s="1"/>
+    </row>
+    <row r="507" ht="15.75" customHeight="1">
+      <c r="I507" s="1"/>
+    </row>
+    <row r="508" ht="15.75" customHeight="1">
+      <c r="I508" s="1"/>
+    </row>
+    <row r="509" ht="15.75" customHeight="1">
+      <c r="I509" s="1"/>
+    </row>
+    <row r="510" ht="15.75" customHeight="1">
+      <c r="I510" s="1"/>
+    </row>
+    <row r="511" ht="15.75" customHeight="1">
+      <c r="I511" s="1"/>
+    </row>
+    <row r="512" ht="15.75" customHeight="1">
+      <c r="I512" s="1"/>
+    </row>
+    <row r="513" ht="15.75" customHeight="1">
+      <c r="I513" s="1"/>
+    </row>
+    <row r="514" ht="15.75" customHeight="1">
+      <c r="I514" s="1"/>
+    </row>
+    <row r="515" ht="15.75" customHeight="1">
+      <c r="I515" s="1"/>
+    </row>
+    <row r="516" ht="15.75" customHeight="1">
+      <c r="I516" s="1"/>
+    </row>
+    <row r="517" ht="15.75" customHeight="1">
+      <c r="I517" s="1"/>
+    </row>
+    <row r="518" ht="15.75" customHeight="1">
+      <c r="I518" s="1"/>
+    </row>
+    <row r="519" ht="15.75" customHeight="1">
+      <c r="I519" s="1"/>
+    </row>
+    <row r="520" ht="15.75" customHeight="1">
+      <c r="I520" s="1"/>
+    </row>
+    <row r="521" ht="15.75" customHeight="1">
+      <c r="I521" s="1"/>
+    </row>
+    <row r="522" ht="15.75" customHeight="1">
+      <c r="I522" s="1"/>
+    </row>
+    <row r="523" ht="15.75" customHeight="1">
+      <c r="I523" s="1"/>
+    </row>
+    <row r="524" ht="15.75" customHeight="1">
+      <c r="I524" s="1"/>
+    </row>
+    <row r="525" ht="15.75" customHeight="1">
+      <c r="I525" s="1"/>
+    </row>
+    <row r="526" ht="15.75" customHeight="1">
+      <c r="I526" s="1"/>
+    </row>
+    <row r="527" ht="15.75" customHeight="1">
+      <c r="I527" s="1"/>
+    </row>
+    <row r="528" ht="15.75" customHeight="1">
+      <c r="I528" s="1"/>
+    </row>
+    <row r="529" ht="15.75" customHeight="1">
+      <c r="I529" s="1"/>
+    </row>
+    <row r="530" ht="15.75" customHeight="1">
+      <c r="I530" s="1"/>
+    </row>
+    <row r="531" ht="15.75" customHeight="1">
+      <c r="I531" s="1"/>
+    </row>
+    <row r="532" ht="15.75" customHeight="1">
+      <c r="I532" s="1"/>
+    </row>
+    <row r="533" ht="15.75" customHeight="1">
+      <c r="I533" s="1"/>
+    </row>
+    <row r="534" ht="15.75" customHeight="1">
+      <c r="I534" s="1"/>
+    </row>
+    <row r="535" ht="15.75" customHeight="1">
+      <c r="I535" s="1"/>
+    </row>
+    <row r="536" ht="15.75" customHeight="1">
+      <c r="I536" s="1"/>
+    </row>
+    <row r="537" ht="15.75" customHeight="1">
+      <c r="I537" s="1"/>
+    </row>
+    <row r="538" ht="15.75" customHeight="1">
+      <c r="I538" s="1"/>
+    </row>
+    <row r="539" ht="15.75" customHeight="1">
+      <c r="I539" s="1"/>
+    </row>
+    <row r="540" ht="15.75" customHeight="1">
+      <c r="I540" s="1"/>
+    </row>
+    <row r="541" ht="15.75" customHeight="1">
+      <c r="I541" s="1"/>
+    </row>
+    <row r="542" ht="15.75" customHeight="1">
+      <c r="I542" s="1"/>
+    </row>
+    <row r="543" ht="15.75" customHeight="1">
+      <c r="I543" s="1"/>
+    </row>
+    <row r="544" ht="15.75" customHeight="1">
+      <c r="I544" s="1"/>
+    </row>
+    <row r="545" ht="15.75" customHeight="1">
+      <c r="I545" s="1"/>
+    </row>
+    <row r="546" ht="15.75" customHeight="1">
+      <c r="I546" s="1"/>
+    </row>
+    <row r="547" ht="15.75" customHeight="1">
+      <c r="I547" s="1"/>
+    </row>
+    <row r="548" ht="15.75" customHeight="1">
+      <c r="I548" s="1"/>
+    </row>
+    <row r="549" ht="15.75" customHeight="1">
+      <c r="I549" s="1"/>
+    </row>
+    <row r="550" ht="15.75" customHeight="1">
+      <c r="I550" s="1"/>
+    </row>
+    <row r="551" ht="15.75" customHeight="1">
+      <c r="I551" s="1"/>
+    </row>
+    <row r="552" ht="15.75" customHeight="1">
+      <c r="I552" s="1"/>
+    </row>
+    <row r="553" ht="15.75" customHeight="1">
+      <c r="I553" s="1"/>
+    </row>
+    <row r="554" ht="15.75" customHeight="1">
+      <c r="I554" s="1"/>
+    </row>
+    <row r="555" ht="15.75" customHeight="1">
+      <c r="I555" s="1"/>
+    </row>
+    <row r="556" ht="15.75" customHeight="1">
+      <c r="I556" s="1"/>
+    </row>
+    <row r="557" ht="15.75" customHeight="1">
+      <c r="I557" s="1"/>
+    </row>
+    <row r="558" ht="15.75" customHeight="1">
+      <c r="I558" s="1"/>
+    </row>
+    <row r="559" ht="15.75" customHeight="1">
+      <c r="I559" s="1"/>
+    </row>
+    <row r="560" ht="15.75" customHeight="1">
+      <c r="I560" s="1"/>
+    </row>
+    <row r="561" ht="15.75" customHeight="1">
+      <c r="I561" s="1"/>
+    </row>
+    <row r="562" ht="15.75" customHeight="1">
+      <c r="I562" s="1"/>
+    </row>
+    <row r="563" ht="15.75" customHeight="1">
+      <c r="I563" s="1"/>
+    </row>
+    <row r="564" ht="15.75" customHeight="1">
+      <c r="I564" s="1"/>
+    </row>
+    <row r="565" ht="15.75" customHeight="1">
+      <c r="I565" s="1"/>
+    </row>
+    <row r="566" ht="15.75" customHeight="1">
+      <c r="I566" s="1"/>
+    </row>
+    <row r="567" ht="15.75" customHeight="1">
+      <c r="I567" s="1"/>
+    </row>
+    <row r="568" ht="15.75" customHeight="1">
+      <c r="I568" s="1"/>
+    </row>
+    <row r="569" ht="15.75" customHeight="1">
+      <c r="I569" s="1"/>
+    </row>
+    <row r="570" ht="15.75" customHeight="1">
+      <c r="I570" s="1"/>
+    </row>
+    <row r="571" ht="15.75" customHeight="1">
+      <c r="I571" s="1"/>
+    </row>
+    <row r="572" ht="15.75" customHeight="1">
+      <c r="I572" s="1"/>
+    </row>
+    <row r="573" ht="15.75" customHeight="1">
+      <c r="I573" s="1"/>
+    </row>
+    <row r="574" ht="15.75" customHeight="1">
+      <c r="I574" s="1"/>
+    </row>
+    <row r="575" ht="15.75" customHeight="1">
+      <c r="I575" s="1"/>
+    </row>
+    <row r="576" ht="15.75" customHeight="1">
+      <c r="I576" s="1"/>
+    </row>
+    <row r="577" ht="15.75" customHeight="1">
+      <c r="I577" s="1"/>
+    </row>
+    <row r="578" ht="15.75" customHeight="1">
+      <c r="I578" s="1"/>
+    </row>
+    <row r="579" ht="15.75" customHeight="1">
+      <c r="I579" s="1"/>
+    </row>
+    <row r="580" ht="15.75" customHeight="1">
+      <c r="I580" s="1"/>
+    </row>
+    <row r="581" ht="15.75" customHeight="1">
+      <c r="I581" s="1"/>
+    </row>
+    <row r="582" ht="15.75" customHeight="1">
+      <c r="I582" s="1"/>
+    </row>
+    <row r="583" ht="15.75" customHeight="1">
+      <c r="I583" s="1"/>
+    </row>
+    <row r="584" ht="15.75" customHeight="1">
+      <c r="I584" s="1"/>
+    </row>
+    <row r="585" ht="15.75" customHeight="1">
+      <c r="I585" s="1"/>
+    </row>
+    <row r="586" ht="15.75" customHeight="1">
+      <c r="I586" s="1"/>
+    </row>
+    <row r="587" ht="15.75" customHeight="1">
+      <c r="I587" s="1"/>
+    </row>
+    <row r="588" ht="15.75" customHeight="1">
+      <c r="I588" s="1"/>
+    </row>
+    <row r="589" ht="15.75" customHeight="1">
+      <c r="I589" s="1"/>
+    </row>
+    <row r="590" ht="15.75" customHeight="1">
+      <c r="I590" s="1"/>
+    </row>
+    <row r="591" ht="15.75" customHeight="1">
+      <c r="I591" s="1"/>
+    </row>
+    <row r="592" ht="15.75" customHeight="1">
+      <c r="I592" s="1"/>
+    </row>
+    <row r="593" ht="15.75" customHeight="1">
+      <c r="I593" s="1"/>
+    </row>
+    <row r="594" ht="15.75" customHeight="1">
+      <c r="I594" s="1"/>
+    </row>
+    <row r="595" ht="15.75" customHeight="1">
+      <c r="I595" s="1"/>
+    </row>
+    <row r="596" ht="15.75" customHeight="1">
+      <c r="I596" s="1"/>
+    </row>
+    <row r="597" ht="15.75" customHeight="1">
+      <c r="I597" s="1"/>
+    </row>
+    <row r="598" ht="15.75" customHeight="1">
+      <c r="I598" s="1"/>
+    </row>
+    <row r="599" ht="15.75" customHeight="1">
+      <c r="I599" s="1"/>
+    </row>
+    <row r="600" ht="15.75" customHeight="1">
+      <c r="I600" s="1"/>
+    </row>
+    <row r="601" ht="15.75" customHeight="1">
+      <c r="I601" s="1"/>
+    </row>
+    <row r="602" ht="15.75" customHeight="1">
+      <c r="I602" s="1"/>
+    </row>
+    <row r="603" ht="15.75" customHeight="1">
+      <c r="I603" s="1"/>
+    </row>
+    <row r="604" ht="15.75" customHeight="1">
+      <c r="I604" s="1"/>
+    </row>
+    <row r="605" ht="15.75" customHeight="1">
+      <c r="I605" s="1"/>
+    </row>
+    <row r="606" ht="15.75" customHeight="1">
+      <c r="I606" s="1"/>
+    </row>
+    <row r="607" ht="15.75" customHeight="1">
+      <c r="I607" s="1"/>
+    </row>
+    <row r="608" ht="15.75" customHeight="1">
+      <c r="I608" s="1"/>
+    </row>
+    <row r="609" ht="15.75" customHeight="1">
+      <c r="I609" s="1"/>
+    </row>
+    <row r="610" ht="15.75" customHeight="1">
+      <c r="I610" s="1"/>
+    </row>
+    <row r="611" ht="15.75" customHeight="1">
+      <c r="I611" s="1"/>
+    </row>
+    <row r="612" ht="15.75" customHeight="1">
+      <c r="I612" s="1"/>
+    </row>
+    <row r="613" ht="15.75" customHeight="1">
+      <c r="I613" s="1"/>
+    </row>
+    <row r="614" ht="15.75" customHeight="1">
+      <c r="I614" s="1"/>
+    </row>
+    <row r="615" ht="15.75" customHeight="1">
+      <c r="I615" s="1"/>
+    </row>
+    <row r="616" ht="15.75" customHeight="1">
+      <c r="I616" s="1"/>
+    </row>
+    <row r="617" ht="15.75" customHeight="1">
+      <c r="I617" s="1"/>
+    </row>
+    <row r="618" ht="15.75" customHeight="1">
+      <c r="I618" s="1"/>
+    </row>
+    <row r="619" ht="15.75" customHeight="1">
+      <c r="I619" s="1"/>
+    </row>
+    <row r="620" ht="15.75" customHeight="1">
+      <c r="I620" s="1"/>
+    </row>
+    <row r="621" ht="15.75" customHeight="1">
+      <c r="I621" s="1"/>
+    </row>
+    <row r="622" ht="15.75" customHeight="1">
+      <c r="I622" s="1"/>
+    </row>
+    <row r="623" ht="15.75" customHeight="1">
+      <c r="I623" s="1"/>
+    </row>
+    <row r="624" ht="15.75" customHeight="1">
+      <c r="I624" s="1"/>
+    </row>
+    <row r="625" ht="15.75" customHeight="1">
+      <c r="I625" s="1"/>
+    </row>
+    <row r="626" ht="15.75" customHeight="1">
+      <c r="I626" s="1"/>
+    </row>
+    <row r="627" ht="15.75" customHeight="1">
+      <c r="I627" s="1"/>
+    </row>
+    <row r="628" ht="15.75" customHeight="1">
+      <c r="I628" s="1"/>
+    </row>
+    <row r="629" ht="15.75" customHeight="1">
+      <c r="I629" s="1"/>
+    </row>
+    <row r="630" ht="15.75" customHeight="1">
+      <c r="I630" s="1"/>
+    </row>
+    <row r="631" ht="15.75" customHeight="1">
+      <c r="I631" s="1"/>
+    </row>
+    <row r="632" ht="15.75" customHeight="1">
+      <c r="I632" s="1"/>
+    </row>
+    <row r="633" ht="15.75" customHeight="1">
+      <c r="I633" s="1"/>
+    </row>
+    <row r="634" ht="15.75" customHeight="1">
+      <c r="I634" s="1"/>
+    </row>
+    <row r="635" ht="15.75" customHeight="1">
+      <c r="I635" s="1"/>
+    </row>
+    <row r="636" ht="15.75" customHeight="1">
+      <c r="I636" s="1"/>
+    </row>
+    <row r="637" ht="15.75" customHeight="1">
+      <c r="I637" s="1"/>
+    </row>
+    <row r="638" ht="15.75" customHeight="1">
+      <c r="I638" s="1"/>
+    </row>
+    <row r="639" ht="15.75" customHeight="1">
+      <c r="I639" s="1"/>
+    </row>
+    <row r="640" ht="15.75" customHeight="1">
+      <c r="I640" s="1"/>
+    </row>
+    <row r="641" ht="15.75" customHeight="1">
+      <c r="I641" s="1"/>
+    </row>
+    <row r="642" ht="15.75" customHeight="1">
+      <c r="I642" s="1"/>
+    </row>
+    <row r="643" ht="15.75" customHeight="1">
+      <c r="I643" s="1"/>
+    </row>
+    <row r="644" ht="15.75" customHeight="1">
+      <c r="I644" s="1"/>
+    </row>
+    <row r="645" ht="15.75" customHeight="1">
+      <c r="I645" s="1"/>
+    </row>
+    <row r="646" ht="15.75" customHeight="1">
+      <c r="I646" s="1"/>
+    </row>
+    <row r="647" ht="15.75" customHeight="1">
+      <c r="I647" s="1"/>
+    </row>
+    <row r="648" ht="15.75" customHeight="1">
+      <c r="I648" s="1"/>
+    </row>
+    <row r="649" ht="15.75" customHeight="1">
+      <c r="I649" s="1"/>
+    </row>
+    <row r="650" ht="15.75" customHeight="1">
+      <c r="I650" s="1"/>
+    </row>
+    <row r="651" ht="15.75" customHeight="1">
+      <c r="I651" s="1"/>
+    </row>
+    <row r="652" ht="15.75" customHeight="1">
+      <c r="I652" s="1"/>
+    </row>
+    <row r="653" ht="15.75" customHeight="1">
+      <c r="I653" s="1"/>
+    </row>
+    <row r="654" ht="15.75" customHeight="1">
+      <c r="I654" s="1"/>
+    </row>
+    <row r="655" ht="15.75" customHeight="1">
+      <c r="I655" s="1"/>
+    </row>
+    <row r="656" ht="15.75" customHeight="1">
+      <c r="I656" s="1"/>
+    </row>
+    <row r="657" ht="15.75" customHeight="1">
+      <c r="I657" s="1"/>
+    </row>
+    <row r="658" ht="15.75" customHeight="1">
+      <c r="I658" s="1"/>
+    </row>
+    <row r="659" ht="15.75" customHeight="1">
+      <c r="I659" s="1"/>
+    </row>
+    <row r="660" ht="15.75" customHeight="1">
+      <c r="I660" s="1"/>
+    </row>
+    <row r="661" ht="15.75" customHeight="1">
+      <c r="I661" s="1"/>
+    </row>
+    <row r="662" ht="15.75" customHeight="1">
+      <c r="I662" s="1"/>
+    </row>
+    <row r="663" ht="15.75" customHeight="1">
+      <c r="I663" s="1"/>
+    </row>
+    <row r="664" ht="15.75" customHeight="1">
+      <c r="I664" s="1"/>
+    </row>
+    <row r="665" ht="15.75" customHeight="1">
+      <c r="I665" s="1"/>
+    </row>
+    <row r="666" ht="15.75" customHeight="1">
+      <c r="I666" s="1"/>
+    </row>
+    <row r="667" ht="15.75" customHeight="1">
+      <c r="I667" s="1"/>
+    </row>
+    <row r="668" ht="15.75" customHeight="1">
+      <c r="I668" s="1"/>
+    </row>
+    <row r="669" ht="15.75" customHeight="1">
+      <c r="I669" s="1"/>
+    </row>
+    <row r="670" ht="15.75" customHeight="1">
+      <c r="I670" s="1"/>
+    </row>
+    <row r="671" ht="15.75" customHeight="1">
+      <c r="I671" s="1"/>
+    </row>
+    <row r="672" ht="15.75" customHeight="1">
+      <c r="I672" s="1"/>
+    </row>
+    <row r="673" ht="15.75" customHeight="1">
+      <c r="I673" s="1"/>
+    </row>
+    <row r="674" ht="15.75" customHeight="1">
+      <c r="I674" s="1"/>
+    </row>
+    <row r="675" ht="15.75" customHeight="1">
+      <c r="I675" s="1"/>
+    </row>
+    <row r="676" ht="15.75" customHeight="1">
+      <c r="I676" s="1"/>
+    </row>
+    <row r="677" ht="15.75" customHeight="1">
+      <c r="I677" s="1"/>
+    </row>
+    <row r="678" ht="15.75" customHeight="1">
+      <c r="I678" s="1"/>
+    </row>
+    <row r="679" ht="15.75" customHeight="1">
+      <c r="I679" s="1"/>
+    </row>
+    <row r="680" ht="15.75" customHeight="1">
+      <c r="I680" s="1"/>
+    </row>
+    <row r="681" ht="15.75" customHeight="1">
+      <c r="I681" s="1"/>
+    </row>
+    <row r="682" ht="15.75" customHeight="1">
+      <c r="I682" s="1"/>
+    </row>
+    <row r="683" ht="15.75" customHeight="1">
+      <c r="I683" s="1"/>
+    </row>
+    <row r="684" ht="15.75" customHeight="1">
+      <c r="I684" s="1"/>
+    </row>
+    <row r="685" ht="15.75" customHeight="1">
+      <c r="I685" s="1"/>
+    </row>
+    <row r="686" ht="15.75" customHeight="1">
+      <c r="I686" s="1"/>
+    </row>
+    <row r="687" ht="15.75" customHeight="1">
+      <c r="I687" s="1"/>
+    </row>
+    <row r="688" ht="15.75" customHeight="1">
+      <c r="I688" s="1"/>
+    </row>
+    <row r="689" ht="15.75" customHeight="1">
+      <c r="I689" s="1"/>
+    </row>
+    <row r="690" ht="15.75" customHeight="1">
+      <c r="I690" s="1"/>
+    </row>
+    <row r="691" ht="15.75" customHeight="1">
+      <c r="I691" s="1"/>
+    </row>
+    <row r="692" ht="15.75" customHeight="1">
+      <c r="I692" s="1"/>
+    </row>
+    <row r="693" ht="15.75" customHeight="1">
+      <c r="I693" s="1"/>
+    </row>
+    <row r="694" ht="15.75" customHeight="1">
+      <c r="I694" s="1"/>
+    </row>
+    <row r="695" ht="15.75" customHeight="1">
+      <c r="I695" s="1"/>
+    </row>
+    <row r="696" ht="15.75" customHeight="1">
+      <c r="I696" s="1"/>
+    </row>
+    <row r="697" ht="15.75" customHeight="1">
+      <c r="I697" s="1"/>
+    </row>
+    <row r="698" ht="15.75" customHeight="1">
+      <c r="I698" s="1"/>
+    </row>
+    <row r="699" ht="15.75" customHeight="1">
+      <c r="I699" s="1"/>
+    </row>
+    <row r="700" ht="15.75" customHeight="1">
+      <c r="I700" s="1"/>
+    </row>
+    <row r="701" ht="15.75" customHeight="1">
+      <c r="I701" s="1"/>
+    </row>
+    <row r="702" ht="15.75" customHeight="1">
+      <c r="I702" s="1"/>
+    </row>
+    <row r="703" ht="15.75" customHeight="1">
+      <c r="I703" s="1"/>
+    </row>
+    <row r="704" ht="15.75" customHeight="1">
+      <c r="I704" s="1"/>
+    </row>
+    <row r="705" ht="15.75" customHeight="1">
+      <c r="I705" s="1"/>
+    </row>
+    <row r="706" ht="15.75" customHeight="1">
+      <c r="I706" s="1"/>
+    </row>
+    <row r="707" ht="15.75" customHeight="1">
+      <c r="I707" s="1"/>
+    </row>
+    <row r="708" ht="15.75" customHeight="1">
+      <c r="I708" s="1"/>
+    </row>
+    <row r="709" ht="15.75" customHeight="1">
+      <c r="I709" s="1"/>
+    </row>
+    <row r="710" ht="15.75" customHeight="1">
+      <c r="I710" s="1"/>
+    </row>
+    <row r="711" ht="15.75" customHeight="1">
+      <c r="I711" s="1"/>
+    </row>
+    <row r="712" ht="15.75" customHeight="1">
+      <c r="I712" s="1"/>
+    </row>
+    <row r="713" ht="15.75" customHeight="1">
+      <c r="I713" s="1"/>
+    </row>
+    <row r="714" ht="15.75" customHeight="1">
+      <c r="I714" s="1"/>
+    </row>
+    <row r="715" ht="15.75" customHeight="1">
+      <c r="I715" s="1"/>
+    </row>
+    <row r="716" ht="15.75" customHeight="1">
+      <c r="I716" s="1"/>
+    </row>
+    <row r="717" ht="15.75" customHeight="1">
+      <c r="I717" s="1"/>
+    </row>
+    <row r="718" ht="15.75" customHeight="1">
+      <c r="I718" s="1"/>
+    </row>
+    <row r="719" ht="15.75" customHeight="1">
+      <c r="I719" s="1"/>
+    </row>
+    <row r="720" ht="15.75" customHeight="1">
+      <c r="I720" s="1"/>
+    </row>
+    <row r="721" ht="15.75" customHeight="1">
+      <c r="I721" s="1"/>
+    </row>
+    <row r="722" ht="15.75" customHeight="1">
+      <c r="I722" s="1"/>
+    </row>
+    <row r="723" ht="15.75" customHeight="1">
+      <c r="I723" s="1"/>
+    </row>
+    <row r="724" ht="15.75" customHeight="1">
+      <c r="I724" s="1"/>
+    </row>
+    <row r="725" ht="15.75" customHeight="1">
+      <c r="I725" s="1"/>
+    </row>
+    <row r="726" ht="15.75" customHeight="1">
+      <c r="I726" s="1"/>
+    </row>
+    <row r="727" ht="15.75" customHeight="1">
+      <c r="I727" s="1"/>
+    </row>
+    <row r="728" ht="15.75" customHeight="1">
+      <c r="I728" s="1"/>
+    </row>
+    <row r="729" ht="15.75" customHeight="1">
+      <c r="I729" s="1"/>
+    </row>
+    <row r="730" ht="15.75" customHeight="1">
+      <c r="I730" s="1"/>
+    </row>
+    <row r="731" ht="15.75" customHeight="1">
+      <c r="I731" s="1"/>
+    </row>
+    <row r="732" ht="15.75" customHeight="1">
+      <c r="I732" s="1"/>
+    </row>
+    <row r="733" ht="15.75" customHeight="1">
+      <c r="I733" s="1"/>
+    </row>
+    <row r="734" ht="15.75" customHeight="1">
+      <c r="I734" s="1"/>
+    </row>
+    <row r="735" ht="15.75" customHeight="1">
+      <c r="I735" s="1"/>
+    </row>
+    <row r="736" ht="15.75" customHeight="1">
+      <c r="I736" s="1"/>
+    </row>
+    <row r="737" ht="15.75" customHeight="1">
+      <c r="I737" s="1"/>
+    </row>
+    <row r="738" ht="15.75" customHeight="1">
+      <c r="I738" s="1"/>
+    </row>
+    <row r="739" ht="15.75" customHeight="1">
+      <c r="I739" s="1"/>
+    </row>
+    <row r="740" ht="15.75" customHeight="1">
+      <c r="I740" s="1"/>
+    </row>
+    <row r="741" ht="15.75" customHeight="1">
+      <c r="I741" s="1"/>
+    </row>
+    <row r="742" ht="15.75" customHeight="1">
+      <c r="I742" s="1"/>
+    </row>
+    <row r="743" ht="15.75" customHeight="1">
+      <c r="I743" s="1"/>
+    </row>
+    <row r="744" ht="15.75" customHeight="1">
+      <c r="I744" s="1"/>
+    </row>
+    <row r="745" ht="15.75" customHeight="1">
+      <c r="I745" s="1"/>
+    </row>
+    <row r="746" ht="15.75" customHeight="1">
+      <c r="I746" s="1"/>
+    </row>
+    <row r="747" ht="15.75" customHeight="1">
+      <c r="I747" s="1"/>
+    </row>
+    <row r="748" ht="15.75" customHeight="1">
+      <c r="I748" s="1"/>
+    </row>
+    <row r="749" ht="15.75" customHeight="1">
+      <c r="I749" s="1"/>
+    </row>
+    <row r="750" ht="15.75" customHeight="1">
+      <c r="I750" s="1"/>
+    </row>
+    <row r="751" ht="15.75" customHeight="1">
+      <c r="I751" s="1"/>
+    </row>
+    <row r="752" ht="15.75" customHeight="1">
+      <c r="I752" s="1"/>
+    </row>
+    <row r="753" ht="15.75" customHeight="1">
+      <c r="I753" s="1"/>
+    </row>
+    <row r="754" ht="15.75" customHeight="1">
+      <c r="I754" s="1"/>
+    </row>
+    <row r="755" ht="15.75" customHeight="1">
+      <c r="I755" s="1"/>
+    </row>
+    <row r="756" ht="15.75" customHeight="1">
+      <c r="I756" s="1"/>
+    </row>
+    <row r="757" ht="15.75" customHeight="1">
+      <c r="I757" s="1"/>
+    </row>
+    <row r="758" ht="15.75" customHeight="1">
+      <c r="I758" s="1"/>
+    </row>
+    <row r="759" ht="15.75" customHeight="1">
+      <c r="I759" s="1"/>
+    </row>
+    <row r="760" ht="15.75" customHeight="1">
+      <c r="I760" s="1"/>
+    </row>
+    <row r="761" ht="15.75" customHeight="1">
+      <c r="I761" s="1"/>
+    </row>
+    <row r="762" ht="15.75" customHeight="1">
+      <c r="I762" s="1"/>
+    </row>
+    <row r="763" ht="15.75" customHeight="1">
+      <c r="I763" s="1"/>
+    </row>
+    <row r="764" ht="15.75" customHeight="1">
+      <c r="I764" s="1"/>
+    </row>
+    <row r="765" ht="15.75" customHeight="1">
+      <c r="I765" s="1"/>
+    </row>
+    <row r="766" ht="15.75" customHeight="1">
+      <c r="I766" s="1"/>
+    </row>
+    <row r="767" ht="15.75" customHeight="1">
+      <c r="I767" s="1"/>
+    </row>
+    <row r="768" ht="15.75" customHeight="1">
+      <c r="I768" s="1"/>
+    </row>
+    <row r="769" ht="15.75" customHeight="1">
+      <c r="I769" s="1"/>
+    </row>
+    <row r="770" ht="15.75" customHeight="1">
+      <c r="I770" s="1"/>
+    </row>
+    <row r="771" ht="15.75" customHeight="1">
+      <c r="I771" s="1"/>
+    </row>
+    <row r="772" ht="15.75" customHeight="1">
+      <c r="I772" s="1"/>
+    </row>
+    <row r="773" ht="15.75" customHeight="1">
+      <c r="I773" s="1"/>
+    </row>
+    <row r="774" ht="15.75" customHeight="1">
+      <c r="I774" s="1"/>
+    </row>
+    <row r="775" ht="15.75" customHeight="1">
+      <c r="I775" s="1"/>
+    </row>
+    <row r="776" ht="15.75" customHeight="1">
+      <c r="I776" s="1"/>
+    </row>
+    <row r="777" ht="15.75" customHeight="1">
+      <c r="I777" s="1"/>
+    </row>
+    <row r="778" ht="15.75" customHeight="1">
+      <c r="I778" s="1"/>
+    </row>
+    <row r="779" ht="15.75" customHeight="1">
+      <c r="I779" s="1"/>
+    </row>
+    <row r="780" ht="15.75" customHeight="1">
+      <c r="I780" s="1"/>
+    </row>
+    <row r="781" ht="15.75" customHeight="1">
+      <c r="I781" s="1"/>
+    </row>
+    <row r="782" ht="15.75" customHeight="1">
+      <c r="I782" s="1"/>
+    </row>
+    <row r="783" ht="15.75" customHeight="1">
+      <c r="I783" s="1"/>
+    </row>
+    <row r="784" ht="15.75" customHeight="1">
+      <c r="I784" s="1"/>
+    </row>
+    <row r="785" ht="15.75" customHeight="1">
+      <c r="I785" s="1"/>
+    </row>
+    <row r="786" ht="15.75" customHeight="1">
+      <c r="I786" s="1"/>
+    </row>
+    <row r="787" ht="15.75" customHeight="1">
+      <c r="I787" s="1"/>
+    </row>
+    <row r="788" ht="15.75" customHeight="1">
+      <c r="I788" s="1"/>
+    </row>
+    <row r="789" ht="15.75" customHeight="1">
+      <c r="I789" s="1"/>
+    </row>
+    <row r="790" ht="15.75" customHeight="1">
+      <c r="I790" s="1"/>
+    </row>
+    <row r="791" ht="15.75" customHeight="1">
+      <c r="I791" s="1"/>
+    </row>
+    <row r="792" ht="15.75" customHeight="1">
+      <c r="I792" s="1"/>
+    </row>
+    <row r="793" ht="15.75" customHeight="1">
+      <c r="I793" s="1"/>
+    </row>
+    <row r="794" ht="15.75" customHeight="1">
+      <c r="I794" s="1"/>
+    </row>
+    <row r="795" ht="15.75" customHeight="1">
+      <c r="I795" s="1"/>
+    </row>
+    <row r="796" ht="15.75" customHeight="1">
+      <c r="I796" s="1"/>
+    </row>
+    <row r="797" ht="15.75" customHeight="1">
+      <c r="I797" s="1"/>
+    </row>
+    <row r="798" ht="15.75" customHeight="1">
+      <c r="I798" s="1"/>
+    </row>
+    <row r="799" ht="15.75" customHeight="1">
+      <c r="I799" s="1"/>
+    </row>
+    <row r="800" ht="15.75" customHeight="1">
+      <c r="I800" s="1"/>
+    </row>
+    <row r="801" ht="15.75" customHeight="1">
+      <c r="I801" s="1"/>
+    </row>
+    <row r="802" ht="15.75" customHeight="1">
+      <c r="I802" s="1"/>
+    </row>
+    <row r="803" ht="15.75" customHeight="1">
+      <c r="I803" s="1"/>
+    </row>
+    <row r="804" ht="15.75" customHeight="1">
+      <c r="I804" s="1"/>
+    </row>
+    <row r="805" ht="15.75" customHeight="1">
+      <c r="I805" s="1"/>
+    </row>
+    <row r="806" ht="15.75" customHeight="1">
+      <c r="I806" s="1"/>
+    </row>
+    <row r="807" ht="15.75" customHeight="1">
+      <c r="I807" s="1"/>
+    </row>
+    <row r="808" ht="15.75" customHeight="1">
+      <c r="I808" s="1"/>
+    </row>
+    <row r="809" ht="15.75" customHeight="1">
+      <c r="I809" s="1"/>
+    </row>
+    <row r="810" ht="15.75" customHeight="1">
+      <c r="I810" s="1"/>
+    </row>
+    <row r="811" ht="15.75" customHeight="1">
+      <c r="I811" s="1"/>
+    </row>
+    <row r="812" ht="15.75" customHeight="1">
+      <c r="I812" s="1"/>
+    </row>
+    <row r="813" ht="15.75" customHeight="1">
+      <c r="I813" s="1"/>
+    </row>
+    <row r="814" ht="15.75" customHeight="1">
+      <c r="I814" s="1"/>
+    </row>
+    <row r="815" ht="15.75" customHeight="1">
+      <c r="I815" s="1"/>
+    </row>
+    <row r="816" ht="15.75" customHeight="1">
+      <c r="I816" s="1"/>
+    </row>
+    <row r="817" ht="15.75" customHeight="1">
+      <c r="I817" s="1"/>
+    </row>
+    <row r="818" ht="15.75" customHeight="1">
+      <c r="I818" s="1"/>
+    </row>
+    <row r="819" ht="15.75" customHeight="1">
+      <c r="I819" s="1"/>
+    </row>
+    <row r="820" ht="15.75" customHeight="1">
+      <c r="I820" s="1"/>
+    </row>
+    <row r="821" ht="15.75" customHeight="1">
+      <c r="I821" s="1"/>
+    </row>
+    <row r="822" ht="15.75" customHeight="1">
+      <c r="I822" s="1"/>
+    </row>
+    <row r="823" ht="15.75" customHeight="1">
+      <c r="I823" s="1"/>
+    </row>
+    <row r="824" ht="15.75" customHeight="1">
+      <c r="I824" s="1"/>
+    </row>
+    <row r="825" ht="15.75" customHeight="1">
+      <c r="I825" s="1"/>
+    </row>
+    <row r="826" ht="15.75" customHeight="1">
+      <c r="I826" s="1"/>
+    </row>
+    <row r="827" ht="15.75" customHeight="1">
+      <c r="I827" s="1"/>
+    </row>
+    <row r="828" ht="15.75" customHeight="1">
+      <c r="I828" s="1"/>
+    </row>
+    <row r="829" ht="15.75" customHeight="1">
+      <c r="I829" s="1"/>
+    </row>
+    <row r="830" ht="15.75" customHeight="1">
+      <c r="I830" s="1"/>
+    </row>
+    <row r="831" ht="15.75" customHeight="1">
+      <c r="I831" s="1"/>
+    </row>
+    <row r="832" ht="15.75" customHeight="1">
+      <c r="I832" s="1"/>
+    </row>
+    <row r="833" ht="15.75" customHeight="1">
+      <c r="I833" s="1"/>
+    </row>
+    <row r="834" ht="15.75" customHeight="1">
+      <c r="I834" s="1"/>
+    </row>
+    <row r="835" ht="15.75" customHeight="1">
+      <c r="I835" s="1"/>
+    </row>
+    <row r="836" ht="15.75" customHeight="1">
+      <c r="I836" s="1"/>
+    </row>
+    <row r="837" ht="15.75" customHeight="1">
+      <c r="I837" s="1"/>
+    </row>
+    <row r="838" ht="15.75" customHeight="1">
+      <c r="I838" s="1"/>
+    </row>
+    <row r="839" ht="15.75" customHeight="1">
+      <c r="I839" s="1"/>
+    </row>
+    <row r="840" ht="15.75" customHeight="1">
+      <c r="I840" s="1"/>
+    </row>
+    <row r="841" ht="15.75" customHeight="1">
+      <c r="I841" s="1"/>
+    </row>
+    <row r="842" ht="15.75" customHeight="1">
+      <c r="I842" s="1"/>
+    </row>
+    <row r="843" ht="15.75" customHeight="1">
+      <c r="I843" s="1"/>
+    </row>
+    <row r="844" ht="15.75" customHeight="1">
+      <c r="I844" s="1"/>
+    </row>
+    <row r="845" ht="15.75" customHeight="1">
+      <c r="I845" s="1"/>
+    </row>
+    <row r="846" ht="15.75" customHeight="1">
+      <c r="I846" s="1"/>
+    </row>
+    <row r="847" ht="15.75" customHeight="1">
+      <c r="I847" s="1"/>
+    </row>
+    <row r="848" ht="15.75" customHeight="1">
+      <c r="I848" s="1"/>
+    </row>
+    <row r="849" ht="15.75" customHeight="1">
+      <c r="I849" s="1"/>
+    </row>
+    <row r="850" ht="15.75" customHeight="1">
+      <c r="I850" s="1"/>
+    </row>
+    <row r="851" ht="15.75" customHeight="1">
+      <c r="I851" s="1"/>
+    </row>
+    <row r="852" ht="15.75" customHeight="1">
+      <c r="I852" s="1"/>
+    </row>
+    <row r="853" ht="15.75" customHeight="1">
+      <c r="I853" s="1"/>
+    </row>
+    <row r="854" ht="15.75" customHeight="1">
+      <c r="I854" s="1"/>
+    </row>
+    <row r="855" ht="15.75" customHeight="1">
+      <c r="I855" s="1"/>
+    </row>
+    <row r="856" ht="15.75" customHeight="1">
+      <c r="I856" s="1"/>
+    </row>
+    <row r="857" ht="15.75" customHeight="1">
+      <c r="I857" s="1"/>
+    </row>
+    <row r="858" ht="15.75" customHeight="1">
+      <c r="I858" s="1"/>
+    </row>
+    <row r="859" ht="15.75" customHeight="1">
+      <c r="I859" s="1"/>
+    </row>
+    <row r="860" ht="15.75" customHeight="1">
+      <c r="I860" s="1"/>
+    </row>
+    <row r="861" ht="15.75" customHeight="1">
+      <c r="I861" s="1"/>
+    </row>
+    <row r="862" ht="15.75" customHeight="1">
+      <c r="I862" s="1"/>
+    </row>
+    <row r="863" ht="15.75" customHeight="1">
+      <c r="I863" s="1"/>
+    </row>
+    <row r="864" ht="15.75" customHeight="1">
+      <c r="I864" s="1"/>
+    </row>
+    <row r="865" ht="15.75" customHeight="1">
+      <c r="I865" s="1"/>
+    </row>
+    <row r="866" ht="15.75" customHeight="1">
+      <c r="I866" s="1"/>
+    </row>
+    <row r="867" ht="15.75" customHeight="1">
+      <c r="I867" s="1"/>
+    </row>
+    <row r="868" ht="15.75" customHeight="1">
+      <c r="I868" s="1"/>
+    </row>
+    <row r="869" ht="15.75" customHeight="1">
+      <c r="I869" s="1"/>
+    </row>
+    <row r="870" ht="15.75" customHeight="1">
+      <c r="I870" s="1"/>
+    </row>
+    <row r="871" ht="15.75" customHeight="1">
+      <c r="I871" s="1"/>
+    </row>
+    <row r="872" ht="15.75" customHeight="1">
+      <c r="I872" s="1"/>
+    </row>
+    <row r="873" ht="15.75" customHeight="1">
+      <c r="I873" s="1"/>
+    </row>
+    <row r="874" ht="15.75" customHeight="1">
+      <c r="I874" s="1"/>
+    </row>
+    <row r="875" ht="15.75" customHeight="1">
+      <c r="I875" s="1"/>
+    </row>
+    <row r="876" ht="15.75" customHeight="1">
+      <c r="I876" s="1"/>
+    </row>
+    <row r="877" ht="15.75" customHeight="1">
+      <c r="I877" s="1"/>
+    </row>
+    <row r="878" ht="15.75" customHeight="1">
+      <c r="I878" s="1"/>
+    </row>
+    <row r="879" ht="15.75" customHeight="1">
+      <c r="I879" s="1"/>
+    </row>
+    <row r="880" ht="15.75" customHeight="1">
+      <c r="I880" s="1"/>
+    </row>
+    <row r="881" ht="15.75" customHeight="1">
+      <c r="I881" s="1"/>
+    </row>
+    <row r="882" ht="15.75" customHeight="1">
+      <c r="I882" s="1"/>
+    </row>
+    <row r="883" ht="15.75" customHeight="1">
+      <c r="I883" s="1"/>
+    </row>
+    <row r="884" ht="15.75" customHeight="1">
+      <c r="I884" s="1"/>
+    </row>
+    <row r="885" ht="15.75" customHeight="1">
+      <c r="I885" s="1"/>
+    </row>
+    <row r="886" ht="15.75" customHeight="1">
+      <c r="I886" s="1"/>
+    </row>
+    <row r="887" ht="15.75" customHeight="1">
+      <c r="I887" s="1"/>
+    </row>
+    <row r="888" ht="15.75" customHeight="1">
+      <c r="I888" s="1"/>
+    </row>
+    <row r="889" ht="15.75" customHeight="1">
+      <c r="I889" s="1"/>
+    </row>
+    <row r="890" ht="15.75" customHeight="1">
+      <c r="I890" s="1"/>
+    </row>
+    <row r="891" ht="15.75" customHeight="1">
+      <c r="I891" s="1"/>
+    </row>
+    <row r="892" ht="15.75" customHeight="1">
+      <c r="I892" s="1"/>
+    </row>
+    <row r="893" ht="15.75" customHeight="1">
+      <c r="I893" s="1"/>
+    </row>
+    <row r="894" ht="15.75" customHeight="1">
+      <c r="I894" s="1"/>
+    </row>
+    <row r="895" ht="15.75" customHeight="1">
+      <c r="I895" s="1"/>
+    </row>
+    <row r="896" ht="15.75" customHeight="1">
+      <c r="I896" s="1"/>
+    </row>
+    <row r="897" ht="15.75" customHeight="1">
+      <c r="I897" s="1"/>
+    </row>
+    <row r="898" ht="15.75" customHeight="1">
+      <c r="I898" s="1"/>
+    </row>
+    <row r="899" ht="15.75" customHeight="1">
+      <c r="I899" s="1"/>
+    </row>
+    <row r="900" ht="15.75" customHeight="1">
+      <c r="I900" s="1"/>
+    </row>
+    <row r="901" ht="15.75" customHeight="1">
+      <c r="I901" s="1"/>
+    </row>
+    <row r="902" ht="15.75" customHeight="1">
+      <c r="I902" s="1"/>
+    </row>
+    <row r="903" ht="15.75" customHeight="1">
+      <c r="I903" s="1"/>
+    </row>
+    <row r="904" ht="15.75" customHeight="1">
+      <c r="I904" s="1"/>
+    </row>
+    <row r="905" ht="15.75" customHeight="1">
+      <c r="I905" s="1"/>
+    </row>
+    <row r="906" ht="15.75" customHeight="1">
+      <c r="I906" s="1"/>
+    </row>
+    <row r="907" ht="15.75" customHeight="1">
+      <c r="I907" s="1"/>
+    </row>
+    <row r="908" ht="15.75" customHeight="1">
+      <c r="I908" s="1"/>
+    </row>
+    <row r="909" ht="15.75" customHeight="1">
+      <c r="I909" s="1"/>
+    </row>
+    <row r="910" ht="15.75" customHeight="1">
+      <c r="I910" s="1"/>
+    </row>
+    <row r="911" ht="15.75" customHeight="1">
+      <c r="I911" s="1"/>
+    </row>
+    <row r="912" ht="15.75" customHeight="1">
+      <c r="I912" s="1"/>
+    </row>
+    <row r="913" ht="15.75" customHeight="1">
+      <c r="I913" s="1"/>
+    </row>
+    <row r="914" ht="15.75" customHeight="1">
+      <c r="I914" s="1"/>
+    </row>
+    <row r="915" ht="15.75" customHeight="1">
+      <c r="I915" s="1"/>
+    </row>
+    <row r="916" ht="15.75" customHeight="1">
+      <c r="I916" s="1"/>
+    </row>
+    <row r="917" ht="15.75" customHeight="1">
+      <c r="I917" s="1"/>
+    </row>
+    <row r="918" ht="15.75" customHeight="1">
+      <c r="I918" s="1"/>
+    </row>
+    <row r="919" ht="15.75" customHeight="1">
+      <c r="I919" s="1"/>
+    </row>
+    <row r="920" ht="15.75" customHeight="1">
+      <c r="I920" s="1"/>
+    </row>
+    <row r="921" ht="15.75" customHeight="1">
+      <c r="I921" s="1"/>
+    </row>
+    <row r="922" ht="15.75" customHeight="1">
+      <c r="I922" s="1"/>
+    </row>
+    <row r="923" ht="15.75" customHeight="1">
+      <c r="I923" s="1"/>
+    </row>
+    <row r="924" ht="15.75" customHeight="1">
+      <c r="I924" s="1"/>
+    </row>
+    <row r="925" ht="15.75" customHeight="1">
+      <c r="I925" s="1"/>
+    </row>
+    <row r="926" ht="15.75" customHeight="1">
+      <c r="I926" s="1"/>
+    </row>
+    <row r="927" ht="15.75" customHeight="1">
+      <c r="I927" s="1"/>
+    </row>
+    <row r="928" ht="15.75" customHeight="1">
+      <c r="I928" s="1"/>
+    </row>
+    <row r="929" ht="15.75" customHeight="1">
+      <c r="I929" s="1"/>
+    </row>
+    <row r="930" ht="15.75" customHeight="1">
+      <c r="I930" s="1"/>
+    </row>
+    <row r="931" ht="15.75" customHeight="1">
+      <c r="I931" s="1"/>
+    </row>
+    <row r="932" ht="15.75" customHeight="1">
+      <c r="I932" s="1"/>
+    </row>
+    <row r="933" ht="15.75" customHeight="1">
+      <c r="I933" s="1"/>
+    </row>
+    <row r="934" ht="15.75" customHeight="1">
+      <c r="I934" s="1"/>
+    </row>
+    <row r="935" ht="15.75" customHeight="1">
+      <c r="I935" s="1"/>
+    </row>
+    <row r="936" ht="15.75" customHeight="1">
+      <c r="I936" s="1"/>
+    </row>
+    <row r="937" ht="15.75" customHeight="1">
+      <c r="I937" s="1"/>
+    </row>
+    <row r="938" ht="15.75" customHeight="1">
+      <c r="I938" s="1"/>
+    </row>
+    <row r="939" ht="15.75" customHeight="1">
+      <c r="I939" s="1"/>
+    </row>
+    <row r="940" ht="15.75" customHeight="1">
+      <c r="I940" s="1"/>
+    </row>
+    <row r="941" ht="15.75" customHeight="1">
+      <c r="I941" s="1"/>
+    </row>
+    <row r="942" ht="15.75" customHeight="1">
+      <c r="I942" s="1"/>
+    </row>
+    <row r="943" ht="15.75" customHeight="1">
+      <c r="I943" s="1"/>
+    </row>
+    <row r="944" ht="15.75" customHeight="1">
+      <c r="I944" s="1"/>
+    </row>
+    <row r="945" ht="15.75" customHeight="1">
+      <c r="I945" s="1"/>
+    </row>
+    <row r="946" ht="15.75" customHeight="1">
+      <c r="I946" s="1"/>
+    </row>
+    <row r="947" ht="15.75" customHeight="1">
+      <c r="I947" s="1"/>
+    </row>
+    <row r="948" ht="15.75" customHeight="1">
+      <c r="I948" s="1"/>
+    </row>
+    <row r="949" ht="15.75" customHeight="1">
+      <c r="I949" s="1"/>
+    </row>
+    <row r="950" ht="15.75" customHeight="1">
+      <c r="I950" s="1"/>
+    </row>
+    <row r="951" ht="15.75" customHeight="1">
+      <c r="I951" s="1"/>
+    </row>
+    <row r="952" ht="15.75" customHeight="1">
+      <c r="I952" s="1"/>
+    </row>
+    <row r="953" ht="15.75" customHeight="1">
+      <c r="I953" s="1"/>
+    </row>
+    <row r="954" ht="15.75" customHeight="1">
+      <c r="I954" s="1"/>
+    </row>
+    <row r="955" ht="15.75" customHeight="1">
+      <c r="I955" s="1"/>
+    </row>
+    <row r="956" ht="15.75" customHeight="1">
+      <c r="I956" s="1"/>
+    </row>
+    <row r="957" ht="15.75" customHeight="1">
+      <c r="I957" s="1"/>
+    </row>
+    <row r="958" ht="15.75" customHeight="1">
+      <c r="I958" s="1"/>
+    </row>
+    <row r="959" ht="15.75" customHeight="1">
+      <c r="I959" s="1"/>
+    </row>
+    <row r="960" ht="15.75" customHeight="1">
+      <c r="I960" s="1"/>
+    </row>
+    <row r="961" ht="15.75" customHeight="1">
+      <c r="I961" s="1"/>
+    </row>
+    <row r="962" ht="15.75" customHeight="1">
+      <c r="I962" s="1"/>
+    </row>
+    <row r="963" ht="15.75" customHeight="1">
+      <c r="I963" s="1"/>
+    </row>
+    <row r="964" ht="15.75" customHeight="1">
+      <c r="I964" s="1"/>
+    </row>
+    <row r="965" ht="15.75" customHeight="1">
+      <c r="I965" s="1"/>
+    </row>
+    <row r="966" ht="15.75" customHeight="1">
+      <c r="I966" s="1"/>
+    </row>
+    <row r="967" ht="15.75" customHeight="1">
+      <c r="I967" s="1"/>
+    </row>
+    <row r="968" ht="15.75" customHeight="1">
+      <c r="I968" s="1"/>
+    </row>
+    <row r="969" ht="15.75" customHeight="1">
+      <c r="I969" s="1"/>
+    </row>
+    <row r="970" ht="15.75" customHeight="1">
+      <c r="I970" s="1"/>
+    </row>
+    <row r="971" ht="15.75" customHeight="1">
+      <c r="I971" s="1"/>
+    </row>
+    <row r="972" ht="15.75" customHeight="1">
+      <c r="I972" s="1"/>
+    </row>
+    <row r="973" ht="15.75" customHeight="1">
+      <c r="I973" s="1"/>
+    </row>
+    <row r="974" ht="15.75" customHeight="1">
+      <c r="I974" s="1"/>
+    </row>
+    <row r="975" ht="15.75" customHeight="1">
+      <c r="I975" s="1"/>
+    </row>
+    <row r="976" ht="15.75" customHeight="1">
+      <c r="I976" s="1"/>
+    </row>
+    <row r="977" ht="15.75" customHeight="1">
+      <c r="I977" s="1"/>
+    </row>
+    <row r="978" ht="15.75" customHeight="1">
+      <c r="I978" s="1"/>
+    </row>
+    <row r="979" ht="15.75" customHeight="1">
+      <c r="I979" s="1"/>
+    </row>
+    <row r="980" ht="15.75" customHeight="1">
+      <c r="I980" s="1"/>
+    </row>
+    <row r="981" ht="15.75" customHeight="1">
+      <c r="I981" s="1"/>
+    </row>
+    <row r="982" ht="15.75" customHeight="1">
+      <c r="I982" s="1"/>
+    </row>
+    <row r="983" ht="15.75" customHeight="1">
+      <c r="I983" s="1"/>
+    </row>
+    <row r="984" ht="15.75" customHeight="1">
+      <c r="I984" s="1"/>
+    </row>
+    <row r="985" ht="15.75" customHeight="1">
+      <c r="I985" s="1"/>
+    </row>
+    <row r="986" ht="15.75" customHeight="1">
+      <c r="I986" s="1"/>
+    </row>
+    <row r="987" ht="15.75" customHeight="1">
+      <c r="I987" s="1"/>
+    </row>
+    <row r="988" ht="15.75" customHeight="1">
+      <c r="I988" s="1"/>
+    </row>
+    <row r="989" ht="15.75" customHeight="1">
+      <c r="I989" s="1"/>
+    </row>
+    <row r="990" ht="15.75" customHeight="1">
+      <c r="I990" s="1"/>
+    </row>
+    <row r="991" ht="15.75" customHeight="1">
+      <c r="I991" s="1"/>
+    </row>
   </sheetData>
   <printOptions/>
   <pageMargins bottom="1.0" footer="0.0" header="0.0" left="0.75" right="0.75" top="1.0"/>
@@ -6010,47 +7707,47 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="s">
-        <v>324</v>
+        <v>315</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>325</v>
+        <v>316</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="3" t="s">
-        <v>326</v>
+        <v>317</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="s">
-        <v>327</v>
+        <v>318</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="s">
-        <v>328</v>
+        <v>319</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="s">
-        <v>329</v>
+        <v>320</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="s">
-        <v>330</v>
+        <v>321</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="s">
-        <v>331</v>
+        <v>322</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="s">
-        <v>332</v>
+        <v>323</v>
       </c>
     </row>
   </sheetData>
